--- a/ingredients/ingredients_dictionary.xlsx
+++ b/ingredients/ingredients_dictionary.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\adipr\PycharmProjects\englishTranslate\ingredients\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B30D55B-61F4-4072-9291-4A2EC9C99CCE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1D7A65A-7D4E-42B7-97C2-600DFEACB0F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5278" uniqueCount="4836">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5412" uniqueCount="4952">
   <si>
     <t>Japanese</t>
   </si>
@@ -14540,6 +14540,354 @@
   </si>
   <si>
     <t>Naruto roasted Salt 59</t>
+  </si>
+  <si>
+    <t>発酵トマトエキスパウダー</t>
+  </si>
+  <si>
+    <t>ミルポワパウダー</t>
+  </si>
+  <si>
+    <t>セロリシード</t>
+  </si>
+  <si>
+    <t>アメリカ製造又はドイツ製造</t>
+  </si>
+  <si>
+    <t>Lーイソロイシン</t>
+  </si>
+  <si>
+    <t>豆板醤パウダー</t>
+  </si>
+  <si>
+    <t>乾燥あんず加工品</t>
+  </si>
+  <si>
+    <t>たまねぎエキスパウダー</t>
+  </si>
+  <si>
+    <t>チキンコンソメパウダー</t>
+  </si>
+  <si>
+    <t>発酵風味液</t>
+  </si>
+  <si>
+    <t>β</t>
+  </si>
+  <si>
+    <t>ゆず胡椒パウダー</t>
+  </si>
+  <si>
+    <t>Côte</t>
+  </si>
+  <si>
+    <t>Lーアルギ二ン</t>
+  </si>
+  <si>
+    <t>粉末みりん風味調味料</t>
+  </si>
+  <si>
+    <t>クミン</t>
+  </si>
+  <si>
+    <t>タンニン</t>
+  </si>
+  <si>
+    <t>マスカルポーネチーズパウダー</t>
+  </si>
+  <si>
+    <t>焦がししょうゆパウダー</t>
+  </si>
+  <si>
+    <t>ぶどうエキス</t>
+  </si>
+  <si>
+    <t>豚そぼろ肉風味フレーク</t>
+  </si>
+  <si>
+    <t>あおさてんぷら</t>
+  </si>
+  <si>
+    <t>香辛料パウダー</t>
+  </si>
+  <si>
+    <t>えびシーズニング</t>
+  </si>
+  <si>
+    <t>βーカロチン</t>
+  </si>
+  <si>
+    <t>Lーロイシン</t>
+  </si>
+  <si>
+    <t>ももスピリッツ</t>
+  </si>
+  <si>
+    <t>ライチ</t>
+  </si>
+  <si>
+    <t>北海道産100</t>
+  </si>
+  <si>
+    <t>マスタードパウダー</t>
+  </si>
+  <si>
+    <t>ぶどうスピリッツ</t>
+  </si>
+  <si>
+    <t>えび調味料粉末</t>
+  </si>
+  <si>
+    <t>紅生姜入り小えびてんぷら</t>
+  </si>
+  <si>
+    <t>濃縮リンゴ果汁</t>
+  </si>
+  <si>
+    <t>セージ</t>
+  </si>
+  <si>
+    <t>Lーバリン</t>
+  </si>
+  <si>
+    <t>ホワイトペパー</t>
+  </si>
+  <si>
+    <t>焼酎</t>
+  </si>
+  <si>
+    <t>粉末加工油脂</t>
+  </si>
+  <si>
+    <t>北海道美瑛町産100</t>
+  </si>
+  <si>
+    <t>トリュフエキスチップ</t>
+  </si>
+  <si>
+    <t>ジンジャーペースト</t>
+  </si>
+  <si>
+    <t>アルペンザルツ88</t>
+  </si>
+  <si>
+    <t>リンゴ酸</t>
+  </si>
+  <si>
+    <t>ねぎパウダー</t>
+  </si>
+  <si>
+    <t>フェンネル</t>
+  </si>
+  <si>
+    <t>オリーブオイル</t>
+  </si>
+  <si>
+    <t>北海道産使用</t>
+  </si>
+  <si>
+    <t>かつおだし味シーズニング</t>
+  </si>
+  <si>
+    <t>ゴーダチーズパウダー</t>
+  </si>
+  <si>
+    <t>かきパウダー</t>
+  </si>
+  <si>
+    <t>唐辛子風味フレーク</t>
+  </si>
+  <si>
+    <t>タンジェリン</t>
+  </si>
+  <si>
+    <t>味付けかつおぶし粉末</t>
+  </si>
+  <si>
+    <t>にんにく醤油シーズニング</t>
+  </si>
+  <si>
+    <t>オールスパイス</t>
+  </si>
+  <si>
+    <t>ブラックペパー</t>
+  </si>
+  <si>
+    <t>ビーフコンソメパウダー</t>
+  </si>
+  <si>
+    <t>殺菌乳酸菌末</t>
+  </si>
+  <si>
+    <t>アヒージョシーズニング</t>
+  </si>
+  <si>
+    <t>アンチョビパウダー</t>
+  </si>
+  <si>
+    <t>はくさいエキスパウダー</t>
+  </si>
+  <si>
+    <t>北海道産サワークリーム使用</t>
+  </si>
+  <si>
+    <t>卵黄パウダー</t>
+  </si>
+  <si>
+    <t>ビーフシチュー風味シーズニング</t>
+  </si>
+  <si>
+    <t>一部にえびを含む</t>
+  </si>
+  <si>
+    <t>一部にオレンジを含む</t>
+  </si>
+  <si>
+    <t>fermented tomato extract powder</t>
+  </si>
+  <si>
+    <t>celery seed</t>
+  </si>
+  <si>
+    <t>Made in USA or Made in Germany</t>
+  </si>
+  <si>
+    <t>L-isoleucine</t>
+  </si>
+  <si>
+    <t>doubanjiang powder</t>
+  </si>
+  <si>
+    <t>chicken consomme powder</t>
+  </si>
+  <si>
+    <t>L-arginine</t>
+  </si>
+  <si>
+    <t>cumin</t>
+  </si>
+  <si>
+    <t>mascarpone cheese powder</t>
+  </si>
+  <si>
+    <t>minced pork flavored flakes</t>
+  </si>
+  <si>
+    <t>spices powder</t>
+  </si>
+  <si>
+    <t>L-Leucine</t>
+  </si>
+  <si>
+    <t>mustard powder</t>
+  </si>
+  <si>
+    <t>grape spirits</t>
+  </si>
+  <si>
+    <t>sage</t>
+  </si>
+  <si>
+    <t>L-valine</t>
+  </si>
+  <si>
+    <t>shochu</t>
+  </si>
+  <si>
+    <t>truffle extract chips</t>
+  </si>
+  <si>
+    <t>Alpine Salz 88</t>
+  </si>
+  <si>
+    <t>malic acid</t>
+  </si>
+  <si>
+    <t>green onion powder</t>
+  </si>
+  <si>
+    <t>gouda cheese powder</t>
+  </si>
+  <si>
+    <t>oyster powder</t>
+  </si>
+  <si>
+    <t>chili flavored flakes</t>
+  </si>
+  <si>
+    <t>tangerine</t>
+  </si>
+  <si>
+    <t>garlic soy sauce seasoning</t>
+  </si>
+  <si>
+    <t>allspice</t>
+  </si>
+  <si>
+    <t>beef consommé powder</t>
+  </si>
+  <si>
+    <t>Ajillo Seasoning</t>
+  </si>
+  <si>
+    <t>Chinese cabbage extract powder</t>
+  </si>
+  <si>
+    <t>beef stew seasoning</t>
+  </si>
+  <si>
+    <t>processed dried apricots</t>
+  </si>
+  <si>
+    <t>fermented flavor liquid</t>
+  </si>
+  <si>
+    <t>powdered mirin flavor seasoning</t>
+  </si>
+  <si>
+    <t>tannin</t>
+  </si>
+  <si>
+    <t>burnt soy sauce powder</t>
+  </si>
+  <si>
+    <t>Aosa tempura</t>
+  </si>
+  <si>
+    <t>peaches spirits</t>
+  </si>
+  <si>
+    <t>lychee</t>
+  </si>
+  <si>
+    <t>small shrimp tempura with red ginger</t>
+  </si>
+  <si>
+    <t>powder processed oil</t>
+  </si>
+  <si>
+    <t>made in Biei, Hokkaido 100</t>
+  </si>
+  <si>
+    <t>fennel</t>
+  </si>
+  <si>
+    <t>Hokkaido product used</t>
+  </si>
+  <si>
+    <t>bonito flavor seasoning</t>
+  </si>
+  <si>
+    <t>seasoned dried bonito powder</t>
+  </si>
+  <si>
+    <t>sterilized lactic acid bacteria powder</t>
+  </si>
+  <si>
+    <t>made with Hokkaido sour cream</t>
+  </si>
+  <si>
+    <t>may contain oranges</t>
   </si>
 </sst>
 </file>
@@ -15626,10 +15974,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:H2639"/>
+  <dimension ref="A1:H2706"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2603" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A2620" sqref="A2620"/>
+    <sheetView tabSelected="1" topLeftCell="A2668" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B2706" sqref="B2706"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.5703125" defaultRowHeight="15"/>
@@ -37166,6 +37514,542 @@
         <v>4822</v>
       </c>
     </row>
+    <row r="2640" spans="1:2">
+      <c r="A2640" t="s">
+        <v>4836</v>
+      </c>
+      <c r="B2640" t="s">
+        <v>4903</v>
+      </c>
+    </row>
+    <row r="2641" spans="1:2">
+      <c r="A2641" t="s">
+        <v>4837</v>
+      </c>
+      <c r="B2641" t="s">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="2642" spans="1:2">
+      <c r="A2642" t="s">
+        <v>4838</v>
+      </c>
+      <c r="B2642" t="s">
+        <v>4904</v>
+      </c>
+    </row>
+    <row r="2643" spans="1:2">
+      <c r="A2643" t="s">
+        <v>4839</v>
+      </c>
+      <c r="B2643" t="s">
+        <v>4905</v>
+      </c>
+    </row>
+    <row r="2644" spans="1:2">
+      <c r="A2644" t="s">
+        <v>4840</v>
+      </c>
+      <c r="B2644" t="s">
+        <v>4906</v>
+      </c>
+    </row>
+    <row r="2645" spans="1:2">
+      <c r="A2645" t="s">
+        <v>4841</v>
+      </c>
+      <c r="B2645" t="s">
+        <v>4907</v>
+      </c>
+    </row>
+    <row r="2646" spans="1:2">
+      <c r="A2646" t="s">
+        <v>4842</v>
+      </c>
+      <c r="B2646" t="s">
+        <v>4934</v>
+      </c>
+    </row>
+    <row r="2647" spans="1:2">
+      <c r="A2647" t="s">
+        <v>4843</v>
+      </c>
+      <c r="B2647" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="2648" spans="1:2">
+      <c r="A2648" t="s">
+        <v>4844</v>
+      </c>
+      <c r="B2648" t="s">
+        <v>4908</v>
+      </c>
+    </row>
+    <row r="2649" spans="1:2">
+      <c r="A2649" t="s">
+        <v>4845</v>
+      </c>
+      <c r="B2649" t="s">
+        <v>4935</v>
+      </c>
+    </row>
+    <row r="2650" spans="1:2">
+      <c r="A2650" t="s">
+        <v>4846</v>
+      </c>
+      <c r="B2650" t="s">
+        <v>4846</v>
+      </c>
+    </row>
+    <row r="2651" spans="1:2">
+      <c r="A2651" t="s">
+        <v>4847</v>
+      </c>
+      <c r="B2651" t="s">
+        <v>4090</v>
+      </c>
+    </row>
+    <row r="2652" spans="1:2">
+      <c r="A2652" t="s">
+        <v>4848</v>
+      </c>
+      <c r="B2652" t="s">
+        <v>4848</v>
+      </c>
+    </row>
+    <row r="2653" spans="1:2">
+      <c r="A2653" t="s">
+        <v>4849</v>
+      </c>
+      <c r="B2653" t="s">
+        <v>4909</v>
+      </c>
+    </row>
+    <row r="2654" spans="1:2">
+      <c r="A2654" t="s">
+        <v>4850</v>
+      </c>
+      <c r="B2654" t="s">
+        <v>4936</v>
+      </c>
+    </row>
+    <row r="2655" spans="1:2">
+      <c r="A2655" t="s">
+        <v>4851</v>
+      </c>
+      <c r="B2655" t="s">
+        <v>4910</v>
+      </c>
+    </row>
+    <row r="2656" spans="1:2">
+      <c r="A2656" t="s">
+        <v>4852</v>
+      </c>
+      <c r="B2656" t="s">
+        <v>4937</v>
+      </c>
+    </row>
+    <row r="2657" spans="1:2">
+      <c r="A2657" t="s">
+        <v>4853</v>
+      </c>
+      <c r="B2657" t="s">
+        <v>4911</v>
+      </c>
+    </row>
+    <row r="2658" spans="1:2">
+      <c r="A2658" t="s">
+        <v>4854</v>
+      </c>
+      <c r="B2658" t="s">
+        <v>4938</v>
+      </c>
+    </row>
+    <row r="2659" spans="1:2">
+      <c r="A2659" t="s">
+        <v>4855</v>
+      </c>
+      <c r="B2659" t="s">
+        <v>2832</v>
+      </c>
+    </row>
+    <row r="2660" spans="1:2">
+      <c r="A2660" t="s">
+        <v>4856</v>
+      </c>
+      <c r="B2660" t="s">
+        <v>4912</v>
+      </c>
+    </row>
+    <row r="2661" spans="1:2">
+      <c r="A2661" t="s">
+        <v>4857</v>
+      </c>
+      <c r="B2661" t="s">
+        <v>4939</v>
+      </c>
+    </row>
+    <row r="2662" spans="1:2">
+      <c r="A2662" t="s">
+        <v>4858</v>
+      </c>
+      <c r="B2662" t="s">
+        <v>4913</v>
+      </c>
+    </row>
+    <row r="2663" spans="1:2">
+      <c r="A2663" t="s">
+        <v>4859</v>
+      </c>
+      <c r="B2663" t="s">
+        <v>971</v>
+      </c>
+    </row>
+    <row r="2664" spans="1:2">
+      <c r="A2664" t="s">
+        <v>4860</v>
+      </c>
+      <c r="B2664" t="s">
+        <v>4751</v>
+      </c>
+    </row>
+    <row r="2665" spans="1:2">
+      <c r="A2665" t="s">
+        <v>4861</v>
+      </c>
+      <c r="B2665" t="s">
+        <v>4914</v>
+      </c>
+    </row>
+    <row r="2666" spans="1:2">
+      <c r="A2666" t="s">
+        <v>4862</v>
+      </c>
+      <c r="B2666" t="s">
+        <v>4940</v>
+      </c>
+    </row>
+    <row r="2667" spans="1:2">
+      <c r="A2667" t="s">
+        <v>4863</v>
+      </c>
+      <c r="B2667" t="s">
+        <v>4941</v>
+      </c>
+    </row>
+    <row r="2668" spans="1:2">
+      <c r="A2668" t="s">
+        <v>4864</v>
+      </c>
+      <c r="B2668" t="s">
+        <v>2992</v>
+      </c>
+    </row>
+    <row r="2669" spans="1:2">
+      <c r="A2669" t="s">
+        <v>4865</v>
+      </c>
+      <c r="B2669" t="s">
+        <v>4915</v>
+      </c>
+    </row>
+    <row r="2670" spans="1:2">
+      <c r="A2670" t="s">
+        <v>4866</v>
+      </c>
+      <c r="B2670" t="s">
+        <v>4916</v>
+      </c>
+    </row>
+    <row r="2671" spans="1:2">
+      <c r="A2671" t="s">
+        <v>4867</v>
+      </c>
+      <c r="B2671" t="s">
+        <v>4031</v>
+      </c>
+    </row>
+    <row r="2672" spans="1:2">
+      <c r="A2672" t="s">
+        <v>4868</v>
+      </c>
+      <c r="B2672" t="s">
+        <v>4942</v>
+      </c>
+    </row>
+    <row r="2673" spans="1:2">
+      <c r="A2673" t="s">
+        <v>4869</v>
+      </c>
+      <c r="B2673" t="s">
+        <v>985</v>
+      </c>
+    </row>
+    <row r="2674" spans="1:2">
+      <c r="A2674" t="s">
+        <v>4870</v>
+      </c>
+      <c r="B2674" t="s">
+        <v>4917</v>
+      </c>
+    </row>
+    <row r="2675" spans="1:2">
+      <c r="A2675" t="s">
+        <v>4871</v>
+      </c>
+      <c r="B2675" t="s">
+        <v>4918</v>
+      </c>
+    </row>
+    <row r="2676" spans="1:2">
+      <c r="A2676" t="s">
+        <v>4872</v>
+      </c>
+      <c r="B2676" t="s">
+        <v>1476</v>
+      </c>
+    </row>
+    <row r="2677" spans="1:2">
+      <c r="A2677" t="s">
+        <v>4873</v>
+      </c>
+      <c r="B2677" t="s">
+        <v>4919</v>
+      </c>
+    </row>
+    <row r="2678" spans="1:2">
+      <c r="A2678" t="s">
+        <v>4874</v>
+      </c>
+      <c r="B2678" t="s">
+        <v>4943</v>
+      </c>
+    </row>
+    <row r="2679" spans="1:2">
+      <c r="A2679" t="s">
+        <v>4875</v>
+      </c>
+      <c r="B2679" t="s">
+        <v>4944</v>
+      </c>
+    </row>
+    <row r="2680" spans="1:2">
+      <c r="A2680" t="s">
+        <v>4876</v>
+      </c>
+      <c r="B2680" t="s">
+        <v>4920</v>
+      </c>
+    </row>
+    <row r="2681" spans="1:2">
+      <c r="A2681" t="s">
+        <v>4877</v>
+      </c>
+      <c r="B2681" t="s">
+        <v>874</v>
+      </c>
+    </row>
+    <row r="2682" spans="1:2">
+      <c r="A2682" t="s">
+        <v>4878</v>
+      </c>
+      <c r="B2682" t="s">
+        <v>4921</v>
+      </c>
+    </row>
+    <row r="2683" spans="1:2">
+      <c r="A2683" t="s">
+        <v>4879</v>
+      </c>
+      <c r="B2683" t="s">
+        <v>4922</v>
+      </c>
+    </row>
+    <row r="2684" spans="1:2">
+      <c r="A2684" t="s">
+        <v>4880</v>
+      </c>
+      <c r="B2684" t="s">
+        <v>4923</v>
+      </c>
+    </row>
+    <row r="2685" spans="1:2">
+      <c r="A2685" t="s">
+        <v>4881</v>
+      </c>
+      <c r="B2685" t="s">
+        <v>4945</v>
+      </c>
+    </row>
+    <row r="2686" spans="1:2">
+      <c r="A2686" t="s">
+        <v>4882</v>
+      </c>
+      <c r="B2686" t="s">
+        <v>1028</v>
+      </c>
+    </row>
+    <row r="2687" spans="1:2">
+      <c r="A2687" t="s">
+        <v>4883</v>
+      </c>
+      <c r="B2687" t="s">
+        <v>4946</v>
+      </c>
+    </row>
+    <row r="2688" spans="1:2">
+      <c r="A2688" t="s">
+        <v>4884</v>
+      </c>
+      <c r="B2688" t="s">
+        <v>4947</v>
+      </c>
+    </row>
+    <row r="2689" spans="1:2">
+      <c r="A2689" t="s">
+        <v>4885</v>
+      </c>
+      <c r="B2689" t="s">
+        <v>4924</v>
+      </c>
+    </row>
+    <row r="2690" spans="1:2">
+      <c r="A2690" t="s">
+        <v>4886</v>
+      </c>
+      <c r="B2690" t="s">
+        <v>4925</v>
+      </c>
+    </row>
+    <row r="2691" spans="1:2">
+      <c r="A2691" t="s">
+        <v>4887</v>
+      </c>
+      <c r="B2691" t="s">
+        <v>4926</v>
+      </c>
+    </row>
+    <row r="2692" spans="1:2">
+      <c r="A2692" t="s">
+        <v>4888</v>
+      </c>
+      <c r="B2692" t="s">
+        <v>4927</v>
+      </c>
+    </row>
+    <row r="2693" spans="1:2">
+      <c r="A2693" t="s">
+        <v>4889</v>
+      </c>
+      <c r="B2693" t="s">
+        <v>4948</v>
+      </c>
+    </row>
+    <row r="2694" spans="1:2">
+      <c r="A2694" t="s">
+        <v>4890</v>
+      </c>
+      <c r="B2694" t="s">
+        <v>4928</v>
+      </c>
+    </row>
+    <row r="2695" spans="1:2">
+      <c r="A2695" t="s">
+        <v>4891</v>
+      </c>
+      <c r="B2695" t="s">
+        <v>4929</v>
+      </c>
+    </row>
+    <row r="2696" spans="1:2">
+      <c r="A2696" t="s">
+        <v>4892</v>
+      </c>
+      <c r="B2696" t="s">
+        <v>1218</v>
+      </c>
+    </row>
+    <row r="2697" spans="1:2">
+      <c r="A2697" t="s">
+        <v>4893</v>
+      </c>
+      <c r="B2697" t="s">
+        <v>4930</v>
+      </c>
+    </row>
+    <row r="2698" spans="1:2">
+      <c r="A2698" t="s">
+        <v>4894</v>
+      </c>
+      <c r="B2698" t="s">
+        <v>4949</v>
+      </c>
+    </row>
+    <row r="2699" spans="1:2">
+      <c r="A2699" t="s">
+        <v>4895</v>
+      </c>
+      <c r="B2699" t="s">
+        <v>4931</v>
+      </c>
+    </row>
+    <row r="2700" spans="1:2">
+      <c r="A2700" t="s">
+        <v>4896</v>
+      </c>
+      <c r="B2700" t="s">
+        <v>1973</v>
+      </c>
+    </row>
+    <row r="2701" spans="1:2">
+      <c r="A2701" t="s">
+        <v>4897</v>
+      </c>
+      <c r="B2701" t="s">
+        <v>4932</v>
+      </c>
+    </row>
+    <row r="2702" spans="1:2">
+      <c r="A2702" t="s">
+        <v>4898</v>
+      </c>
+      <c r="B2702" t="s">
+        <v>4950</v>
+      </c>
+    </row>
+    <row r="2703" spans="1:2">
+      <c r="A2703" t="s">
+        <v>4899</v>
+      </c>
+      <c r="B2703" t="s">
+        <v>1124</v>
+      </c>
+    </row>
+    <row r="2704" spans="1:2">
+      <c r="A2704" t="s">
+        <v>4900</v>
+      </c>
+      <c r="B2704" t="s">
+        <v>4933</v>
+      </c>
+    </row>
+    <row r="2705" spans="1:2">
+      <c r="A2705" t="s">
+        <v>4901</v>
+      </c>
+      <c r="B2705" t="s">
+        <v>2283</v>
+      </c>
+    </row>
+    <row r="2706" spans="1:2">
+      <c r="A2706" t="s">
+        <v>4902</v>
+      </c>
+      <c r="B2706" t="s">
+        <v>4951</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:B1692" xr:uid="{CBA4EA5D-7BCB-4D65-BB42-CEEA87D5CB91}"/>
   <conditionalFormatting sqref="A1:A1048576">

--- a/ingredients/ingredients_dictionary.xlsx
+++ b/ingredients/ingredients_dictionary.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25928"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\adipr\PycharmProjects\englishTranslate\ingredients\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PycharmProjects\englishTranslate\ingredients\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1D7A65A-7D4E-42B7-97C2-600DFEACB0F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98188ADE-B7E0-4612-97D9-05A2469B6674}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="translated_list" sheetId="1" r:id="rId1"/>
@@ -19,20 +19,11 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">translated_list!$A$1:$B$1692</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5412" uniqueCount="4952">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5562" uniqueCount="5085">
   <si>
     <t>Japanese</t>
   </si>
@@ -14888,18 +14879,424 @@
   </si>
   <si>
     <t>may contain oranges</t>
+  </si>
+  <si>
+    <t>ガムべース</t>
+  </si>
+  <si>
+    <t>香料ドキンちゃん</t>
+  </si>
+  <si>
+    <t>紅しょうがパウダー</t>
+  </si>
+  <si>
+    <t>イカ墨</t>
+  </si>
+  <si>
+    <t>ピーチソース</t>
+  </si>
+  <si>
+    <t>アルゼンチン</t>
+  </si>
+  <si>
+    <t>筍</t>
+  </si>
+  <si>
+    <t>にぼし調味油</t>
+  </si>
+  <si>
+    <t>ピーチエキス</t>
+  </si>
+  <si>
+    <t>カカオエキス</t>
+  </si>
+  <si>
+    <t>梅肉エキスパウダー</t>
+  </si>
+  <si>
+    <t>粉末醸造酢</t>
+  </si>
+  <si>
+    <t>カレー風味シーズニング</t>
+  </si>
+  <si>
+    <t>カナダ産又はニュージーランド産</t>
+  </si>
+  <si>
+    <t>イスラエル</t>
+  </si>
+  <si>
+    <t>ブルーベリー濃縮果汁</t>
+  </si>
+  <si>
+    <t>黒豆</t>
+  </si>
+  <si>
+    <t>ブラックキャロットジュース</t>
+  </si>
+  <si>
+    <t>味付けわかめ</t>
+  </si>
+  <si>
+    <t>味付さけ粉末</t>
+  </si>
+  <si>
+    <t>しょうゆ風味調味料</t>
+  </si>
+  <si>
+    <t>トマト風味フレーク</t>
+  </si>
+  <si>
+    <t>果糖ぶどう糖</t>
+  </si>
+  <si>
+    <t>小麦デンプン</t>
+  </si>
+  <si>
+    <t>れもん</t>
+  </si>
+  <si>
+    <t>ラムネ菓子</t>
+  </si>
+  <si>
+    <t>赤糖豆</t>
+  </si>
+  <si>
+    <t>シンガポール製造</t>
+  </si>
+  <si>
+    <t>たんぱく化水分解物</t>
+  </si>
+  <si>
+    <t>クロレラエキス</t>
+  </si>
+  <si>
+    <t>味付け鶏ミンチ</t>
+  </si>
+  <si>
+    <t>でんぷん粉</t>
+  </si>
+  <si>
+    <t>バター醤油風味シーズニング</t>
+  </si>
+  <si>
+    <t>ごまわかめ</t>
+  </si>
+  <si>
+    <t>揚げギョーザ</t>
+  </si>
+  <si>
+    <t>白えび殻パウダー</t>
+  </si>
+  <si>
+    <t>コチニール色素</t>
+  </si>
+  <si>
+    <t>抹茶ペースト</t>
+  </si>
+  <si>
+    <t>きくらげ</t>
+  </si>
+  <si>
+    <t>植物性乳酸菌末</t>
+  </si>
+  <si>
+    <t>鮭調味料</t>
+  </si>
+  <si>
+    <t>クラッカー</t>
+  </si>
+  <si>
+    <t>ベニバナ黄</t>
+  </si>
+  <si>
+    <t>味付たらこ粉末</t>
+  </si>
+  <si>
+    <t>さけエキス</t>
+  </si>
+  <si>
+    <t>バジル粉末</t>
+  </si>
+  <si>
+    <t>分別生産流通管理済み</t>
+  </si>
+  <si>
+    <t>かつお削りぶし</t>
+  </si>
+  <si>
+    <t>カカオ加工品</t>
+  </si>
+  <si>
+    <t>まぐろ削りぶし</t>
+  </si>
+  <si>
+    <t>ももピューレ</t>
+  </si>
+  <si>
+    <t>磯豆</t>
+  </si>
+  <si>
+    <t>すきやき風味シーズニング</t>
+  </si>
+  <si>
+    <t>炭酸カルシウム膨張剤</t>
+  </si>
+  <si>
+    <t>グレープ果汁加工品</t>
+  </si>
+  <si>
+    <t>モーくんチップ入りすきやき</t>
+  </si>
+  <si>
+    <t>乳成分を含む製品を生産しています</t>
+  </si>
+  <si>
+    <t>スピルリナ色素</t>
+  </si>
+  <si>
+    <t>乳糖を主原料とする食品</t>
+  </si>
+  <si>
+    <t>ブルーベリーパウダー</t>
+  </si>
+  <si>
+    <t>うにパウダー</t>
+  </si>
+  <si>
+    <t>ソルピトール</t>
+  </si>
+  <si>
+    <t>調製ラード</t>
+  </si>
+  <si>
+    <t>ひよこチップ入りのりたま</t>
+  </si>
+  <si>
+    <t>クランベリー濃縮果汁</t>
+  </si>
+  <si>
+    <t>乳頭を主原料とする食品</t>
+  </si>
+  <si>
+    <t>ラック色素</t>
+  </si>
+  <si>
+    <t>小麦全粒粉10</t>
+  </si>
+  <si>
+    <t>アルギン酸ナトリウム</t>
+  </si>
+  <si>
+    <t>伊勢海老パウダー</t>
+  </si>
+  <si>
+    <t>カツオブシ</t>
+  </si>
+  <si>
+    <t>本品製造ラインでは</t>
+  </si>
+  <si>
+    <t>いりこ</t>
+  </si>
+  <si>
+    <t>福豆</t>
+  </si>
+  <si>
+    <t>わかめ粉末</t>
+  </si>
+  <si>
+    <t>red ginger powder</t>
+  </si>
+  <si>
+    <t>squid ink</t>
+  </si>
+  <si>
+    <t>peach sauce</t>
+  </si>
+  <si>
+    <t>Argentina</t>
+  </si>
+  <si>
+    <t>bamboo shoots</t>
+  </si>
+  <si>
+    <t>cocoa extract</t>
+  </si>
+  <si>
+    <t>powdered brewed vinegar</t>
+  </si>
+  <si>
+    <t>Israel</t>
+  </si>
+  <si>
+    <t>blueberry juice concentrate</t>
+  </si>
+  <si>
+    <t>black carrot juice</t>
+  </si>
+  <si>
+    <t>seasoned salmon powder</t>
+  </si>
+  <si>
+    <t>tomato flavored flakes</t>
+  </si>
+  <si>
+    <t>fructose glucose</t>
+  </si>
+  <si>
+    <t>red sugar beans</t>
+  </si>
+  <si>
+    <t>singapore manufacturing</t>
+  </si>
+  <si>
+    <t>chlorella extract</t>
+  </si>
+  <si>
+    <t>starch powder</t>
+  </si>
+  <si>
+    <t>fried gyoza</t>
+  </si>
+  <si>
+    <t>white shrimp shell powder</t>
+  </si>
+  <si>
+    <t>cochineal pigment</t>
+  </si>
+  <si>
+    <t>matcha paste</t>
+  </si>
+  <si>
+    <t>salmon seasoning</t>
+  </si>
+  <si>
+    <t>cracker</t>
+  </si>
+  <si>
+    <t>seasoned cod roe powder</t>
+  </si>
+  <si>
+    <t>basil powder</t>
+  </si>
+  <si>
+    <t>calcium carbonate swelling agent</t>
+  </si>
+  <si>
+    <t>Sukiyaki with Mo-kun chips</t>
+  </si>
+  <si>
+    <t>blueberry powder</t>
+  </si>
+  <si>
+    <t>sea urchin powder</t>
+  </si>
+  <si>
+    <t>prepared lard</t>
+  </si>
+  <si>
+    <t>cranberry juice concentrate</t>
+  </si>
+  <si>
+    <t>whole wheat flour 10</t>
+  </si>
+  <si>
+    <t>niboshi seasoning oil</t>
+  </si>
+  <si>
+    <t>plum flesh extract powder</t>
+  </si>
+  <si>
+    <t>Canadian or New Zealand production</t>
+  </si>
+  <si>
+    <t>black bean</t>
+  </si>
+  <si>
+    <t>ramune sweets</t>
+  </si>
+  <si>
+    <t>sesame seaweed</t>
+  </si>
+  <si>
+    <t>kikurage</t>
+  </si>
+  <si>
+    <t>vegetable lactic acid bacteria powder</t>
+  </si>
+  <si>
+    <t>separate production and distribution management</t>
+  </si>
+  <si>
+    <t>bonito shavings</t>
+  </si>
+  <si>
+    <t>cacao processed products</t>
+  </si>
+  <si>
+    <t>tuna shavings</t>
+  </si>
+  <si>
+    <t>thigh puree</t>
+  </si>
+  <si>
+    <t>isomame</t>
+  </si>
+  <si>
+    <t>sukiyaki seasoning</t>
+  </si>
+  <si>
+    <t>grape juice processed product</t>
+  </si>
+  <si>
+    <t>may contains dairy ingredients</t>
+  </si>
+  <si>
+    <t>spirulina pigment</t>
+  </si>
+  <si>
+    <t>foods made mainly from lactose</t>
+  </si>
+  <si>
+    <t>noritama with Hyoko chips</t>
+  </si>
+  <si>
+    <t>food made mainly from teat</t>
+  </si>
+  <si>
+    <t>lac dye</t>
+  </si>
+  <si>
+    <t>in this product production line</t>
+  </si>
+  <si>
+    <t>iriko</t>
+  </si>
+  <si>
+    <t>fukumame</t>
+  </si>
+  <si>
+    <t>seaweed powder</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="72">
+  <fonts count="73">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -15452,18 +15849,21 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="80">
+  <cellXfs count="81">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="69" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="70" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="70" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="71" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="71" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="69" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="68" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
@@ -15471,22 +15871,19 @@
     <xf numFmtId="0" fontId="67" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="66" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="65" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="64" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
+    <xf numFmtId="0" fontId="72" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="63" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="71" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="62" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
@@ -15496,8 +15893,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="66" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="60" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="67" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="61" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="59" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="58" fillId="0" borderId="0" xfId="0" applyFont="1">
@@ -15506,7 +15906,7 @@
     <xf numFmtId="0" fontId="57" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="56" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="55" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="54" fillId="0" borderId="0" xfId="0" applyFont="1">
@@ -15533,7 +15933,7 @@
     <xf numFmtId="0" fontId="47" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="46" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="44" fillId="0" borderId="0" xfId="0" applyFont="1">
@@ -15548,7 +15948,7 @@
     <xf numFmtId="0" fontId="41" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="0" applyFont="1">
@@ -15557,7 +15957,7 @@
     <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1">
@@ -15575,44 +15975,44 @@
     <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="67" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="61" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="59" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="68" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="62" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="65" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="60" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="66" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="55" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="56" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="45" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="46" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1">
@@ -15974,10 +16374,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:H2706"/>
+  <dimension ref="A1:H2781"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2668" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B2706" sqref="B2706"/>
+    <sheetView tabSelected="1" topLeftCell="A2756" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B2782" sqref="B2782"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.5703125" defaultRowHeight="15"/>
@@ -38050,6 +38450,606 @@
         <v>4951</v>
       </c>
     </row>
+    <row r="2707" spans="1:2">
+      <c r="A2707" s="80" t="s">
+        <v>4952</v>
+      </c>
+      <c r="B2707" s="80" t="s">
+        <v>1101</v>
+      </c>
+    </row>
+    <row r="2708" spans="1:2">
+      <c r="A2708" t="s">
+        <v>4953</v>
+      </c>
+      <c r="B2708" s="80" t="s">
+        <v>2305</v>
+      </c>
+    </row>
+    <row r="2709" spans="1:2">
+      <c r="A2709" t="s">
+        <v>4954</v>
+      </c>
+      <c r="B2709" t="s">
+        <v>5027</v>
+      </c>
+    </row>
+    <row r="2710" spans="1:2">
+      <c r="A2710" t="s">
+        <v>4955</v>
+      </c>
+      <c r="B2710" t="s">
+        <v>5028</v>
+      </c>
+    </row>
+    <row r="2711" spans="1:2">
+      <c r="A2711" t="s">
+        <v>4956</v>
+      </c>
+      <c r="B2711" t="s">
+        <v>5029</v>
+      </c>
+    </row>
+    <row r="2712" spans="1:2">
+      <c r="A2712" t="s">
+        <v>4957</v>
+      </c>
+      <c r="B2712" t="s">
+        <v>5030</v>
+      </c>
+    </row>
+    <row r="2713" spans="1:2">
+      <c r="A2713" t="s">
+        <v>4958</v>
+      </c>
+      <c r="B2713" t="s">
+        <v>5031</v>
+      </c>
+    </row>
+    <row r="2714" spans="1:2">
+      <c r="A2714" t="s">
+        <v>4959</v>
+      </c>
+      <c r="B2714" s="80" t="s">
+        <v>5059</v>
+      </c>
+    </row>
+    <row r="2715" spans="1:2">
+      <c r="A2715" t="s">
+        <v>4960</v>
+      </c>
+      <c r="B2715" t="s">
+        <v>4434</v>
+      </c>
+    </row>
+    <row r="2716" spans="1:2">
+      <c r="A2716" t="s">
+        <v>4961</v>
+      </c>
+      <c r="B2716" t="s">
+        <v>5032</v>
+      </c>
+    </row>
+    <row r="2717" spans="1:2">
+      <c r="A2717" t="s">
+        <v>4962</v>
+      </c>
+      <c r="B2717" s="80" t="s">
+        <v>5060</v>
+      </c>
+    </row>
+    <row r="2718" spans="1:2">
+      <c r="A2718" t="s">
+        <v>4963</v>
+      </c>
+      <c r="B2718" t="s">
+        <v>5033</v>
+      </c>
+    </row>
+    <row r="2719" spans="1:2">
+      <c r="A2719" t="s">
+        <v>4964</v>
+      </c>
+      <c r="B2719" t="s">
+        <v>1163</v>
+      </c>
+    </row>
+    <row r="2720" spans="1:2">
+      <c r="A2720" t="s">
+        <v>4965</v>
+      </c>
+      <c r="B2720" s="80" t="s">
+        <v>5061</v>
+      </c>
+    </row>
+    <row r="2721" spans="1:2">
+      <c r="A2721" t="s">
+        <v>4966</v>
+      </c>
+      <c r="B2721" t="s">
+        <v>5034</v>
+      </c>
+    </row>
+    <row r="2722" spans="1:2">
+      <c r="A2722" t="s">
+        <v>4967</v>
+      </c>
+      <c r="B2722" t="s">
+        <v>5035</v>
+      </c>
+    </row>
+    <row r="2723" spans="1:2">
+      <c r="A2723" t="s">
+        <v>4968</v>
+      </c>
+      <c r="B2723" s="80" t="s">
+        <v>5062</v>
+      </c>
+    </row>
+    <row r="2724" spans="1:2">
+      <c r="A2724" t="s">
+        <v>4969</v>
+      </c>
+      <c r="B2724" t="s">
+        <v>5036</v>
+      </c>
+    </row>
+    <row r="2725" spans="1:2">
+      <c r="A2725" t="s">
+        <v>4970</v>
+      </c>
+      <c r="B2725" s="80" t="s">
+        <v>2243</v>
+      </c>
+    </row>
+    <row r="2726" spans="1:2">
+      <c r="A2726" t="s">
+        <v>4971</v>
+      </c>
+      <c r="B2726" t="s">
+        <v>5037</v>
+      </c>
+    </row>
+    <row r="2727" spans="1:2">
+      <c r="A2727" t="s">
+        <v>4972</v>
+      </c>
+      <c r="B2727" s="80" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="2728" spans="1:2">
+      <c r="A2728" t="s">
+        <v>4973</v>
+      </c>
+      <c r="B2728" t="s">
+        <v>5038</v>
+      </c>
+    </row>
+    <row r="2729" spans="1:2">
+      <c r="A2729" t="s">
+        <v>4974</v>
+      </c>
+      <c r="B2729" t="s">
+        <v>5039</v>
+      </c>
+    </row>
+    <row r="2730" spans="1:2">
+      <c r="A2730" t="s">
+        <v>4975</v>
+      </c>
+      <c r="B2730" t="s">
+        <v>674</v>
+      </c>
+    </row>
+    <row r="2731" spans="1:2">
+      <c r="A2731" t="s">
+        <v>4976</v>
+      </c>
+      <c r="B2731" s="80" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="2732" spans="1:2">
+      <c r="A2732" t="s">
+        <v>4977</v>
+      </c>
+      <c r="B2732" s="80" t="s">
+        <v>5063</v>
+      </c>
+    </row>
+    <row r="2733" spans="1:2">
+      <c r="A2733" t="s">
+        <v>4978</v>
+      </c>
+      <c r="B2733" t="s">
+        <v>5040</v>
+      </c>
+    </row>
+    <row r="2734" spans="1:2">
+      <c r="A2734" t="s">
+        <v>4979</v>
+      </c>
+      <c r="B2734" t="s">
+        <v>5041</v>
+      </c>
+    </row>
+    <row r="2735" spans="1:2">
+      <c r="A2735" t="s">
+        <v>4980</v>
+      </c>
+      <c r="B2735" s="80" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="2736" spans="1:2">
+      <c r="A2736" t="s">
+        <v>4981</v>
+      </c>
+      <c r="B2736" t="s">
+        <v>5042</v>
+      </c>
+    </row>
+    <row r="2737" spans="1:2">
+      <c r="A2737" t="s">
+        <v>4982</v>
+      </c>
+      <c r="B2737" t="s">
+        <v>702</v>
+      </c>
+    </row>
+    <row r="2738" spans="1:2">
+      <c r="A2738" t="s">
+        <v>4983</v>
+      </c>
+      <c r="B2738" t="s">
+        <v>5043</v>
+      </c>
+    </row>
+    <row r="2739" spans="1:2">
+      <c r="A2739" t="s">
+        <v>4984</v>
+      </c>
+      <c r="B2739" s="80" t="s">
+        <v>2811</v>
+      </c>
+    </row>
+    <row r="2740" spans="1:2">
+      <c r="A2740" t="s">
+        <v>4985</v>
+      </c>
+      <c r="B2740" s="80" t="s">
+        <v>5064</v>
+      </c>
+    </row>
+    <row r="2741" spans="1:2">
+      <c r="A2741" t="s">
+        <v>4986</v>
+      </c>
+      <c r="B2741" t="s">
+        <v>5044</v>
+      </c>
+    </row>
+    <row r="2742" spans="1:2">
+      <c r="A2742" t="s">
+        <v>4987</v>
+      </c>
+      <c r="B2742" t="s">
+        <v>5045</v>
+      </c>
+    </row>
+    <row r="2743" spans="1:2">
+      <c r="A2743" t="s">
+        <v>4988</v>
+      </c>
+      <c r="B2743" t="s">
+        <v>5046</v>
+      </c>
+    </row>
+    <row r="2744" spans="1:2">
+      <c r="A2744" t="s">
+        <v>4989</v>
+      </c>
+      <c r="B2744" t="s">
+        <v>5047</v>
+      </c>
+    </row>
+    <row r="2745" spans="1:2">
+      <c r="A2745" t="s">
+        <v>4990</v>
+      </c>
+      <c r="B2745" s="80" t="s">
+        <v>5065</v>
+      </c>
+    </row>
+    <row r="2746" spans="1:2">
+      <c r="A2746" t="s">
+        <v>4991</v>
+      </c>
+      <c r="B2746" s="80" t="s">
+        <v>5066</v>
+      </c>
+    </row>
+    <row r="2747" spans="1:2">
+      <c r="A2747" t="s">
+        <v>4992</v>
+      </c>
+      <c r="B2747" t="s">
+        <v>5048</v>
+      </c>
+    </row>
+    <row r="2748" spans="1:2">
+      <c r="A2748" t="s">
+        <v>4993</v>
+      </c>
+      <c r="B2748" t="s">
+        <v>5049</v>
+      </c>
+    </row>
+    <row r="2749" spans="1:2">
+      <c r="A2749" t="s">
+        <v>4994</v>
+      </c>
+      <c r="B2749" t="s">
+        <v>1097</v>
+      </c>
+    </row>
+    <row r="2750" spans="1:2">
+      <c r="A2750" t="s">
+        <v>4995</v>
+      </c>
+      <c r="B2750" t="s">
+        <v>5050</v>
+      </c>
+    </row>
+    <row r="2751" spans="1:2">
+      <c r="A2751" t="s">
+        <v>4996</v>
+      </c>
+      <c r="B2751" t="s">
+        <v>4402</v>
+      </c>
+    </row>
+    <row r="2752" spans="1:2">
+      <c r="A2752" t="s">
+        <v>4997</v>
+      </c>
+      <c r="B2752" t="s">
+        <v>5051</v>
+      </c>
+    </row>
+    <row r="2753" spans="1:2">
+      <c r="A2753" t="s">
+        <v>4998</v>
+      </c>
+      <c r="B2753" s="80" t="s">
+        <v>5067</v>
+      </c>
+    </row>
+    <row r="2754" spans="1:2">
+      <c r="A2754" t="s">
+        <v>4999</v>
+      </c>
+      <c r="B2754" s="80" t="s">
+        <v>5068</v>
+      </c>
+    </row>
+    <row r="2755" spans="1:2">
+      <c r="A2755" t="s">
+        <v>5000</v>
+      </c>
+      <c r="B2755" s="80" t="s">
+        <v>5069</v>
+      </c>
+    </row>
+    <row r="2756" spans="1:2">
+      <c r="A2756" t="s">
+        <v>5001</v>
+      </c>
+      <c r="B2756" s="80" t="s">
+        <v>5070</v>
+      </c>
+    </row>
+    <row r="2757" spans="1:2">
+      <c r="A2757" t="s">
+        <v>5002</v>
+      </c>
+      <c r="B2757" s="80" t="s">
+        <v>5071</v>
+      </c>
+    </row>
+    <row r="2758" spans="1:2">
+      <c r="A2758" t="s">
+        <v>5003</v>
+      </c>
+      <c r="B2758" s="80" t="s">
+        <v>5072</v>
+      </c>
+    </row>
+    <row r="2759" spans="1:2">
+      <c r="A2759" t="s">
+        <v>5004</v>
+      </c>
+      <c r="B2759" s="80" t="s">
+        <v>5073</v>
+      </c>
+    </row>
+    <row r="2760" spans="1:2">
+      <c r="A2760" t="s">
+        <v>5005</v>
+      </c>
+      <c r="B2760" t="s">
+        <v>5052</v>
+      </c>
+    </row>
+    <row r="2761" spans="1:2">
+      <c r="A2761" t="s">
+        <v>5006</v>
+      </c>
+      <c r="B2761" s="80" t="s">
+        <v>5074</v>
+      </c>
+    </row>
+    <row r="2762" spans="1:2">
+      <c r="A2762" t="s">
+        <v>5007</v>
+      </c>
+      <c r="B2762" s="80" t="s">
+        <v>5053</v>
+      </c>
+    </row>
+    <row r="2763" spans="1:2">
+      <c r="A2763" t="s">
+        <v>5008</v>
+      </c>
+      <c r="B2763" s="80" t="s">
+        <v>5075</v>
+      </c>
+    </row>
+    <row r="2764" spans="1:2">
+      <c r="A2764" t="s">
+        <v>5009</v>
+      </c>
+      <c r="B2764" s="80" t="s">
+        <v>5076</v>
+      </c>
+    </row>
+    <row r="2765" spans="1:2">
+      <c r="A2765" t="s">
+        <v>5010</v>
+      </c>
+      <c r="B2765" s="80" t="s">
+        <v>5077</v>
+      </c>
+    </row>
+    <row r="2766" spans="1:2">
+      <c r="A2766" t="s">
+        <v>5011</v>
+      </c>
+      <c r="B2766" t="s">
+        <v>5054</v>
+      </c>
+    </row>
+    <row r="2767" spans="1:2">
+      <c r="A2767" t="s">
+        <v>5012</v>
+      </c>
+      <c r="B2767" t="s">
+        <v>5055</v>
+      </c>
+    </row>
+    <row r="2768" spans="1:2">
+      <c r="A2768" t="s">
+        <v>5013</v>
+      </c>
+      <c r="B2768" s="80" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="2769" spans="1:2">
+      <c r="A2769" t="s">
+        <v>5014</v>
+      </c>
+      <c r="B2769" t="s">
+        <v>5056</v>
+      </c>
+    </row>
+    <row r="2770" spans="1:2">
+      <c r="A2770" t="s">
+        <v>5015</v>
+      </c>
+      <c r="B2770" s="80" t="s">
+        <v>5078</v>
+      </c>
+    </row>
+    <row r="2771" spans="1:2">
+      <c r="A2771" t="s">
+        <v>5016</v>
+      </c>
+      <c r="B2771" t="s">
+        <v>5057</v>
+      </c>
+    </row>
+    <row r="2772" spans="1:2">
+      <c r="A2772" s="80" t="s">
+        <v>5017</v>
+      </c>
+      <c r="B2772" s="80" t="s">
+        <v>5079</v>
+      </c>
+    </row>
+    <row r="2773" spans="1:2">
+      <c r="A2773" t="s">
+        <v>5018</v>
+      </c>
+      <c r="B2773" s="80" t="s">
+        <v>5080</v>
+      </c>
+    </row>
+    <row r="2774" spans="1:2">
+      <c r="A2774" t="s">
+        <v>5019</v>
+      </c>
+      <c r="B2774" t="s">
+        <v>5058</v>
+      </c>
+    </row>
+    <row r="2775" spans="1:2">
+      <c r="A2775" t="s">
+        <v>5020</v>
+      </c>
+      <c r="B2775" t="s">
+        <v>2926</v>
+      </c>
+    </row>
+    <row r="2776" spans="1:2">
+      <c r="A2776" t="s">
+        <v>5021</v>
+      </c>
+      <c r="B2776" s="80" t="s">
+        <v>4503</v>
+      </c>
+    </row>
+    <row r="2777" spans="1:2">
+      <c r="A2777" t="s">
+        <v>5022</v>
+      </c>
+      <c r="B2777" s="80" t="s">
+        <v>5068</v>
+      </c>
+    </row>
+    <row r="2778" spans="1:2">
+      <c r="A2778" t="s">
+        <v>5023</v>
+      </c>
+      <c r="B2778" s="80" t="s">
+        <v>5081</v>
+      </c>
+    </row>
+    <row r="2779" spans="1:2">
+      <c r="A2779" t="s">
+        <v>5024</v>
+      </c>
+      <c r="B2779" s="80" t="s">
+        <v>5082</v>
+      </c>
+    </row>
+    <row r="2780" spans="1:2">
+      <c r="A2780" t="s">
+        <v>5025</v>
+      </c>
+      <c r="B2780" s="80" t="s">
+        <v>5083</v>
+      </c>
+    </row>
+    <row r="2781" spans="1:2">
+      <c r="A2781" t="s">
+        <v>5026</v>
+      </c>
+      <c r="B2781" s="80" t="s">
+        <v>5084</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:B1692" xr:uid="{CBA4EA5D-7BCB-4D65-BB42-CEEA87D5CB91}"/>
   <conditionalFormatting sqref="A1:A1048576">

--- a/ingredients/ingredients_dictionary.xlsx
+++ b/ingredients/ingredients_dictionary.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26130"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PycharmProjects\englishTranslate\ingredients\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98188ADE-B7E0-4612-97D9-05A2469B6674}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D329DB7-A64B-403A-BB67-4193ADA19157}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="translated_list" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5562" uniqueCount="5085">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5714" uniqueCount="5224">
   <si>
     <t>Japanese</t>
   </si>
@@ -15278,18 +15278,470 @@
   </si>
   <si>
     <t>seaweed powder</t>
+  </si>
+  <si>
+    <t>アイスランド産</t>
+  </si>
+  <si>
+    <t>ハートチップ入りたらこ</t>
+  </si>
+  <si>
+    <t>還元水あ</t>
+  </si>
+  <si>
+    <t>卵白粉末</t>
+  </si>
+  <si>
+    <t>made in Iceland</t>
+  </si>
+  <si>
+    <t>cod roe with heart chips</t>
+  </si>
+  <si>
+    <t>砂糖混合ブドウ糖果糖液糖</t>
+  </si>
+  <si>
+    <t>調整豆乳パウダー</t>
+  </si>
+  <si>
+    <t>鮭エキスパウダー</t>
+  </si>
+  <si>
+    <t>油揚げ</t>
+  </si>
+  <si>
+    <t>えだまめパウダー</t>
+  </si>
+  <si>
+    <t>ペッパーガーリックマヨネーズ</t>
+  </si>
+  <si>
+    <t>トムヤムシーズニングパウダー</t>
+  </si>
+  <si>
+    <t>かつお調味料</t>
+  </si>
+  <si>
+    <t>いわしエキスパウダー</t>
+  </si>
+  <si>
+    <t>あさりエキスパウダー</t>
+  </si>
+  <si>
+    <t>かつお節調味料</t>
+  </si>
+  <si>
+    <t>ピスタチオペースト</t>
+  </si>
+  <si>
+    <t>カニ調味料</t>
+  </si>
+  <si>
+    <t>貝柱風かまぼこ</t>
+  </si>
+  <si>
+    <t>一部にリンゴ</t>
+  </si>
+  <si>
+    <t>ガーリックバター風味パウダー</t>
+  </si>
+  <si>
+    <t>牛脂加工パウダー</t>
+  </si>
+  <si>
+    <t>京都産宇治抹茶100</t>
+  </si>
+  <si>
+    <t>野菜エキスシーズニング</t>
+  </si>
+  <si>
+    <t>あさり調味料</t>
+  </si>
+  <si>
+    <t>さば節粉末</t>
+  </si>
+  <si>
+    <t>合鴨調味料</t>
+  </si>
+  <si>
+    <t>ペルー産コーヒー豆51</t>
+  </si>
+  <si>
+    <t>創味のつゆ使用</t>
+  </si>
+  <si>
+    <t>しじみペーストパウダー</t>
+  </si>
+  <si>
+    <t>たらこパウダー</t>
+  </si>
+  <si>
+    <t>かきエキスパウダー</t>
+  </si>
+  <si>
+    <t>sugar mixed glucose fructose liquid sugar</t>
+  </si>
+  <si>
+    <t>fried tofu</t>
+  </si>
+  <si>
+    <t>pepper garlic mayonnaise</t>
+  </si>
+  <si>
+    <t>tom yum seasoning powder</t>
+  </si>
+  <si>
+    <t>bonito seasoning</t>
+  </si>
+  <si>
+    <t>clam extract powder</t>
+  </si>
+  <si>
+    <t>pistachio paste</t>
+  </si>
+  <si>
+    <t>crab seasoning</t>
+  </si>
+  <si>
+    <t>beef tallow powder</t>
+  </si>
+  <si>
+    <t>vegetable extract seasoning</t>
+  </si>
+  <si>
+    <t>clam seasoning</t>
+  </si>
+  <si>
+    <t>dried mackerel powder</t>
+  </si>
+  <si>
+    <t>clam paste powder</t>
+  </si>
+  <si>
+    <t>oyster extract powder</t>
+  </si>
+  <si>
+    <t>adjusted soymilk powder</t>
+  </si>
+  <si>
+    <t>sardine extract powder</t>
+  </si>
+  <si>
+    <t>scallop style kamaboko</t>
+  </si>
+  <si>
+    <t>some parts may contain apple</t>
+  </si>
+  <si>
+    <t>garlic butter flavored powder</t>
+  </si>
+  <si>
+    <t>Kyoto uji matcha 100</t>
+  </si>
+  <si>
+    <t>domestic duck seasoning</t>
+  </si>
+  <si>
+    <t>合鴨</t>
+  </si>
+  <si>
+    <t>domestic duck</t>
+  </si>
+  <si>
+    <t>Peruvian coffee beans 51</t>
+  </si>
+  <si>
+    <t>made with somi-no-tsuyu sauce</t>
+  </si>
+  <si>
+    <t>ひよこ豆粉</t>
+  </si>
+  <si>
+    <t>砂糖調製品</t>
+  </si>
+  <si>
+    <t>フランス産岩塩90</t>
+  </si>
+  <si>
+    <t>香料油</t>
+  </si>
+  <si>
+    <t>スペイン産</t>
+  </si>
+  <si>
+    <t>りんご濃縮果汁</t>
+  </si>
+  <si>
+    <t>ライムジュースパウダー</t>
+  </si>
+  <si>
+    <t>ポムポムプリン</t>
+  </si>
+  <si>
+    <t>バナナ味キャンディ砂糖</t>
+  </si>
+  <si>
+    <t>たんぱく加水分解物加工品</t>
+  </si>
+  <si>
+    <t>マイメロディ</t>
+  </si>
+  <si>
+    <t>カシューナッツ</t>
+  </si>
+  <si>
+    <t>かつおだし粉末</t>
+  </si>
+  <si>
+    <t>菊花抽出物</t>
+  </si>
+  <si>
+    <t>レッドペッパー</t>
+  </si>
+  <si>
+    <t>ポチャッコ</t>
+  </si>
+  <si>
+    <t>桜エキス</t>
+  </si>
+  <si>
+    <t>そうだかつお</t>
+  </si>
+  <si>
+    <t>黒コショウパウダー</t>
+  </si>
+  <si>
+    <t>ひよこ豆ペレット</t>
+  </si>
+  <si>
+    <t>ハバネロピューレ</t>
+  </si>
+  <si>
+    <t>香辛料抽出</t>
+  </si>
+  <si>
+    <t>遺伝子組換えの混入を防ぐため分別</t>
+  </si>
+  <si>
+    <t>ハローキティ</t>
+  </si>
+  <si>
+    <t>カカオ</t>
+  </si>
+  <si>
+    <t>粉末発酵乳</t>
+  </si>
+  <si>
+    <t>桜花塩漬</t>
+  </si>
+  <si>
+    <t>焼きとうもろこし風味シーズニング</t>
+  </si>
+  <si>
+    <t>桜ペースト</t>
+  </si>
+  <si>
+    <t>パセリフレーク</t>
+  </si>
+  <si>
+    <t>バナナを含む</t>
+  </si>
+  <si>
+    <t>りんご味キャンディ砂糖</t>
+  </si>
+  <si>
+    <t>粉末油</t>
+  </si>
+  <si>
+    <t>パーム湯</t>
+  </si>
+  <si>
+    <t>桜パウダー</t>
+  </si>
+  <si>
+    <t>岩塩シーズニング</t>
+  </si>
+  <si>
+    <t>シナモロール</t>
+  </si>
+  <si>
+    <t>レモンピールパウダー</t>
+  </si>
+  <si>
+    <t>桜葉塩漬</t>
+  </si>
+  <si>
+    <t>白桃果汁パウダー</t>
+  </si>
+  <si>
+    <t>ポテト風味シーズニング</t>
+  </si>
+  <si>
+    <t>chickpea flour</t>
+  </si>
+  <si>
+    <t>French rock salt 90</t>
+  </si>
+  <si>
+    <t>fragrance oil</t>
+  </si>
+  <si>
+    <t>from Spain</t>
+  </si>
+  <si>
+    <t>sugar prepared product</t>
+  </si>
+  <si>
+    <t>Pompompurin</t>
+  </si>
+  <si>
+    <t>banana flavored candy sugar</t>
+  </si>
+  <si>
+    <t>cashew nuts</t>
+  </si>
+  <si>
+    <t>chrysanthemum extract</t>
+  </si>
+  <si>
+    <t>Pochacco</t>
+  </si>
+  <si>
+    <t>バナナ味</t>
+  </si>
+  <si>
+    <t>banana flavor</t>
+  </si>
+  <si>
+    <t>processed protein hydrolyzate</t>
+  </si>
+  <si>
+    <t>My Melody</t>
+  </si>
+  <si>
+    <t>bonito dashi powder</t>
+  </si>
+  <si>
+    <t>チョコレート利用食品</t>
+  </si>
+  <si>
+    <t>chickpea pellets</t>
+  </si>
+  <si>
+    <t>sakura extract</t>
+  </si>
+  <si>
+    <t>Souda bonito</t>
+  </si>
+  <si>
+    <t>chocolate-based foods</t>
+  </si>
+  <si>
+    <t>habanero puree</t>
+  </si>
+  <si>
+    <t>Separation to prevent genetically modified contamination</t>
+  </si>
+  <si>
+    <t>Hello Kitty</t>
+  </si>
+  <si>
+    <t>Cacao</t>
+  </si>
+  <si>
+    <t>cherry paste</t>
+  </si>
+  <si>
+    <t>parsley flakes</t>
+  </si>
+  <si>
+    <t>contains banana</t>
+  </si>
+  <si>
+    <t>apple flavored candy sugar</t>
+  </si>
+  <si>
+    <t>powdered oil</t>
+  </si>
+  <si>
+    <t>rock salt seasoning</t>
+  </si>
+  <si>
+    <t>Cinnamoroll</t>
+  </si>
+  <si>
+    <t>white peach juice powder</t>
+  </si>
+  <si>
+    <t>spices extract</t>
+  </si>
+  <si>
+    <t>pickled cherry blossoms</t>
+  </si>
+  <si>
+    <t>sakura powder</t>
+  </si>
+  <si>
+    <t>pickled cherry leaves</t>
+  </si>
+  <si>
+    <t>potato flavored seasoning</t>
+  </si>
+  <si>
+    <t>grilled corn seasoning</t>
+  </si>
+  <si>
+    <t>チョコレート利用商品</t>
+  </si>
+  <si>
+    <t>chocolate-based products</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="73">
+  <fonts count="78">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -15849,41 +16301,41 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="81">
+  <cellXfs count="86">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="75" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="76" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="76" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="74" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="73" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="72" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="70" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="71" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="71" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="69" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="68" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="77" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="67" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="65" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="64" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="72" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="63" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="68" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
@@ -15893,8 +16345,20 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="67" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="61" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="72" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="66" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="64" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="63" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="62" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="60" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="59" fillId="0" borderId="0" xfId="0" applyFont="1">
@@ -15904,6 +16368,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="57" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="56" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="55" fillId="0" borderId="0" xfId="0" applyFont="1">
@@ -15918,9 +16385,6 @@
     <xf numFmtId="0" fontId="52" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="51" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="50" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
@@ -15933,10 +16397,7 @@
     <xf numFmtId="0" fontId="47" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="45" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="44" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="46" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="43" fillId="0" borderId="0" xfId="0" applyFont="1">
@@ -15948,6 +16409,9 @@
     <xf numFmtId="0" fontId="41" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
@@ -15957,16 +16421,47 @@
     <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="73" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="67" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="65" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="71" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="61" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="51" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1">
@@ -15975,41 +16470,13 @@
     <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="68" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="62" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="60" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="66" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="56" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="46" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1">
@@ -16374,10 +16841,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:H2781"/>
+  <dimension ref="A1:H2857"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2756" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B2782" sqref="B2782"/>
+    <sheetView tabSelected="1" topLeftCell="A2816" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B2858" sqref="B2858"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.5703125" defaultRowHeight="15"/>
@@ -39050,6 +39517,614 @@
         <v>5084</v>
       </c>
     </row>
+    <row r="2782" spans="1:2">
+      <c r="A2782" t="s">
+        <v>5085</v>
+      </c>
+      <c r="B2782" s="81" t="s">
+        <v>5089</v>
+      </c>
+    </row>
+    <row r="2783" spans="1:2">
+      <c r="A2783" t="s">
+        <v>5086</v>
+      </c>
+      <c r="B2783" s="82" t="s">
+        <v>5090</v>
+      </c>
+    </row>
+    <row r="2784" spans="1:2">
+      <c r="A2784" t="s">
+        <v>5087</v>
+      </c>
+      <c r="B2784" s="82" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="2785" spans="1:2">
+      <c r="A2785" t="s">
+        <v>5088</v>
+      </c>
+      <c r="B2785" t="s">
+        <v>2442</v>
+      </c>
+    </row>
+    <row r="2786" spans="1:2">
+      <c r="A2786" t="s">
+        <v>5091</v>
+      </c>
+      <c r="B2786" t="s">
+        <v>5118</v>
+      </c>
+    </row>
+    <row r="2787" spans="1:2">
+      <c r="A2787" t="s">
+        <v>5092</v>
+      </c>
+      <c r="B2787" s="83" t="s">
+        <v>5132</v>
+      </c>
+    </row>
+    <row r="2788" spans="1:2">
+      <c r="A2788" t="s">
+        <v>5093</v>
+      </c>
+      <c r="B2788" t="s">
+        <v>1970</v>
+      </c>
+    </row>
+    <row r="2789" spans="1:2">
+      <c r="A2789" t="s">
+        <v>5094</v>
+      </c>
+      <c r="B2789" t="s">
+        <v>5119</v>
+      </c>
+    </row>
+    <row r="2790" spans="1:2">
+      <c r="A2790" t="s">
+        <v>5095</v>
+      </c>
+      <c r="B2790" s="83" t="s">
+        <v>4801</v>
+      </c>
+    </row>
+    <row r="2791" spans="1:2">
+      <c r="A2791" t="s">
+        <v>5096</v>
+      </c>
+      <c r="B2791" t="s">
+        <v>5120</v>
+      </c>
+    </row>
+    <row r="2792" spans="1:2">
+      <c r="A2792" t="s">
+        <v>5097</v>
+      </c>
+      <c r="B2792" t="s">
+        <v>5121</v>
+      </c>
+    </row>
+    <row r="2793" spans="1:2">
+      <c r="A2793" t="s">
+        <v>5098</v>
+      </c>
+      <c r="B2793" t="s">
+        <v>5122</v>
+      </c>
+    </row>
+    <row r="2794" spans="1:2">
+      <c r="A2794" t="s">
+        <v>5099</v>
+      </c>
+      <c r="B2794" s="83" t="s">
+        <v>5133</v>
+      </c>
+    </row>
+    <row r="2795" spans="1:2">
+      <c r="A2795" t="s">
+        <v>5100</v>
+      </c>
+      <c r="B2795" t="s">
+        <v>5123</v>
+      </c>
+    </row>
+    <row r="2796" spans="1:2">
+      <c r="A2796" t="s">
+        <v>5101</v>
+      </c>
+      <c r="B2796" t="s">
+        <v>2033</v>
+      </c>
+    </row>
+    <row r="2797" spans="1:2">
+      <c r="A2797" t="s">
+        <v>5102</v>
+      </c>
+      <c r="B2797" t="s">
+        <v>5124</v>
+      </c>
+    </row>
+    <row r="2798" spans="1:2">
+      <c r="A2798" t="s">
+        <v>5103</v>
+      </c>
+      <c r="B2798" t="s">
+        <v>5125</v>
+      </c>
+    </row>
+    <row r="2799" spans="1:2">
+      <c r="A2799" t="s">
+        <v>5104</v>
+      </c>
+      <c r="B2799" s="83" t="s">
+        <v>5134</v>
+      </c>
+    </row>
+    <row r="2800" spans="1:2">
+      <c r="A2800" t="s">
+        <v>5105</v>
+      </c>
+      <c r="B2800" s="83" t="s">
+        <v>5135</v>
+      </c>
+    </row>
+    <row r="2801" spans="1:2">
+      <c r="A2801" t="s">
+        <v>5106</v>
+      </c>
+      <c r="B2801" s="83" t="s">
+        <v>5136</v>
+      </c>
+    </row>
+    <row r="2802" spans="1:2">
+      <c r="A2802" t="s">
+        <v>5107</v>
+      </c>
+      <c r="B2802" t="s">
+        <v>5126</v>
+      </c>
+    </row>
+    <row r="2803" spans="1:2">
+      <c r="A2803" t="s">
+        <v>5108</v>
+      </c>
+      <c r="B2803" s="83" t="s">
+        <v>5137</v>
+      </c>
+    </row>
+    <row r="2804" spans="1:2">
+      <c r="A2804" t="s">
+        <v>5109</v>
+      </c>
+      <c r="B2804" t="s">
+        <v>5127</v>
+      </c>
+    </row>
+    <row r="2805" spans="1:2">
+      <c r="A2805" t="s">
+        <v>5110</v>
+      </c>
+      <c r="B2805" t="s">
+        <v>5128</v>
+      </c>
+    </row>
+    <row r="2806" spans="1:2">
+      <c r="A2806" t="s">
+        <v>5111</v>
+      </c>
+      <c r="B2806" t="s">
+        <v>5129</v>
+      </c>
+    </row>
+    <row r="2807" spans="1:2">
+      <c r="A2807" s="83" t="s">
+        <v>5112</v>
+      </c>
+      <c r="B2807" s="83" t="s">
+        <v>5138</v>
+      </c>
+    </row>
+    <row r="2808" spans="1:2">
+      <c r="A2808" t="s">
+        <v>5113</v>
+      </c>
+      <c r="B2808" s="83" t="s">
+        <v>5141</v>
+      </c>
+    </row>
+    <row r="2809" spans="1:2">
+      <c r="A2809" s="83" t="s">
+        <v>5114</v>
+      </c>
+      <c r="B2809" s="83" t="s">
+        <v>5142</v>
+      </c>
+    </row>
+    <row r="2810" spans="1:2">
+      <c r="A2810" t="s">
+        <v>5115</v>
+      </c>
+      <c r="B2810" t="s">
+        <v>5130</v>
+      </c>
+    </row>
+    <row r="2811" spans="1:2">
+      <c r="A2811" t="s">
+        <v>5116</v>
+      </c>
+      <c r="B2811" t="s">
+        <v>4230</v>
+      </c>
+    </row>
+    <row r="2812" spans="1:2">
+      <c r="A2812" t="s">
+        <v>5117</v>
+      </c>
+      <c r="B2812" t="s">
+        <v>5131</v>
+      </c>
+    </row>
+    <row r="2813" spans="1:2">
+      <c r="A2813" s="83" t="s">
+        <v>5139</v>
+      </c>
+      <c r="B2813" s="83" t="s">
+        <v>5140</v>
+      </c>
+    </row>
+    <row r="2814" spans="1:2">
+      <c r="A2814" t="s">
+        <v>5143</v>
+      </c>
+      <c r="B2814" s="84" t="s">
+        <v>5184</v>
+      </c>
+    </row>
+    <row r="2815" spans="1:2">
+      <c r="A2815" t="s">
+        <v>5144</v>
+      </c>
+      <c r="B2815" s="84" t="s">
+        <v>5188</v>
+      </c>
+    </row>
+    <row r="2816" spans="1:2">
+      <c r="A2816" t="s">
+        <v>5145</v>
+      </c>
+      <c r="B2816" t="s">
+        <v>5185</v>
+      </c>
+    </row>
+    <row r="2817" spans="1:2">
+      <c r="A2817" t="s">
+        <v>5146</v>
+      </c>
+      <c r="B2817" t="s">
+        <v>5186</v>
+      </c>
+    </row>
+    <row r="2818" spans="1:2">
+      <c r="A2818" t="s">
+        <v>5147</v>
+      </c>
+      <c r="B2818" t="s">
+        <v>5187</v>
+      </c>
+    </row>
+    <row r="2819" spans="1:2">
+      <c r="A2819" t="s">
+        <v>5148</v>
+      </c>
+      <c r="B2819" t="s">
+        <v>1310</v>
+      </c>
+    </row>
+    <row r="2820" spans="1:2">
+      <c r="A2820" t="s">
+        <v>5149</v>
+      </c>
+      <c r="B2820" t="s">
+        <v>4683</v>
+      </c>
+    </row>
+    <row r="2821" spans="1:2">
+      <c r="A2821" t="s">
+        <v>5150</v>
+      </c>
+      <c r="B2821" t="s">
+        <v>5189</v>
+      </c>
+    </row>
+    <row r="2822" spans="1:2">
+      <c r="A2822" t="s">
+        <v>5151</v>
+      </c>
+      <c r="B2822" t="s">
+        <v>5190</v>
+      </c>
+    </row>
+    <row r="2823" spans="1:2">
+      <c r="A2823" s="10" t="s">
+        <v>5194</v>
+      </c>
+      <c r="B2823" s="84" t="s">
+        <v>5195</v>
+      </c>
+    </row>
+    <row r="2824" spans="1:2">
+      <c r="A2824" t="s">
+        <v>5152</v>
+      </c>
+      <c r="B2824" s="84" t="s">
+        <v>5196</v>
+      </c>
+    </row>
+    <row r="2825" spans="1:2">
+      <c r="A2825" t="s">
+        <v>5153</v>
+      </c>
+      <c r="B2825" s="84" t="s">
+        <v>5197</v>
+      </c>
+    </row>
+    <row r="2826" spans="1:2">
+      <c r="A2826" t="s">
+        <v>5154</v>
+      </c>
+      <c r="B2826" t="s">
+        <v>5191</v>
+      </c>
+    </row>
+    <row r="2827" spans="1:2">
+      <c r="A2827" t="s">
+        <v>5155</v>
+      </c>
+      <c r="B2827" s="84" t="s">
+        <v>5198</v>
+      </c>
+    </row>
+    <row r="2828" spans="1:2">
+      <c r="A2828" t="s">
+        <v>5156</v>
+      </c>
+      <c r="B2828" t="s">
+        <v>5192</v>
+      </c>
+    </row>
+    <row r="2829" spans="1:2">
+      <c r="A2829" t="s">
+        <v>5157</v>
+      </c>
+      <c r="B2829" t="s">
+        <v>850</v>
+      </c>
+    </row>
+    <row r="2830" spans="1:2">
+      <c r="A2830" t="s">
+        <v>5158</v>
+      </c>
+      <c r="B2830" t="s">
+        <v>5193</v>
+      </c>
+    </row>
+    <row r="2831" spans="1:2">
+      <c r="A2831" t="s">
+        <v>5159</v>
+      </c>
+      <c r="B2831" s="84" t="s">
+        <v>5201</v>
+      </c>
+    </row>
+    <row r="2832" spans="1:2">
+      <c r="A2832" t="s">
+        <v>5160</v>
+      </c>
+      <c r="B2832" s="84" t="s">
+        <v>5202</v>
+      </c>
+    </row>
+    <row r="2833" spans="1:2">
+      <c r="A2833" t="s">
+        <v>5161</v>
+      </c>
+      <c r="B2833" t="s">
+        <v>1971</v>
+      </c>
+    </row>
+    <row r="2834" spans="1:2">
+      <c r="A2834" t="s">
+        <v>5162</v>
+      </c>
+      <c r="B2834" t="s">
+        <v>5200</v>
+      </c>
+    </row>
+    <row r="2835" spans="1:2">
+      <c r="A2835" s="84" t="s">
+        <v>5199</v>
+      </c>
+      <c r="B2835" s="84" t="s">
+        <v>5203</v>
+      </c>
+    </row>
+    <row r="2836" spans="1:2">
+      <c r="A2836" t="s">
+        <v>5163</v>
+      </c>
+      <c r="B2836" t="s">
+        <v>5204</v>
+      </c>
+    </row>
+    <row r="2837" spans="1:2">
+      <c r="A2837" s="84" t="s">
+        <v>5164</v>
+      </c>
+      <c r="B2837" s="84" t="s">
+        <v>5216</v>
+      </c>
+    </row>
+    <row r="2838" spans="1:2">
+      <c r="A2838" t="s">
+        <v>5165</v>
+      </c>
+      <c r="B2838" t="s">
+        <v>5205</v>
+      </c>
+    </row>
+    <row r="2839" spans="1:2">
+      <c r="A2839" t="s">
+        <v>5166</v>
+      </c>
+      <c r="B2839" t="s">
+        <v>5206</v>
+      </c>
+    </row>
+    <row r="2840" spans="1:2">
+      <c r="A2840" t="s">
+        <v>5167</v>
+      </c>
+      <c r="B2840" t="s">
+        <v>5207</v>
+      </c>
+    </row>
+    <row r="2841" spans="1:2">
+      <c r="A2841" t="s">
+        <v>5168</v>
+      </c>
+      <c r="B2841" t="s">
+        <v>4404</v>
+      </c>
+    </row>
+    <row r="2842" spans="1:2">
+      <c r="A2842" t="s">
+        <v>5169</v>
+      </c>
+      <c r="B2842" s="84" t="s">
+        <v>5217</v>
+      </c>
+    </row>
+    <row r="2843" spans="1:2">
+      <c r="A2843" t="s">
+        <v>5170</v>
+      </c>
+      <c r="B2843" s="84" t="s">
+        <v>5221</v>
+      </c>
+    </row>
+    <row r="2844" spans="1:2">
+      <c r="A2844" t="s">
+        <v>5171</v>
+      </c>
+      <c r="B2844" t="s">
+        <v>5208</v>
+      </c>
+    </row>
+    <row r="2845" spans="1:2">
+      <c r="A2845" t="s">
+        <v>5172</v>
+      </c>
+      <c r="B2845" t="s">
+        <v>5209</v>
+      </c>
+    </row>
+    <row r="2846" spans="1:2">
+      <c r="A2846" t="s">
+        <v>5173</v>
+      </c>
+      <c r="B2846" t="s">
+        <v>5210</v>
+      </c>
+    </row>
+    <row r="2847" spans="1:2">
+      <c r="A2847" t="s">
+        <v>5174</v>
+      </c>
+      <c r="B2847" t="s">
+        <v>5211</v>
+      </c>
+    </row>
+    <row r="2848" spans="1:2">
+      <c r="A2848" t="s">
+        <v>5175</v>
+      </c>
+      <c r="B2848" t="s">
+        <v>5212</v>
+      </c>
+    </row>
+    <row r="2849" spans="1:2">
+      <c r="A2849" t="s">
+        <v>5176</v>
+      </c>
+      <c r="B2849" s="84" t="s">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="2850" spans="1:2">
+      <c r="A2850" t="s">
+        <v>5177</v>
+      </c>
+      <c r="B2850" s="84" t="s">
+        <v>5218</v>
+      </c>
+    </row>
+    <row r="2851" spans="1:2">
+      <c r="A2851" t="s">
+        <v>5178</v>
+      </c>
+      <c r="B2851" t="s">
+        <v>5213</v>
+      </c>
+    </row>
+    <row r="2852" spans="1:2">
+      <c r="A2852" t="s">
+        <v>5179</v>
+      </c>
+      <c r="B2852" t="s">
+        <v>5214</v>
+      </c>
+    </row>
+    <row r="2853" spans="1:2">
+      <c r="A2853" t="s">
+        <v>5180</v>
+      </c>
+      <c r="B2853" t="s">
+        <v>3858</v>
+      </c>
+    </row>
+    <row r="2854" spans="1:2">
+      <c r="A2854" t="s">
+        <v>5181</v>
+      </c>
+      <c r="B2854" s="84" t="s">
+        <v>5219</v>
+      </c>
+    </row>
+    <row r="2855" spans="1:2">
+      <c r="A2855" t="s">
+        <v>5182</v>
+      </c>
+      <c r="B2855" t="s">
+        <v>5215</v>
+      </c>
+    </row>
+    <row r="2856" spans="1:2">
+      <c r="A2856" t="s">
+        <v>5183</v>
+      </c>
+      <c r="B2856" s="84" t="s">
+        <v>5220</v>
+      </c>
+    </row>
+    <row r="2857" spans="1:2">
+      <c r="A2857" s="85" t="s">
+        <v>5222</v>
+      </c>
+      <c r="B2857" s="85" t="s">
+        <v>5223</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:B1692" xr:uid="{CBA4EA5D-7BCB-4D65-BB42-CEEA87D5CB91}"/>
   <conditionalFormatting sqref="A1:A1048576">

--- a/ingredients/ingredients_dictionary.xlsx
+++ b/ingredients/ingredients_dictionary.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26626"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PycharmProjects\englishTranslate\ingredients\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D329DB7-A64B-403A-BB67-4193ADA19157}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{424B6D87-B534-494E-A44E-0C85DB04129F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5714" uniqueCount="5224">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5862" uniqueCount="5357">
   <si>
     <t>Japanese</t>
   </si>
@@ -15695,18 +15695,424 @@
   </si>
   <si>
     <t>chocolate-based products</t>
+  </si>
+  <si>
+    <t>粉末オプラート</t>
+  </si>
+  <si>
+    <t>アボカドオイルパウダー</t>
+  </si>
+  <si>
+    <t>オレンジサイダー味</t>
+  </si>
+  <si>
+    <t>小麦たんぱく加水分解物</t>
+  </si>
+  <si>
+    <t>ガーリックチキン風味シーズニング</t>
+  </si>
+  <si>
+    <t>チェダーチーズパウダー52</t>
+  </si>
+  <si>
+    <t>セルロー</t>
+  </si>
+  <si>
+    <t>グレープサイダー味</t>
+  </si>
+  <si>
+    <t>メタリン酸Na</t>
+  </si>
+  <si>
+    <t>ニュージーランド製造</t>
+  </si>
+  <si>
+    <t>グレープフルーツ種子抽出物</t>
+  </si>
+  <si>
+    <t>ロレーヌ岩塩81</t>
+  </si>
+  <si>
+    <t>バニラ風味ペースト</t>
+  </si>
+  <si>
+    <t>ぶとう糖</t>
+  </si>
+  <si>
+    <t>カマンベールチーズパウダー18</t>
+  </si>
+  <si>
+    <t>avocado oil powder</t>
+  </si>
+  <si>
+    <t>orange cider flavor</t>
+  </si>
+  <si>
+    <t>garlic chicken seasoning</t>
+  </si>
+  <si>
+    <t>cheddar cheese powder 52</t>
+  </si>
+  <si>
+    <t>grape cider flavor</t>
+  </si>
+  <si>
+    <t>grapefruit seed extract</t>
+  </si>
+  <si>
+    <t>Lorraine rock salt 81</t>
+  </si>
+  <si>
+    <t>vanilla flavored paste</t>
+  </si>
+  <si>
+    <t>camembert cheese powder 18</t>
+  </si>
+  <si>
+    <t>wheat protein hydrolyzate</t>
+  </si>
+  <si>
+    <t>sodium metaphosphate</t>
+  </si>
+  <si>
+    <t>New Zealand manufacturing</t>
+  </si>
+  <si>
+    <t>ハーブシーズニング</t>
+  </si>
+  <si>
+    <t>クリスプチョコレート</t>
+  </si>
+  <si>
+    <t>ペッパー</t>
+  </si>
+  <si>
+    <t>ナツメグパウダー</t>
+  </si>
+  <si>
+    <t>乾燥ゆず皮</t>
+  </si>
+  <si>
+    <t>宮古島産塩38</t>
+  </si>
+  <si>
+    <t>甘ずっぱいきゅんベリー味</t>
+  </si>
+  <si>
+    <t>植物油脂還元水飴</t>
+  </si>
+  <si>
+    <t>ホタテシーズニング</t>
+  </si>
+  <si>
+    <t>カゼインカルシウム</t>
+  </si>
+  <si>
+    <t>原料の一部に乳成分</t>
+  </si>
+  <si>
+    <t>梅干エキスパウダー</t>
+  </si>
+  <si>
+    <t>白こしょうパウダー</t>
+  </si>
+  <si>
+    <t>ハラペーニョ</t>
+  </si>
+  <si>
+    <t>ハート型</t>
+  </si>
+  <si>
+    <t>レモンシーズニング</t>
+  </si>
+  <si>
+    <t>特製ペースト</t>
+  </si>
+  <si>
+    <t>還元難消化性デキストリン</t>
+  </si>
+  <si>
+    <t>だしパウダー</t>
+  </si>
+  <si>
+    <t>パフ</t>
+  </si>
+  <si>
+    <t>濃縮パイナップル果汁</t>
+  </si>
+  <si>
+    <t>ぶどうソース</t>
+  </si>
+  <si>
+    <t>トマト酢</t>
+  </si>
+  <si>
+    <t>ミルクシロップ</t>
+  </si>
+  <si>
+    <t>黄色5号</t>
+  </si>
+  <si>
+    <t>ローストピーナッツ</t>
+  </si>
+  <si>
+    <t>大豆たんぱく加水分解物</t>
+  </si>
+  <si>
+    <t>カシスリキュール</t>
+  </si>
+  <si>
+    <t>納豆菌</t>
+  </si>
+  <si>
+    <t>濃厚ソース</t>
+  </si>
+  <si>
+    <t>白ごまペースト</t>
+  </si>
+  <si>
+    <t>かやく入り添付調味料</t>
+  </si>
+  <si>
+    <t>麻婆豆腐風味パウダー</t>
+  </si>
+  <si>
+    <t>くりパウダー</t>
+  </si>
+  <si>
+    <t>丸型</t>
+  </si>
+  <si>
+    <t>ヨーグルトパウダー</t>
+  </si>
+  <si>
+    <t>ストロベリーチョコレート</t>
+  </si>
+  <si>
+    <t>乾燥玉ねぎ</t>
+  </si>
+  <si>
+    <t>濃縮日本なし果汁</t>
+  </si>
+  <si>
+    <t>オイスターエキスパウダー</t>
+  </si>
+  <si>
+    <t>ブイヨン混合品</t>
+  </si>
+  <si>
+    <t>乳等主要原料とする食品</t>
+  </si>
+  <si>
+    <t>ハバネロ使用</t>
+  </si>
+  <si>
+    <t>きゅんベリー味</t>
+  </si>
+  <si>
+    <t>しょうゆ風味パウダー</t>
+  </si>
+  <si>
+    <t>クリームチーズ粉末</t>
+  </si>
+  <si>
+    <t>黒トリュフ塩</t>
+  </si>
+  <si>
+    <t>しょうゆラーメン風味パウダー</t>
+  </si>
+  <si>
+    <t>メロン果汁パウダー</t>
+  </si>
+  <si>
+    <t>大豆パフ</t>
+  </si>
+  <si>
+    <t>ハバネロパウダー</t>
+  </si>
+  <si>
+    <t>ゴーダチーズ粉末</t>
+  </si>
+  <si>
+    <t>ジャム</t>
+  </si>
+  <si>
+    <t>還元麦芽糖</t>
+  </si>
+  <si>
+    <t>乾燥えび</t>
+  </si>
+  <si>
+    <t>全粉乳デキストリン</t>
+  </si>
+  <si>
+    <t>発酵調味液</t>
+  </si>
+  <si>
+    <t>カゼイン</t>
+  </si>
+  <si>
+    <t>ガラクトオリゴ糖</t>
+  </si>
+  <si>
+    <t>herbal seasoning</t>
+  </si>
+  <si>
+    <t>crisp chocolate</t>
+  </si>
+  <si>
+    <t>nutmeg powder</t>
+  </si>
+  <si>
+    <t>dried yuzu peel</t>
+  </si>
+  <si>
+    <t>Miyakojima Salt 38</t>
+  </si>
+  <si>
+    <t>calcium caseinate</t>
+  </si>
+  <si>
+    <t>jalapeno pepper</t>
+  </si>
+  <si>
+    <t>sweet and sour kyun berry flavor</t>
+  </si>
+  <si>
+    <t>vegetable oil-reduced starch syrup</t>
+  </si>
+  <si>
+    <t>some parts of the raw material may contain dairies</t>
+  </si>
+  <si>
+    <t>heart-shaped</t>
+  </si>
+  <si>
+    <t>special paste</t>
+  </si>
+  <si>
+    <t>dashi powder</t>
+  </si>
+  <si>
+    <t>puff</t>
+  </si>
+  <si>
+    <t>grape sauce</t>
+  </si>
+  <si>
+    <t>tomato vinegar</t>
+  </si>
+  <si>
+    <t>milk syrup</t>
+  </si>
+  <si>
+    <t>roasted peanuts</t>
+  </si>
+  <si>
+    <t>soy protein hydrolyzate</t>
+  </si>
+  <si>
+    <t>thick sauce</t>
+  </si>
+  <si>
+    <t>white sesame paste</t>
+  </si>
+  <si>
+    <t>yogurt powder</t>
+  </si>
+  <si>
+    <t>strawberry chocolate</t>
+  </si>
+  <si>
+    <t>dried onions</t>
+  </si>
+  <si>
+    <t>reduced indigestible dextrin</t>
+  </si>
+  <si>
+    <t>yellow No.5</t>
+  </si>
+  <si>
+    <t>cassis liqueur</t>
+  </si>
+  <si>
+    <t>bacillus natto</t>
+  </si>
+  <si>
+    <t>mapo tofu flavored powder</t>
+  </si>
+  <si>
+    <t>round-shaped</t>
+  </si>
+  <si>
+    <t>concentrated Japanese pear juice</t>
+  </si>
+  <si>
+    <t>bouillon mixture</t>
+  </si>
+  <si>
+    <t>soy sauce flavored powder</t>
+  </si>
+  <si>
+    <t>black truffle salt</t>
+  </si>
+  <si>
+    <t>melon juice powder</t>
+  </si>
+  <si>
+    <t>soy puff</t>
+  </si>
+  <si>
+    <t>habanero powder</t>
+  </si>
+  <si>
+    <t>jam</t>
+  </si>
+  <si>
+    <t>reduced maltose</t>
+  </si>
+  <si>
+    <t>dried shrimp</t>
+  </si>
+  <si>
+    <t>whole milk powder dextrin</t>
+  </si>
+  <si>
+    <t>casein</t>
+  </si>
+  <si>
+    <t>foods that use milk as a main ingredient</t>
+  </si>
+  <si>
+    <t>habanero used</t>
+  </si>
+  <si>
+    <t>Kyun berry flavor</t>
+  </si>
+  <si>
+    <t>soy sauce ramen flavored powder</t>
+  </si>
+  <si>
+    <t>galacto-oligosaccharide</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="78">
+  <fonts count="79">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -16301,18 +16707,21 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="86">
+  <cellXfs count="87">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="75" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="76" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="76" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="77" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="77" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="75" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="74" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
@@ -16320,22 +16729,19 @@
     <xf numFmtId="0" fontId="73" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="72" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="71" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="70" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
+    <xf numFmtId="0" fontId="78" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="69" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="77" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="68" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
@@ -16345,8 +16751,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="72" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="66" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="73" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="67" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="65" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="64" fillId="0" borderId="0" xfId="0" applyFont="1">
@@ -16355,7 +16764,7 @@
     <xf numFmtId="0" fontId="63" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="62" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="61" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="60" fillId="0" borderId="0" xfId="0" applyFont="1">
@@ -16382,7 +16791,7 @@
     <xf numFmtId="0" fontId="53" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="52" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="51" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="50" fillId="0" borderId="0" xfId="0" applyFont="1">
@@ -16397,7 +16806,7 @@
     <xf numFmtId="0" fontId="47" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="46" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="43" fillId="0" borderId="0" xfId="0" applyFont="1">
@@ -16406,7 +16815,7 @@
     <xf numFmtId="0" fontId="42" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="0" applyFont="1">
@@ -16424,44 +16833,44 @@
     <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="73" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="67" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="65" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="74" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="68" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="71" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="66" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="72" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="61" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="62" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="51" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="52" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="45" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="44" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1">
@@ -16841,10 +17250,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:H2857"/>
+  <dimension ref="A1:H2931"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2816" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B2858" sqref="B2858"/>
+    <sheetView tabSelected="1" topLeftCell="A2893" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B2931" sqref="B2931"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.5703125" defaultRowHeight="15"/>
@@ -40125,6 +40534,598 @@
         <v>5223</v>
       </c>
     </row>
+    <row r="2858" spans="1:2">
+      <c r="A2858" t="s">
+        <v>5224</v>
+      </c>
+      <c r="B2858" t="s">
+        <v>1372</v>
+      </c>
+    </row>
+    <row r="2859" spans="1:2">
+      <c r="A2859" t="s">
+        <v>5225</v>
+      </c>
+      <c r="B2859" t="s">
+        <v>5239</v>
+      </c>
+    </row>
+    <row r="2860" spans="1:2">
+      <c r="A2860" t="s">
+        <v>5226</v>
+      </c>
+      <c r="B2860" t="s">
+        <v>5240</v>
+      </c>
+    </row>
+    <row r="2861" spans="1:2">
+      <c r="A2861" t="s">
+        <v>5227</v>
+      </c>
+      <c r="B2861" t="s">
+        <v>5248</v>
+      </c>
+    </row>
+    <row r="2862" spans="1:2">
+      <c r="A2862" t="s">
+        <v>5228</v>
+      </c>
+      <c r="B2862" t="s">
+        <v>5241</v>
+      </c>
+    </row>
+    <row r="2863" spans="1:2">
+      <c r="A2863" t="s">
+        <v>5229</v>
+      </c>
+      <c r="B2863" t="s">
+        <v>5242</v>
+      </c>
+    </row>
+    <row r="2864" spans="1:2">
+      <c r="A2864" t="s">
+        <v>5230</v>
+      </c>
+      <c r="B2864" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="2865" spans="1:2">
+      <c r="A2865" t="s">
+        <v>5231</v>
+      </c>
+      <c r="B2865" t="s">
+        <v>5243</v>
+      </c>
+    </row>
+    <row r="2866" spans="1:2">
+      <c r="A2866" t="s">
+        <v>5232</v>
+      </c>
+      <c r="B2866" t="s">
+        <v>5249</v>
+      </c>
+    </row>
+    <row r="2867" spans="1:2">
+      <c r="A2867" t="s">
+        <v>5233</v>
+      </c>
+      <c r="B2867" t="s">
+        <v>5250</v>
+      </c>
+    </row>
+    <row r="2868" spans="1:2">
+      <c r="A2868" t="s">
+        <v>5234</v>
+      </c>
+      <c r="B2868" t="s">
+        <v>5244</v>
+      </c>
+    </row>
+    <row r="2869" spans="1:2">
+      <c r="A2869" t="s">
+        <v>5235</v>
+      </c>
+      <c r="B2869" t="s">
+        <v>5245</v>
+      </c>
+    </row>
+    <row r="2870" spans="1:2">
+      <c r="A2870" t="s">
+        <v>5236</v>
+      </c>
+      <c r="B2870" t="s">
+        <v>5246</v>
+      </c>
+    </row>
+    <row r="2871" spans="1:2">
+      <c r="A2871" t="s">
+        <v>5237</v>
+      </c>
+      <c r="B2871" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="2872" spans="1:2">
+      <c r="A2872" t="s">
+        <v>5238</v>
+      </c>
+      <c r="B2872" t="s">
+        <v>5247</v>
+      </c>
+    </row>
+    <row r="2873" spans="1:2">
+      <c r="A2873" t="s">
+        <v>5251</v>
+      </c>
+      <c r="B2873" t="s">
+        <v>5310</v>
+      </c>
+    </row>
+    <row r="2874" spans="1:2">
+      <c r="A2874" t="s">
+        <v>5252</v>
+      </c>
+      <c r="B2874" t="s">
+        <v>5311</v>
+      </c>
+    </row>
+    <row r="2875" spans="1:2">
+      <c r="A2875" t="s">
+        <v>5253</v>
+      </c>
+      <c r="B2875" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="2876" spans="1:2">
+      <c r="A2876" t="s">
+        <v>5254</v>
+      </c>
+      <c r="B2876" t="s">
+        <v>5312</v>
+      </c>
+    </row>
+    <row r="2877" spans="1:2">
+      <c r="A2877" t="s">
+        <v>5255</v>
+      </c>
+      <c r="B2877" t="s">
+        <v>5313</v>
+      </c>
+    </row>
+    <row r="2878" spans="1:2">
+      <c r="A2878" t="s">
+        <v>5256</v>
+      </c>
+      <c r="B2878" s="86" t="s">
+        <v>5314</v>
+      </c>
+    </row>
+    <row r="2879" spans="1:2">
+      <c r="A2879" t="s">
+        <v>5257</v>
+      </c>
+      <c r="B2879" s="86" t="s">
+        <v>5317</v>
+      </c>
+    </row>
+    <row r="2880" spans="1:2">
+      <c r="A2880" t="s">
+        <v>5258</v>
+      </c>
+      <c r="B2880" s="86" t="s">
+        <v>5318</v>
+      </c>
+    </row>
+    <row r="2881" spans="1:2">
+      <c r="A2881" t="s">
+        <v>5259</v>
+      </c>
+      <c r="B2881" t="s">
+        <v>4438</v>
+      </c>
+    </row>
+    <row r="2882" spans="1:2">
+      <c r="A2882" t="s">
+        <v>5260</v>
+      </c>
+      <c r="B2882" t="s">
+        <v>5315</v>
+      </c>
+    </row>
+    <row r="2883" spans="1:2">
+      <c r="A2883" s="86" t="s">
+        <v>5261</v>
+      </c>
+      <c r="B2883" s="86" t="s">
+        <v>5319</v>
+      </c>
+    </row>
+    <row r="2884" spans="1:2">
+      <c r="A2884" t="s">
+        <v>5262</v>
+      </c>
+      <c r="B2884" s="86" t="s">
+        <v>4813</v>
+      </c>
+    </row>
+    <row r="2885" spans="1:2">
+      <c r="A2885" t="s">
+        <v>5263</v>
+      </c>
+      <c r="B2885" t="s">
+        <v>4027</v>
+      </c>
+    </row>
+    <row r="2886" spans="1:2">
+      <c r="A2886" t="s">
+        <v>5264</v>
+      </c>
+      <c r="B2886" t="s">
+        <v>5316</v>
+      </c>
+    </row>
+    <row r="2887" spans="1:2">
+      <c r="A2887" t="s">
+        <v>5265</v>
+      </c>
+      <c r="B2887" s="86" t="s">
+        <v>5320</v>
+      </c>
+    </row>
+    <row r="2888" spans="1:2">
+      <c r="A2888" t="s">
+        <v>5266</v>
+      </c>
+      <c r="B2888" t="s">
+        <v>3854</v>
+      </c>
+    </row>
+    <row r="2889" spans="1:2">
+      <c r="A2889" t="s">
+        <v>5267</v>
+      </c>
+      <c r="B2889" s="86" t="s">
+        <v>5321</v>
+      </c>
+    </row>
+    <row r="2890" spans="1:2">
+      <c r="A2890" t="s">
+        <v>5268</v>
+      </c>
+      <c r="B2890" s="86" t="s">
+        <v>5334</v>
+      </c>
+    </row>
+    <row r="2891" spans="1:2">
+      <c r="A2891" t="s">
+        <v>5269</v>
+      </c>
+      <c r="B2891" t="s">
+        <v>5322</v>
+      </c>
+    </row>
+    <row r="2892" spans="1:2">
+      <c r="A2892" t="s">
+        <v>5270</v>
+      </c>
+      <c r="B2892" t="s">
+        <v>5323</v>
+      </c>
+    </row>
+    <row r="2893" spans="1:2">
+      <c r="A2893" t="s">
+        <v>5271</v>
+      </c>
+      <c r="B2893" t="s">
+        <v>4182</v>
+      </c>
+    </row>
+    <row r="2894" spans="1:2">
+      <c r="A2894" t="s">
+        <v>5272</v>
+      </c>
+      <c r="B2894" t="s">
+        <v>5324</v>
+      </c>
+    </row>
+    <row r="2895" spans="1:2">
+      <c r="A2895" t="s">
+        <v>5273</v>
+      </c>
+      <c r="B2895" t="s">
+        <v>5325</v>
+      </c>
+    </row>
+    <row r="2896" spans="1:2">
+      <c r="A2896" t="s">
+        <v>5274</v>
+      </c>
+      <c r="B2896" t="s">
+        <v>5326</v>
+      </c>
+    </row>
+    <row r="2897" spans="1:2">
+      <c r="A2897" t="s">
+        <v>5275</v>
+      </c>
+      <c r="B2897" s="86" t="s">
+        <v>5335</v>
+      </c>
+    </row>
+    <row r="2898" spans="1:2">
+      <c r="A2898" t="s">
+        <v>5276</v>
+      </c>
+      <c r="B2898" t="s">
+        <v>5327</v>
+      </c>
+    </row>
+    <row r="2899" spans="1:2">
+      <c r="A2899" t="s">
+        <v>5277</v>
+      </c>
+      <c r="B2899" t="s">
+        <v>5328</v>
+      </c>
+    </row>
+    <row r="2900" spans="1:2">
+      <c r="A2900" t="s">
+        <v>5278</v>
+      </c>
+      <c r="B2900" s="86" t="s">
+        <v>5336</v>
+      </c>
+    </row>
+    <row r="2901" spans="1:2">
+      <c r="A2901" t="s">
+        <v>5279</v>
+      </c>
+      <c r="B2901" s="86" t="s">
+        <v>5337</v>
+      </c>
+    </row>
+    <row r="2902" spans="1:2">
+      <c r="A2902" t="s">
+        <v>5280</v>
+      </c>
+      <c r="B2902" t="s">
+        <v>5329</v>
+      </c>
+    </row>
+    <row r="2903" spans="1:2">
+      <c r="A2903" t="s">
+        <v>5281</v>
+      </c>
+      <c r="B2903" t="s">
+        <v>5330</v>
+      </c>
+    </row>
+    <row r="2904" spans="1:2">
+      <c r="A2904" t="s">
+        <v>5282</v>
+      </c>
+      <c r="B2904" s="86" t="s">
+        <v>2216</v>
+      </c>
+    </row>
+    <row r="2905" spans="1:2">
+      <c r="A2905" t="s">
+        <v>5283</v>
+      </c>
+      <c r="B2905" s="86" t="s">
+        <v>5338</v>
+      </c>
+    </row>
+    <row r="2906" spans="1:2">
+      <c r="A2906" t="s">
+        <v>5284</v>
+      </c>
+      <c r="B2906" t="s">
+        <v>2670</v>
+      </c>
+    </row>
+    <row r="2907" spans="1:2">
+      <c r="A2907" t="s">
+        <v>5285</v>
+      </c>
+      <c r="B2907" s="86" t="s">
+        <v>5339</v>
+      </c>
+    </row>
+    <row r="2908" spans="1:2">
+      <c r="A2908" t="s">
+        <v>5286</v>
+      </c>
+      <c r="B2908" t="s">
+        <v>5331</v>
+      </c>
+    </row>
+    <row r="2909" spans="1:2">
+      <c r="A2909" t="s">
+        <v>5287</v>
+      </c>
+      <c r="B2909" t="s">
+        <v>5332</v>
+      </c>
+    </row>
+    <row r="2910" spans="1:2">
+      <c r="A2910" t="s">
+        <v>5288</v>
+      </c>
+      <c r="B2910" t="s">
+        <v>5333</v>
+      </c>
+    </row>
+    <row r="2911" spans="1:2">
+      <c r="A2911" t="s">
+        <v>5289</v>
+      </c>
+      <c r="B2911" s="86" t="s">
+        <v>5340</v>
+      </c>
+    </row>
+    <row r="2912" spans="1:2">
+      <c r="A2912" t="s">
+        <v>5290</v>
+      </c>
+      <c r="B2912" t="s">
+        <v>5131</v>
+      </c>
+    </row>
+    <row r="2913" spans="1:2">
+      <c r="A2913" t="s">
+        <v>5291</v>
+      </c>
+      <c r="B2913" s="86" t="s">
+        <v>5341</v>
+      </c>
+    </row>
+    <row r="2914" spans="1:2">
+      <c r="A2914" t="s">
+        <v>5292</v>
+      </c>
+      <c r="B2914" s="86" t="s">
+        <v>5352</v>
+      </c>
+    </row>
+    <row r="2915" spans="1:2">
+      <c r="A2915" t="s">
+        <v>5293</v>
+      </c>
+      <c r="B2915" s="86" t="s">
+        <v>5353</v>
+      </c>
+    </row>
+    <row r="2916" spans="1:2">
+      <c r="A2916" t="s">
+        <v>5294</v>
+      </c>
+      <c r="B2916" s="86" t="s">
+        <v>5354</v>
+      </c>
+    </row>
+    <row r="2917" spans="1:2">
+      <c r="A2917" t="s">
+        <v>5295</v>
+      </c>
+      <c r="B2917" s="86" t="s">
+        <v>5342</v>
+      </c>
+    </row>
+    <row r="2918" spans="1:2">
+      <c r="A2918" t="s">
+        <v>5296</v>
+      </c>
+      <c r="B2918" t="s">
+        <v>1753</v>
+      </c>
+    </row>
+    <row r="2919" spans="1:2">
+      <c r="A2919" t="s">
+        <v>5297</v>
+      </c>
+      <c r="B2919" t="s">
+        <v>5343</v>
+      </c>
+    </row>
+    <row r="2920" spans="1:2">
+      <c r="A2920" t="s">
+        <v>5298</v>
+      </c>
+      <c r="B2920" s="86" t="s">
+        <v>5355</v>
+      </c>
+    </row>
+    <row r="2921" spans="1:2">
+      <c r="A2921" t="s">
+        <v>5299</v>
+      </c>
+      <c r="B2921" t="s">
+        <v>5344</v>
+      </c>
+    </row>
+    <row r="2922" spans="1:2">
+      <c r="A2922" t="s">
+        <v>5300</v>
+      </c>
+      <c r="B2922" t="s">
+        <v>5345</v>
+      </c>
+    </row>
+    <row r="2923" spans="1:2">
+      <c r="A2923" t="s">
+        <v>5301</v>
+      </c>
+      <c r="B2923" t="s">
+        <v>5346</v>
+      </c>
+    </row>
+    <row r="2924" spans="1:2">
+      <c r="A2924" t="s">
+        <v>5302</v>
+      </c>
+      <c r="B2924" t="s">
+        <v>4924</v>
+      </c>
+    </row>
+    <row r="2925" spans="1:2">
+      <c r="A2925" t="s">
+        <v>5303</v>
+      </c>
+      <c r="B2925" t="s">
+        <v>5347</v>
+      </c>
+    </row>
+    <row r="2926" spans="1:2">
+      <c r="A2926" t="s">
+        <v>5304</v>
+      </c>
+      <c r="B2926" t="s">
+        <v>5348</v>
+      </c>
+    </row>
+    <row r="2927" spans="1:2">
+      <c r="A2927" t="s">
+        <v>5305</v>
+      </c>
+      <c r="B2927" t="s">
+        <v>5349</v>
+      </c>
+    </row>
+    <row r="2928" spans="1:2">
+      <c r="A2928" t="s">
+        <v>5306</v>
+      </c>
+      <c r="B2928" t="s">
+        <v>5350</v>
+      </c>
+    </row>
+    <row r="2929" spans="1:2">
+      <c r="A2929" t="s">
+        <v>5307</v>
+      </c>
+      <c r="B2929" s="86" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="2930" spans="1:2">
+      <c r="A2930" t="s">
+        <v>5308</v>
+      </c>
+      <c r="B2930" t="s">
+        <v>5351</v>
+      </c>
+    </row>
+    <row r="2931" spans="1:2">
+      <c r="A2931" t="s">
+        <v>5309</v>
+      </c>
+      <c r="B2931" s="86" t="s">
+        <v>5356</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:B1692" xr:uid="{CBA4EA5D-7BCB-4D65-BB42-CEEA87D5CB91}"/>
   <conditionalFormatting sqref="A1:A1048576">

--- a/ingredients/ingredients_dictionary.xlsx
+++ b/ingredients/ingredients_dictionary.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26626"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26731"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PycharmProjects\englishTranslate\ingredients\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{424B6D87-B534-494E-A44E-0C85DB04129F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F08C15D-324B-4EF8-A3ED-C9826022F914}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="1230" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="translated_list" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5862" uniqueCount="5357">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5980" uniqueCount="5467">
   <si>
     <t>Japanese</t>
   </si>
@@ -16094,18 +16094,355 @@
   </si>
   <si>
     <t>galacto-oligosaccharide</t>
+  </si>
+  <si>
+    <t>チェダーチーズ45</t>
+  </si>
+  <si>
+    <t>カルダモン末</t>
+  </si>
+  <si>
+    <t>小麦蛋白</t>
+  </si>
+  <si>
+    <t>ばれいしょ</t>
+  </si>
+  <si>
+    <t>レモンリキュール</t>
+  </si>
+  <si>
+    <t>チョコ味</t>
+  </si>
+  <si>
+    <t>加工デンプン乳化剤</t>
+  </si>
+  <si>
+    <t>チキンコンソメシーズニング</t>
+  </si>
+  <si>
+    <t>有胞子性乳酸菌</t>
+  </si>
+  <si>
+    <t>せとか果汁</t>
+  </si>
+  <si>
+    <t>ゴーダチーズ1</t>
+  </si>
+  <si>
+    <t>一部にアーモンド</t>
+  </si>
+  <si>
+    <t>抽出ビタミンE</t>
+  </si>
+  <si>
+    <t>ハラペーニョパウダー</t>
+  </si>
+  <si>
+    <t>グレープソーダ</t>
+  </si>
+  <si>
+    <t>ぬちまーす100</t>
+  </si>
+  <si>
+    <t>アップルソース</t>
+  </si>
+  <si>
+    <t>濃縮すもも果汁</t>
+  </si>
+  <si>
+    <t>イチゴパウダー</t>
+  </si>
+  <si>
+    <t>増剤</t>
+  </si>
+  <si>
+    <t>ミルク味</t>
+  </si>
+  <si>
+    <t>エチオピア産コーヒー豆51</t>
+  </si>
+  <si>
+    <t>カカオニブ加工品</t>
+  </si>
+  <si>
+    <t>唐辛子ピューレ</t>
+  </si>
+  <si>
+    <t>カマンベールチーズ30</t>
+  </si>
+  <si>
+    <t>ガーナ</t>
+  </si>
+  <si>
+    <t>ワッフルクランチ</t>
+  </si>
+  <si>
+    <t>たこパウダー</t>
+  </si>
+  <si>
+    <t>メロンクリームソーダ</t>
+  </si>
+  <si>
+    <t>乾燥梅肉</t>
+  </si>
+  <si>
+    <t>ヨーグルトソーダ</t>
+  </si>
+  <si>
+    <t>ビフィズス菌乾燥粉末</t>
+  </si>
+  <si>
+    <t>梅しそシーズニング</t>
+  </si>
+  <si>
+    <t>シュガーシロップ</t>
+  </si>
+  <si>
+    <t>ぶどう味グミ</t>
+  </si>
+  <si>
+    <t>粉末わさび</t>
+  </si>
+  <si>
+    <t>巨峰濃縮果汁</t>
+  </si>
+  <si>
+    <t>レモングラスパウダー</t>
+  </si>
+  <si>
+    <t>米糀粉末</t>
+  </si>
+  <si>
+    <t>じゃがいもでんぷん</t>
+  </si>
+  <si>
+    <t>含蜜糖</t>
+  </si>
+  <si>
+    <t>バニラシード</t>
+  </si>
+  <si>
+    <t>殺菌乳酸菌粉末</t>
+  </si>
+  <si>
+    <t>ジョロキアパウダー2</t>
+  </si>
+  <si>
+    <t>タイ製造又は韓国製造</t>
+  </si>
+  <si>
+    <t>濃縮ブルーベリー果汁</t>
+  </si>
+  <si>
+    <t>エクアドル</t>
+  </si>
+  <si>
+    <t>黒砂糖</t>
+  </si>
+  <si>
+    <t>粉末鰹節</t>
+  </si>
+  <si>
+    <t>ラム酒漬けレーズン</t>
+  </si>
+  <si>
+    <t>グルテン</t>
+  </si>
+  <si>
+    <t>マヌカハニー</t>
+  </si>
+  <si>
+    <t>ミルク</t>
+  </si>
+  <si>
+    <t>糖漬け乾燥いちご</t>
+  </si>
+  <si>
+    <t>わさびビーフ風味パウダー</t>
+  </si>
+  <si>
+    <t>バニラシロップ</t>
+  </si>
+  <si>
+    <t>ブート</t>
+  </si>
+  <si>
+    <t>カカオ豆</t>
+  </si>
+  <si>
+    <t>甘藷でん粉</t>
+  </si>
+  <si>
+    <t>cheddar cheese 45</t>
+  </si>
+  <si>
+    <t>lemon liqueur</t>
+  </si>
+  <si>
+    <t>modified starch emulsifier</t>
+  </si>
+  <si>
+    <t>chicken consommé seasoning</t>
+  </si>
+  <si>
+    <t>Setoka fruit juice</t>
+  </si>
+  <si>
+    <t>Gouda cheese 1</t>
+  </si>
+  <si>
+    <t>jalapeno powder</t>
+  </si>
+  <si>
+    <t>grape soda</t>
+  </si>
+  <si>
+    <t>apple sauce</t>
+  </si>
+  <si>
+    <t>milk flavor</t>
+  </si>
+  <si>
+    <t>Ethiopian coffee beans 51</t>
+  </si>
+  <si>
+    <t>chili puree</t>
+  </si>
+  <si>
+    <t>camembert cheese 30</t>
+  </si>
+  <si>
+    <t>ghana</t>
+  </si>
+  <si>
+    <t>waffle crunch</t>
+  </si>
+  <si>
+    <t>octopus powder</t>
+  </si>
+  <si>
+    <t>melon cream soda</t>
+  </si>
+  <si>
+    <t>dried plum meat</t>
+  </si>
+  <si>
+    <t>yogurt soda</t>
+  </si>
+  <si>
+    <t>Bifidobacterium dry powder</t>
+  </si>
+  <si>
+    <t>sugar syrup</t>
+  </si>
+  <si>
+    <t>powdered wasabi</t>
+  </si>
+  <si>
+    <t>Kyoho concentrated fruit juice</t>
+  </si>
+  <si>
+    <t>lemongrass powder</t>
+  </si>
+  <si>
+    <t>rice koji powder</t>
+  </si>
+  <si>
+    <t>nectar sugar</t>
+  </si>
+  <si>
+    <t>vanilla seeds</t>
+  </si>
+  <si>
+    <t>jolokia powder 2</t>
+  </si>
+  <si>
+    <t>concentrated blueberry juice</t>
+  </si>
+  <si>
+    <t>ecuador</t>
+  </si>
+  <si>
+    <t>powdered bonito flakes</t>
+  </si>
+  <si>
+    <t>rum soaked raisins</t>
+  </si>
+  <si>
+    <t>gluten</t>
+  </si>
+  <si>
+    <t>manuka honey</t>
+  </si>
+  <si>
+    <t>candied dried strawberries</t>
+  </si>
+  <si>
+    <t>vanilla syrup</t>
+  </si>
+  <si>
+    <t>cacao beans</t>
+  </si>
+  <si>
+    <t>sweet potato starch</t>
+  </si>
+  <si>
+    <t>cardamom flavor</t>
+  </si>
+  <si>
+    <t>chocolate flavor</t>
+  </si>
+  <si>
+    <t>Bacillus coagulans</t>
+  </si>
+  <si>
+    <t>may contain almonds</t>
+  </si>
+  <si>
+    <t>extracted vitamin E</t>
+  </si>
+  <si>
+    <t>Nuchi Masu 100</t>
+  </si>
+  <si>
+    <t>addition agent</t>
+  </si>
+  <si>
+    <t>cacao nib processed products</t>
+  </si>
+  <si>
+    <t>plum shiso seasoning</t>
+  </si>
+  <si>
+    <t>grape flavor gummy</t>
+  </si>
+  <si>
+    <t>made in Thailand or Korea</t>
+  </si>
+  <si>
+    <t>wasabi beef flavor powder</t>
+  </si>
+  <si>
+    <t>bhut</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="79">
+  <fonts count="80">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -16707,18 +17044,21 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="87">
+  <cellXfs count="88">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="76" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="77" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="77" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="78" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="78" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="76" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="75" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
@@ -16726,22 +17066,19 @@
     <xf numFmtId="0" fontId="74" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="73" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="72" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="71" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
+    <xf numFmtId="0" fontId="79" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="70" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="78" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="69" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
@@ -16751,8 +17088,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="73" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="67" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="74" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="68" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="66" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="65" fillId="0" borderId="0" xfId="0" applyFont="1">
@@ -16761,7 +17101,7 @@
     <xf numFmtId="0" fontId="64" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="63" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="62" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="61" fillId="0" borderId="0" xfId="0" applyFont="1">
@@ -16788,7 +17128,7 @@
     <xf numFmtId="0" fontId="54" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="53" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="52" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="51" fillId="0" borderId="0" xfId="0" applyFont="1">
@@ -16803,7 +17143,7 @@
     <xf numFmtId="0" fontId="48" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="47" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="44" fillId="0" borderId="0" xfId="0" applyFont="1">
@@ -16812,7 +17152,7 @@
     <xf numFmtId="0" fontId="43" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="0" applyFont="1">
@@ -16830,44 +17170,44 @@
     <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="74" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="68" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="66" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="75" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="69" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="72" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="67" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="73" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="62" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="63" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="52" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="53" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="47" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="46" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="45" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1">
@@ -17250,18 +17590,17 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:H2931"/>
+  <dimension ref="A1:F2990"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2893" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B2931" sqref="B2931"/>
+    <sheetView tabSelected="1" topLeftCell="A2948" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A2990" sqref="A2990"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.5703125" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="65.42578125" customWidth="1"/>
     <col min="2" max="2" width="57" customWidth="1"/>
-    <col min="3" max="3" width="35" customWidth="1"/>
-    <col min="4" max="4" width="19" customWidth="1"/>
+    <col min="3" max="3" width="19" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
@@ -18800,7 +19139,7 @@
         <v>851</v>
       </c>
     </row>
-    <row r="193" spans="1:8">
+    <row r="193" spans="1:6">
       <c r="A193" s="6" t="s">
         <v>372</v>
       </c>
@@ -18808,7 +19147,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="194" spans="1:8">
+    <row r="194" spans="1:6">
       <c r="A194" t="s">
         <v>403</v>
       </c>
@@ -18816,7 +19155,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="195" spans="1:8">
+    <row r="195" spans="1:6">
       <c r="A195" t="s">
         <v>815</v>
       </c>
@@ -18824,7 +19163,7 @@
         <v>882</v>
       </c>
     </row>
-    <row r="196" spans="1:8">
+    <row r="196" spans="1:6">
       <c r="A196" t="s">
         <v>827</v>
       </c>
@@ -18832,7 +19171,7 @@
         <v>918</v>
       </c>
     </row>
-    <row r="197" spans="1:8">
+    <row r="197" spans="1:6">
       <c r="A197" t="s">
         <v>1000</v>
       </c>
@@ -18840,7 +19179,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="198" spans="1:8">
+    <row r="198" spans="1:6">
       <c r="A198" t="s">
         <v>999</v>
       </c>
@@ -18848,7 +19187,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="199" spans="1:8">
+    <row r="199" spans="1:6">
       <c r="A199" s="16" t="s">
         <v>1025</v>
       </c>
@@ -18856,151 +19195,151 @@
         <v>1043</v>
       </c>
     </row>
-    <row r="200" spans="1:8">
+    <row r="200" spans="1:6">
       <c r="A200" t="s">
         <v>2117</v>
       </c>
       <c r="B200" s="38" t="s">
         <v>2364</v>
       </c>
-      <c r="H200" s="3"/>
-    </row>
-    <row r="201" spans="1:8">
+      <c r="F200" s="3"/>
+    </row>
+    <row r="201" spans="1:6">
       <c r="A201" t="s">
         <v>929</v>
       </c>
       <c r="B201" t="s">
         <v>966</v>
       </c>
-      <c r="H201" s="2"/>
-    </row>
-    <row r="202" spans="1:8">
+      <c r="F201" s="2"/>
+    </row>
+    <row r="202" spans="1:6">
       <c r="A202" t="s">
         <v>500</v>
       </c>
       <c r="B202" t="s">
         <v>626</v>
       </c>
-      <c r="H202" s="3"/>
-    </row>
-    <row r="203" spans="1:8">
+      <c r="F202" s="3"/>
+    </row>
+    <row r="203" spans="1:6">
       <c r="A203" t="s">
         <v>750</v>
       </c>
       <c r="B203" t="s">
         <v>855</v>
       </c>
-      <c r="H203" s="2"/>
-    </row>
-    <row r="204" spans="1:8">
+      <c r="F203" s="2"/>
+    </row>
+    <row r="204" spans="1:6">
       <c r="A204" s="9" t="s">
         <v>577</v>
       </c>
       <c r="B204" s="38" t="s">
         <v>2642</v>
       </c>
-      <c r="H204" s="2"/>
-    </row>
-    <row r="205" spans="1:8">
+      <c r="F204" s="2"/>
+    </row>
+    <row r="205" spans="1:6">
       <c r="A205" t="s">
         <v>2118</v>
       </c>
       <c r="B205" t="s">
         <v>605</v>
       </c>
-      <c r="H205" s="3"/>
-    </row>
-    <row r="206" spans="1:8">
+      <c r="F205" s="3"/>
+    </row>
+    <row r="206" spans="1:6">
       <c r="A206" t="s">
         <v>2119</v>
       </c>
       <c r="B206" t="s">
         <v>1979</v>
       </c>
-      <c r="H206" s="3"/>
-    </row>
-    <row r="207" spans="1:8">
+      <c r="F206" s="3"/>
+    </row>
+    <row r="207" spans="1:6">
       <c r="A207" t="s">
         <v>811</v>
       </c>
       <c r="B207" t="s">
         <v>874</v>
       </c>
-      <c r="H207" s="2"/>
-    </row>
-    <row r="208" spans="1:8">
+      <c r="F207" s="2"/>
+    </row>
+    <row r="208" spans="1:6">
       <c r="A208" t="s">
         <v>10</v>
       </c>
       <c r="B208" t="s">
         <v>11</v>
       </c>
-      <c r="H208" s="2"/>
-    </row>
-    <row r="209" spans="1:8">
+      <c r="F208" s="2"/>
+    </row>
+    <row r="209" spans="1:6">
       <c r="A209" t="s">
         <v>32</v>
       </c>
       <c r="B209" t="s">
         <v>33</v>
       </c>
-      <c r="H209" s="2"/>
-    </row>
-    <row r="210" spans="1:8">
+      <c r="F209" s="2"/>
+    </row>
+    <row r="210" spans="1:6">
       <c r="A210" t="s">
         <v>565</v>
       </c>
       <c r="B210" t="s">
         <v>33</v>
       </c>
-      <c r="H210" s="2"/>
-    </row>
-    <row r="211" spans="1:8">
+      <c r="F210" s="2"/>
+    </row>
+    <row r="211" spans="1:6">
       <c r="A211" t="s">
         <v>454</v>
       </c>
       <c r="B211" t="s">
         <v>11</v>
       </c>
-      <c r="H211" s="3"/>
-    </row>
-    <row r="212" spans="1:8">
+      <c r="F211" s="3"/>
+    </row>
+    <row r="212" spans="1:6">
       <c r="A212" t="s">
         <v>184</v>
       </c>
       <c r="B212" t="s">
         <v>185</v>
       </c>
-      <c r="H212" s="2"/>
-    </row>
-    <row r="213" spans="1:8">
+      <c r="F212" s="2"/>
+    </row>
+    <row r="213" spans="1:6">
       <c r="A213" t="s">
         <v>180</v>
       </c>
       <c r="B213" t="s">
         <v>181</v>
       </c>
-      <c r="H213" s="3"/>
-    </row>
-    <row r="214" spans="1:8">
+      <c r="F213" s="3"/>
+    </row>
+    <row r="214" spans="1:6">
       <c r="A214" t="s">
         <v>776</v>
       </c>
       <c r="B214" s="9" t="s">
         <v>905</v>
       </c>
-      <c r="H214" s="3"/>
-    </row>
-    <row r="215" spans="1:8">
+      <c r="F214" s="3"/>
+    </row>
+    <row r="215" spans="1:6">
       <c r="A215" t="s">
         <v>2120</v>
       </c>
       <c r="B215" t="s">
         <v>1979</v>
       </c>
-      <c r="H215" s="3"/>
-    </row>
-    <row r="216" spans="1:8">
+      <c r="F215" s="3"/>
+    </row>
+    <row r="216" spans="1:6">
       <c r="A216" t="s">
         <v>260</v>
       </c>
@@ -19008,7 +19347,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="217" spans="1:8">
+    <row r="217" spans="1:6">
       <c r="A217" t="s">
         <v>933</v>
       </c>
@@ -19016,7 +19355,7 @@
         <v>972</v>
       </c>
     </row>
-    <row r="218" spans="1:8">
+    <row r="218" spans="1:6">
       <c r="A218" t="s">
         <v>2643</v>
       </c>
@@ -19024,7 +19363,7 @@
         <v>2644</v>
       </c>
     </row>
-    <row r="219" spans="1:8">
+    <row r="219" spans="1:6">
       <c r="A219" t="s">
         <v>3010</v>
       </c>
@@ -19032,7 +19371,7 @@
         <v>2966</v>
       </c>
     </row>
-    <row r="220" spans="1:8">
+    <row r="220" spans="1:6">
       <c r="A220" t="s">
         <v>3011</v>
       </c>
@@ -19040,7 +19379,7 @@
         <v>677</v>
       </c>
     </row>
-    <row r="221" spans="1:8">
+    <row r="221" spans="1:6">
       <c r="A221" t="s">
         <v>537</v>
       </c>
@@ -19048,7 +19387,7 @@
         <v>651</v>
       </c>
     </row>
-    <row r="222" spans="1:8">
+    <row r="222" spans="1:6">
       <c r="A222" t="s">
         <v>2122</v>
       </c>
@@ -19056,7 +19395,7 @@
         <v>2611</v>
       </c>
     </row>
-    <row r="223" spans="1:8">
+    <row r="223" spans="1:6">
       <c r="A223" t="s">
         <v>2645</v>
       </c>
@@ -19064,7 +19403,7 @@
         <v>2646</v>
       </c>
     </row>
-    <row r="224" spans="1:8">
+    <row r="224" spans="1:6">
       <c r="A224" t="s">
         <v>24</v>
       </c>
@@ -20352,1636 +20691,1636 @@
         <v>901</v>
       </c>
     </row>
-    <row r="385" spans="1:6">
+    <row r="385" spans="1:4">
       <c r="A385" t="s">
         <v>2090</v>
       </c>
       <c r="B385" t="s">
         <v>2672</v>
       </c>
-      <c r="F385" s="3"/>
-    </row>
-    <row r="386" spans="1:6">
+      <c r="D385" s="3"/>
+    </row>
+    <row r="386" spans="1:4">
       <c r="A386" t="s">
         <v>2129</v>
       </c>
       <c r="B386" t="s">
         <v>2678</v>
       </c>
-      <c r="F386" s="2"/>
-    </row>
-    <row r="387" spans="1:6">
+      <c r="D386" s="2"/>
+    </row>
+    <row r="387" spans="1:4">
       <c r="A387" s="9" t="s">
         <v>909</v>
       </c>
       <c r="B387" s="9" t="s">
         <v>911</v>
       </c>
-      <c r="F387" s="2"/>
-    </row>
-    <row r="388" spans="1:6">
+      <c r="D387" s="2"/>
+    </row>
+    <row r="388" spans="1:4">
       <c r="A388" s="9" t="s">
         <v>910</v>
       </c>
       <c r="B388" s="9" t="s">
         <v>911</v>
       </c>
-      <c r="F388" s="3"/>
-    </row>
-    <row r="389" spans="1:6">
+      <c r="D388" s="3"/>
+    </row>
+    <row r="389" spans="1:4">
       <c r="A389" t="s">
         <v>269</v>
       </c>
       <c r="B389" t="s">
         <v>270</v>
       </c>
-      <c r="F389" s="3"/>
-    </row>
-    <row r="390" spans="1:6">
+      <c r="D389" s="3"/>
+    </row>
+    <row r="390" spans="1:4">
       <c r="A390" s="6" t="s">
         <v>2130</v>
       </c>
       <c r="B390" s="38" t="s">
         <v>2679</v>
       </c>
-      <c r="F390" s="2"/>
-    </row>
-    <row r="391" spans="1:6">
+      <c r="D390" s="2"/>
+    </row>
+    <row r="391" spans="1:4">
       <c r="A391" t="s">
         <v>2131</v>
       </c>
       <c r="B391" t="s">
         <v>2036</v>
       </c>
-      <c r="F391" s="2"/>
-    </row>
-    <row r="392" spans="1:6">
+      <c r="D391" s="2"/>
+    </row>
+    <row r="392" spans="1:4">
       <c r="A392" t="s">
         <v>549</v>
       </c>
       <c r="B392" t="s">
         <v>678</v>
       </c>
-      <c r="F392" s="3"/>
-    </row>
-    <row r="393" spans="1:6">
+      <c r="D392" s="3"/>
+    </row>
+    <row r="393" spans="1:4">
       <c r="A393" t="s">
         <v>492</v>
       </c>
       <c r="B393" t="s">
         <v>339</v>
       </c>
-      <c r="F393" s="2"/>
-    </row>
-    <row r="394" spans="1:6">
+      <c r="D393" s="2"/>
+    </row>
+    <row r="394" spans="1:4">
       <c r="A394" t="s">
         <v>822</v>
       </c>
       <c r="B394" s="9" t="s">
         <v>916</v>
       </c>
-      <c r="F394" s="2"/>
-    </row>
-    <row r="395" spans="1:6">
+      <c r="D394" s="2"/>
+    </row>
+    <row r="395" spans="1:4">
       <c r="A395" t="s">
         <v>280</v>
       </c>
       <c r="B395" t="s">
         <v>281</v>
       </c>
-      <c r="F395" s="2"/>
-    </row>
-    <row r="396" spans="1:6">
+      <c r="D395" s="2"/>
+    </row>
+    <row r="396" spans="1:4">
       <c r="A396" t="s">
         <v>2132</v>
       </c>
       <c r="B396" s="38" t="s">
         <v>320</v>
       </c>
-      <c r="F396" s="2"/>
-    </row>
-    <row r="397" spans="1:6">
+      <c r="D396" s="2"/>
+    </row>
+    <row r="397" spans="1:4">
       <c r="A397" t="s">
         <v>311</v>
       </c>
       <c r="B397" s="38" t="s">
         <v>320</v>
       </c>
-      <c r="F397" s="2"/>
-    </row>
-    <row r="398" spans="1:6">
+      <c r="D397" s="2"/>
+    </row>
+    <row r="398" spans="1:4">
       <c r="A398" t="s">
         <v>2680</v>
       </c>
       <c r="B398" s="38" t="s">
         <v>2408</v>
       </c>
-      <c r="F398" s="2"/>
-    </row>
-    <row r="399" spans="1:6">
+      <c r="D398" s="2"/>
+    </row>
+    <row r="399" spans="1:4">
       <c r="A399" t="s">
         <v>555</v>
       </c>
       <c r="B399" s="38" t="s">
         <v>2408</v>
       </c>
-      <c r="F399" s="2"/>
-    </row>
-    <row r="400" spans="1:6">
+      <c r="D399" s="2"/>
+    </row>
+    <row r="400" spans="1:4">
       <c r="A400" t="s">
         <v>2133</v>
       </c>
       <c r="B400" t="s">
         <v>2408</v>
       </c>
-      <c r="F400" s="3"/>
-    </row>
-    <row r="401" spans="1:6">
+      <c r="D400" s="3"/>
+    </row>
+    <row r="401" spans="1:4">
       <c r="A401" t="s">
         <v>501</v>
       </c>
       <c r="B401" s="9" t="s">
         <v>318</v>
       </c>
-      <c r="F401" s="2"/>
-    </row>
-    <row r="402" spans="1:6">
+      <c r="D401" s="2"/>
+    </row>
+    <row r="402" spans="1:4">
       <c r="A402" s="1" t="s">
         <v>308</v>
       </c>
       <c r="B402" s="1" t="s">
         <v>318</v>
       </c>
-      <c r="F402" s="2"/>
-    </row>
-    <row r="403" spans="1:6">
+      <c r="D402" s="2"/>
+    </row>
+    <row r="403" spans="1:4">
       <c r="A403" t="s">
         <v>2681</v>
       </c>
       <c r="B403" t="s">
         <v>2682</v>
       </c>
-      <c r="F403" s="2"/>
-    </row>
-    <row r="404" spans="1:6">
+      <c r="D403" s="2"/>
+    </row>
+    <row r="404" spans="1:4">
       <c r="A404" t="s">
         <v>2134</v>
       </c>
       <c r="B404" t="s">
         <v>2683</v>
       </c>
-      <c r="F404" s="2"/>
-    </row>
-    <row r="405" spans="1:6">
+      <c r="D404" s="2"/>
+    </row>
+    <row r="405" spans="1:4">
       <c r="A405" t="s">
         <v>3023</v>
       </c>
       <c r="B405" t="s">
         <v>877</v>
       </c>
-      <c r="F405" s="2"/>
-    </row>
-    <row r="406" spans="1:6">
+      <c r="D405" s="2"/>
+    </row>
+    <row r="406" spans="1:4">
       <c r="A406" s="38" t="s">
         <v>2684</v>
       </c>
       <c r="B406" t="s">
         <v>2685</v>
       </c>
-      <c r="F406" s="3"/>
-    </row>
-    <row r="407" spans="1:6">
+      <c r="D406" s="3"/>
+    </row>
+    <row r="407" spans="1:4">
       <c r="A407" t="s">
         <v>511</v>
       </c>
       <c r="B407" t="s">
         <v>643</v>
       </c>
-      <c r="F407" s="2"/>
-    </row>
-    <row r="408" spans="1:6">
+      <c r="D407" s="2"/>
+    </row>
+    <row r="408" spans="1:4">
       <c r="A408" t="s">
         <v>769</v>
       </c>
       <c r="B408" t="s">
         <v>839</v>
       </c>
-      <c r="F408" s="2"/>
-    </row>
-    <row r="409" spans="1:6">
+      <c r="D408" s="2"/>
+    </row>
+    <row r="409" spans="1:4">
       <c r="A409" t="s">
         <v>350</v>
       </c>
       <c r="B409" s="5" t="s">
         <v>351</v>
       </c>
-      <c r="F409" s="2"/>
-    </row>
-    <row r="410" spans="1:6">
+      <c r="D409" s="2"/>
+    </row>
+    <row r="410" spans="1:4">
       <c r="A410" t="s">
         <v>334</v>
       </c>
       <c r="B410" s="5" t="s">
         <v>335</v>
       </c>
-      <c r="F410" s="2"/>
-    </row>
-    <row r="411" spans="1:6">
+      <c r="D410" s="2"/>
+    </row>
+    <row r="411" spans="1:4">
       <c r="A411" t="s">
         <v>509</v>
       </c>
       <c r="B411" t="s">
         <v>642</v>
       </c>
-      <c r="F411" s="2"/>
-    </row>
-    <row r="412" spans="1:6">
+      <c r="D411" s="2"/>
+    </row>
+    <row r="412" spans="1:4">
       <c r="A412" t="s">
         <v>169</v>
       </c>
       <c r="B412" t="s">
         <v>170</v>
       </c>
-      <c r="F412" s="3"/>
-    </row>
-    <row r="413" spans="1:6">
+      <c r="D412" s="3"/>
+    </row>
+    <row r="413" spans="1:4">
       <c r="A413" t="s">
         <v>813</v>
       </c>
       <c r="B413" t="s">
         <v>880</v>
       </c>
-      <c r="F413" s="2"/>
-    </row>
-    <row r="414" spans="1:6">
+      <c r="D413" s="2"/>
+    </row>
+    <row r="414" spans="1:4">
       <c r="A414" t="s">
         <v>424</v>
       </c>
       <c r="B414" t="s">
         <v>425</v>
       </c>
-      <c r="F414" s="2"/>
-    </row>
-    <row r="415" spans="1:6">
+      <c r="D414" s="2"/>
+    </row>
+    <row r="415" spans="1:4">
       <c r="A415" t="s">
         <v>946</v>
       </c>
       <c r="B415" t="s">
         <v>990</v>
       </c>
-      <c r="F415" s="2"/>
-    </row>
-    <row r="416" spans="1:6">
+      <c r="D415" s="2"/>
+    </row>
+    <row r="416" spans="1:4">
       <c r="A416" t="s">
         <v>2135</v>
       </c>
       <c r="B416" t="s">
         <v>2686</v>
       </c>
-      <c r="F416" s="2"/>
-    </row>
-    <row r="417" spans="1:6">
+      <c r="D416" s="2"/>
+    </row>
+    <row r="417" spans="1:4">
       <c r="A417" t="s">
         <v>348</v>
       </c>
       <c r="B417" s="5" t="s">
         <v>349</v>
       </c>
-      <c r="F417" s="3"/>
-    </row>
-    <row r="418" spans="1:6">
+      <c r="D417" s="3"/>
+    </row>
+    <row r="418" spans="1:4">
       <c r="A418" t="s">
         <v>131</v>
       </c>
       <c r="B418" t="s">
         <v>132</v>
       </c>
-      <c r="F418" s="2"/>
-    </row>
-    <row r="419" spans="1:6">
+      <c r="D418" s="2"/>
+    </row>
+    <row r="419" spans="1:4">
       <c r="A419" s="12" t="s">
         <v>416</v>
       </c>
       <c r="B419" s="5" t="s">
         <v>383</v>
       </c>
-      <c r="F419" s="3"/>
-    </row>
-    <row r="420" spans="1:6">
+      <c r="D419" s="3"/>
+    </row>
+    <row r="420" spans="1:4">
       <c r="A420" t="s">
         <v>12</v>
       </c>
       <c r="B420" t="s">
         <v>13</v>
       </c>
-      <c r="F420" s="2"/>
-    </row>
-    <row r="421" spans="1:6">
+      <c r="D420" s="2"/>
+    </row>
+    <row r="421" spans="1:4">
       <c r="A421" t="s">
         <v>755</v>
       </c>
       <c r="B421" t="s">
         <v>859</v>
       </c>
-      <c r="F421" s="2"/>
-    </row>
-    <row r="422" spans="1:6">
+      <c r="D421" s="2"/>
+    </row>
+    <row r="422" spans="1:4">
       <c r="A422" t="s">
         <v>2136</v>
       </c>
       <c r="B422" t="s">
         <v>2374</v>
       </c>
-      <c r="F422" s="3"/>
-    </row>
-    <row r="423" spans="1:6">
+      <c r="D422" s="3"/>
+    </row>
+    <row r="423" spans="1:4">
       <c r="A423" t="s">
         <v>513</v>
       </c>
       <c r="B423" s="24" t="s">
         <v>1446</v>
       </c>
-      <c r="F423" s="2"/>
-    </row>
-    <row r="424" spans="1:6">
+      <c r="D423" s="2"/>
+    </row>
+    <row r="424" spans="1:4">
       <c r="A424" t="s">
         <v>93</v>
       </c>
       <c r="B424" t="s">
         <v>94</v>
       </c>
-      <c r="F424" s="2"/>
-    </row>
-    <row r="425" spans="1:6">
+      <c r="D424" s="2"/>
+    </row>
+    <row r="425" spans="1:4">
       <c r="A425" t="s">
         <v>459</v>
       </c>
       <c r="B425" t="s">
         <v>460</v>
       </c>
-      <c r="F425" s="3"/>
-    </row>
-    <row r="426" spans="1:6">
+      <c r="D425" s="3"/>
+    </row>
+    <row r="426" spans="1:4">
       <c r="A426" t="s">
         <v>224</v>
       </c>
       <c r="B426" t="s">
         <v>225</v>
       </c>
-      <c r="F426" s="2"/>
-    </row>
-    <row r="427" spans="1:6">
+      <c r="D426" s="2"/>
+    </row>
+    <row r="427" spans="1:4">
       <c r="A427" t="s">
         <v>474</v>
       </c>
       <c r="B427" t="s">
         <v>475</v>
       </c>
-      <c r="F427" s="3"/>
-    </row>
-    <row r="428" spans="1:6">
+      <c r="D427" s="3"/>
+    </row>
+    <row r="428" spans="1:4">
       <c r="A428" t="s">
         <v>2137</v>
       </c>
       <c r="B428" s="38" t="s">
         <v>2373</v>
       </c>
-      <c r="F428" s="3"/>
-    </row>
-    <row r="429" spans="1:6">
+      <c r="D428" s="3"/>
+    </row>
+    <row r="429" spans="1:4">
       <c r="A429" s="16" t="s">
         <v>498</v>
       </c>
       <c r="B429" t="s">
         <v>2687</v>
       </c>
-      <c r="F429" s="3"/>
-    </row>
-    <row r="430" spans="1:6">
+      <c r="D429" s="3"/>
+    </row>
+    <row r="430" spans="1:4">
       <c r="A430" t="s">
         <v>226</v>
       </c>
       <c r="B430" t="s">
         <v>227</v>
       </c>
-      <c r="F430" s="3"/>
-    </row>
-    <row r="431" spans="1:6">
+      <c r="D430" s="3"/>
+    </row>
+    <row r="431" spans="1:4">
       <c r="A431" t="s">
         <v>5</v>
       </c>
       <c r="B431" t="s">
         <v>56</v>
       </c>
-      <c r="F431" s="2"/>
-    </row>
-    <row r="432" spans="1:6">
+      <c r="D431" s="2"/>
+    </row>
+    <row r="432" spans="1:4">
       <c r="A432" t="s">
         <v>934</v>
       </c>
       <c r="B432" t="s">
         <v>973</v>
       </c>
-      <c r="F432" s="3"/>
-    </row>
-    <row r="433" spans="1:6">
+      <c r="D432" s="3"/>
+    </row>
+    <row r="433" spans="1:4">
       <c r="A433" t="s">
         <v>160</v>
       </c>
       <c r="B433" t="s">
         <v>161</v>
       </c>
-      <c r="F433" s="2"/>
-    </row>
-    <row r="434" spans="1:6">
+      <c r="D433" s="2"/>
+    </row>
+    <row r="434" spans="1:4">
       <c r="A434" s="6" t="s">
         <v>408</v>
       </c>
       <c r="B434" s="5" t="s">
         <v>392</v>
       </c>
-      <c r="F434" s="3"/>
-    </row>
-    <row r="435" spans="1:6">
+      <c r="D434" s="3"/>
+    </row>
+    <row r="435" spans="1:4">
       <c r="A435" s="11" t="s">
         <v>3024</v>
       </c>
       <c r="B435" s="11" t="s">
         <v>391</v>
       </c>
-      <c r="F435" s="3"/>
-    </row>
-    <row r="436" spans="1:6">
+      <c r="D435" s="3"/>
+    </row>
+    <row r="436" spans="1:4">
       <c r="A436" t="s">
         <v>512</v>
       </c>
       <c r="B436" s="9" t="s">
         <v>679</v>
       </c>
-      <c r="F436" s="2"/>
-    </row>
-    <row r="437" spans="1:6">
+      <c r="D436" s="2"/>
+    </row>
+    <row r="437" spans="1:4">
       <c r="A437" t="s">
         <v>1020</v>
       </c>
       <c r="B437" s="16" t="s">
         <v>1041</v>
       </c>
-      <c r="F437" s="3"/>
-    </row>
-    <row r="438" spans="1:6">
+      <c r="D437" s="3"/>
+    </row>
+    <row r="438" spans="1:4">
       <c r="A438" t="s">
         <v>490</v>
       </c>
       <c r="B438" t="s">
         <v>620</v>
       </c>
-      <c r="F438" s="3"/>
-    </row>
-    <row r="439" spans="1:6">
+      <c r="D438" s="3"/>
+    </row>
+    <row r="439" spans="1:4">
       <c r="A439" t="s">
         <v>204</v>
       </c>
       <c r="B439" t="s">
         <v>205</v>
       </c>
-      <c r="F439" s="2"/>
-    </row>
-    <row r="440" spans="1:6">
+      <c r="D439" s="2"/>
+    </row>
+    <row r="440" spans="1:4">
       <c r="A440" t="s">
         <v>2688</v>
       </c>
       <c r="B440" t="s">
         <v>2689</v>
       </c>
-      <c r="F440" s="2"/>
-    </row>
-    <row r="441" spans="1:6">
+      <c r="D440" s="2"/>
+    </row>
+    <row r="441" spans="1:4">
       <c r="A441" t="s">
         <v>741</v>
       </c>
       <c r="B441" t="s">
         <v>849</v>
       </c>
-      <c r="F441" s="2"/>
-    </row>
-    <row r="442" spans="1:6">
+      <c r="D441" s="2"/>
+    </row>
+    <row r="442" spans="1:4">
       <c r="A442" t="s">
         <v>756</v>
       </c>
       <c r="B442" s="9" t="s">
         <v>895</v>
       </c>
-      <c r="F442" s="3"/>
-    </row>
-    <row r="443" spans="1:6">
+      <c r="D442" s="3"/>
+    </row>
+    <row r="443" spans="1:4">
       <c r="A443" t="s">
         <v>248</v>
       </c>
       <c r="B443" t="s">
         <v>249</v>
       </c>
-      <c r="F443" s="2"/>
-    </row>
-    <row r="444" spans="1:6">
+      <c r="D443" s="2"/>
+    </row>
+    <row r="444" spans="1:4">
       <c r="A444" t="s">
         <v>72</v>
       </c>
       <c r="B444" t="s">
         <v>73</v>
       </c>
-      <c r="F444" s="2"/>
-    </row>
-    <row r="445" spans="1:6">
+      <c r="D444" s="2"/>
+    </row>
+    <row r="445" spans="1:4">
       <c r="A445" t="s">
         <v>1016</v>
       </c>
       <c r="B445" s="16" t="s">
         <v>1038</v>
       </c>
-      <c r="F445" s="2"/>
-    </row>
-    <row r="446" spans="1:6">
+      <c r="D445" s="2"/>
+    </row>
+    <row r="446" spans="1:4">
       <c r="A446" t="s">
         <v>499</v>
       </c>
       <c r="B446" t="s">
         <v>625</v>
       </c>
-      <c r="F446" s="2"/>
-    </row>
-    <row r="447" spans="1:6">
+      <c r="D446" s="2"/>
+    </row>
+    <row r="447" spans="1:4">
       <c r="A447" t="s">
         <v>1022</v>
       </c>
       <c r="B447" s="38" t="s">
         <v>2690</v>
       </c>
-      <c r="F447" s="2"/>
-    </row>
-    <row r="448" spans="1:6">
+      <c r="D447" s="2"/>
+    </row>
+    <row r="448" spans="1:4">
       <c r="A448" t="s">
         <v>525</v>
       </c>
       <c r="B448" t="s">
         <v>630</v>
       </c>
-      <c r="F448" s="2"/>
-    </row>
-    <row r="449" spans="1:6">
+      <c r="D448" s="2"/>
+    </row>
+    <row r="449" spans="1:4">
       <c r="A449" t="s">
         <v>809</v>
       </c>
       <c r="B449" t="s">
         <v>843</v>
       </c>
-      <c r="F449" s="2"/>
-    </row>
-    <row r="450" spans="1:6">
+      <c r="D449" s="2"/>
+    </row>
+    <row r="450" spans="1:4">
       <c r="A450" t="s">
         <v>960</v>
       </c>
       <c r="B450" t="s">
         <v>1006</v>
       </c>
-      <c r="F450" s="2"/>
-    </row>
-    <row r="451" spans="1:6">
+      <c r="D450" s="2"/>
+    </row>
+    <row r="451" spans="1:4">
       <c r="A451" t="s">
         <v>935</v>
       </c>
       <c r="B451" t="s">
         <v>974</v>
       </c>
-      <c r="F451" s="2"/>
-    </row>
-    <row r="452" spans="1:6">
+      <c r="D451" s="2"/>
+    </row>
+    <row r="452" spans="1:4">
       <c r="A452" t="s">
         <v>2138</v>
       </c>
       <c r="B452" s="38" t="s">
         <v>1801</v>
       </c>
-      <c r="F452" s="3"/>
-    </row>
-    <row r="453" spans="1:6">
+      <c r="D452" s="3"/>
+    </row>
+    <row r="453" spans="1:4">
       <c r="A453" t="s">
         <v>585</v>
       </c>
       <c r="B453" s="9" t="s">
         <v>719</v>
       </c>
-      <c r="F453" s="2"/>
-    </row>
-    <row r="454" spans="1:6">
+      <c r="D453" s="2"/>
+    </row>
+    <row r="454" spans="1:4">
       <c r="A454" t="s">
         <v>333</v>
       </c>
       <c r="B454" s="5" t="s">
         <v>637</v>
       </c>
-      <c r="F454" s="2"/>
-    </row>
-    <row r="455" spans="1:6">
+      <c r="D454" s="2"/>
+    </row>
+    <row r="455" spans="1:4">
       <c r="A455" t="s">
         <v>808</v>
       </c>
       <c r="B455" s="47" t="s">
         <v>637</v>
       </c>
-      <c r="F455" s="3"/>
-    </row>
-    <row r="456" spans="1:6">
+      <c r="D455" s="3"/>
+    </row>
+    <row r="456" spans="1:4">
       <c r="A456" t="s">
         <v>2351</v>
       </c>
       <c r="B456" t="s">
         <v>2352</v>
       </c>
-      <c r="F456" s="2"/>
-    </row>
-    <row r="457" spans="1:6">
+      <c r="D456" s="2"/>
+    </row>
+    <row r="457" spans="1:4">
       <c r="A457" t="s">
         <v>65</v>
       </c>
       <c r="B457" t="s">
         <v>637</v>
       </c>
-      <c r="F457" s="3"/>
-    </row>
-    <row r="458" spans="1:6">
+      <c r="D457" s="3"/>
+    </row>
+    <row r="458" spans="1:4">
       <c r="A458" s="1" t="s">
         <v>306</v>
       </c>
       <c r="B458" s="1" t="s">
         <v>316</v>
       </c>
-      <c r="F458" s="3"/>
-    </row>
-    <row r="459" spans="1:6">
+      <c r="D458" s="3"/>
+    </row>
+    <row r="459" spans="1:4">
       <c r="A459" t="s">
         <v>367</v>
       </c>
       <c r="B459" s="5" t="s">
         <v>637</v>
       </c>
-      <c r="F459" s="2"/>
-    </row>
-    <row r="460" spans="1:6">
+      <c r="D459" s="2"/>
+    </row>
+    <row r="460" spans="1:4">
       <c r="A460" t="s">
         <v>173</v>
       </c>
       <c r="B460" t="s">
         <v>109</v>
       </c>
-      <c r="F460" s="3"/>
-    </row>
-    <row r="461" spans="1:6">
+      <c r="D460" s="3"/>
+    </row>
+    <row r="461" spans="1:4">
       <c r="A461" t="s">
         <v>2691</v>
       </c>
       <c r="B461" t="s">
         <v>2692</v>
       </c>
-      <c r="F461" s="3"/>
-    </row>
-    <row r="462" spans="1:6">
+      <c r="D461" s="3"/>
+    </row>
+    <row r="462" spans="1:4">
       <c r="A462" s="15" t="s">
         <v>386</v>
       </c>
       <c r="B462" s="5" t="s">
         <v>387</v>
       </c>
-      <c r="F462" s="3"/>
-    </row>
-    <row r="463" spans="1:6">
+      <c r="D462" s="3"/>
+    </row>
+    <row r="463" spans="1:4">
       <c r="A463" s="16" t="s">
         <v>108</v>
       </c>
       <c r="B463" t="s">
         <v>109</v>
       </c>
-      <c r="F463" s="3"/>
-    </row>
-    <row r="464" spans="1:6">
+      <c r="D463" s="3"/>
+    </row>
+    <row r="464" spans="1:4">
       <c r="A464" t="s">
         <v>736</v>
       </c>
       <c r="B464" t="s">
         <v>847</v>
       </c>
-      <c r="F464" s="2"/>
-    </row>
-    <row r="465" spans="1:6">
+      <c r="D464" s="2"/>
+    </row>
+    <row r="465" spans="1:4">
       <c r="A465" t="s">
         <v>519</v>
       </c>
       <c r="B465" t="s">
         <v>647</v>
       </c>
-      <c r="F465" s="3"/>
-    </row>
-    <row r="466" spans="1:6">
+      <c r="D465" s="3"/>
+    </row>
+    <row r="466" spans="1:4">
       <c r="A466" t="s">
         <v>773</v>
       </c>
       <c r="B466" t="s">
         <v>861</v>
       </c>
-      <c r="F466" s="2"/>
-    </row>
-    <row r="467" spans="1:6">
+      <c r="D466" s="2"/>
+    </row>
+    <row r="467" spans="1:4">
       <c r="A467" t="s">
         <v>3025</v>
       </c>
       <c r="B467" t="s">
         <v>2</v>
       </c>
-      <c r="F467" s="2"/>
-    </row>
-    <row r="468" spans="1:6">
+      <c r="D467" s="2"/>
+    </row>
+    <row r="468" spans="1:4">
       <c r="A468" s="12" t="s">
         <v>406</v>
       </c>
       <c r="B468" s="5" t="s">
         <v>401</v>
       </c>
-      <c r="F468" s="2"/>
-    </row>
-    <row r="469" spans="1:6">
+      <c r="D468" s="2"/>
+    </row>
+    <row r="469" spans="1:4">
       <c r="A469" t="s">
         <v>432</v>
       </c>
       <c r="B469" t="s">
         <v>433</v>
       </c>
-      <c r="F469" s="2"/>
-    </row>
-    <row r="470" spans="1:6">
+      <c r="D469" s="2"/>
+    </row>
+    <row r="470" spans="1:4">
       <c r="A470" t="s">
         <v>196</v>
       </c>
       <c r="B470" t="s">
         <v>197</v>
       </c>
-      <c r="F470" s="2"/>
-    </row>
-    <row r="471" spans="1:6">
+      <c r="D470" s="2"/>
+    </row>
+    <row r="471" spans="1:4">
       <c r="A471" s="38" t="s">
         <v>2109</v>
       </c>
       <c r="B471" s="38" t="s">
         <v>2397</v>
       </c>
-      <c r="F471" s="2"/>
-    </row>
-    <row r="472" spans="1:6">
+      <c r="D471" s="2"/>
+    </row>
+    <row r="472" spans="1:4">
       <c r="A472" s="9" t="s">
         <v>819</v>
       </c>
       <c r="B472" s="9" t="s">
         <v>915</v>
       </c>
-      <c r="F472" s="2"/>
-    </row>
-    <row r="473" spans="1:6">
+      <c r="D472" s="2"/>
+    </row>
+    <row r="473" spans="1:4">
       <c r="A473" t="s">
         <v>234</v>
       </c>
       <c r="B473" t="s">
         <v>235</v>
       </c>
-      <c r="F473" s="2"/>
-    </row>
-    <row r="474" spans="1:6">
+      <c r="D473" s="2"/>
+    </row>
+    <row r="474" spans="1:4">
       <c r="A474" t="s">
         <v>729</v>
       </c>
       <c r="B474" s="9" t="s">
         <v>731</v>
       </c>
-      <c r="F474" s="2"/>
-    </row>
-    <row r="475" spans="1:6">
+      <c r="D474" s="2"/>
+    </row>
+    <row r="475" spans="1:4">
       <c r="A475" s="9" t="s">
         <v>763</v>
       </c>
       <c r="B475" s="9" t="s">
         <v>900</v>
       </c>
-      <c r="F475" s="2"/>
-    </row>
-    <row r="476" spans="1:6">
+      <c r="D475" s="2"/>
+    </row>
+    <row r="476" spans="1:4">
       <c r="A476" t="s">
         <v>759</v>
       </c>
       <c r="B476" s="9" t="s">
         <v>898</v>
       </c>
-      <c r="F476" s="3"/>
-    </row>
-    <row r="477" spans="1:6">
+      <c r="D476" s="3"/>
+    </row>
+    <row r="477" spans="1:4">
       <c r="A477" t="s">
         <v>557</v>
       </c>
       <c r="B477" s="9" t="s">
         <v>703</v>
       </c>
-      <c r="F477" s="3"/>
-    </row>
-    <row r="478" spans="1:6">
+      <c r="D477" s="3"/>
+    </row>
+    <row r="478" spans="1:4">
       <c r="A478" t="s">
         <v>556</v>
       </c>
       <c r="B478" s="9" t="s">
         <v>702</v>
       </c>
-      <c r="F478" s="3"/>
-    </row>
-    <row r="479" spans="1:6">
+      <c r="D478" s="3"/>
+    </row>
+    <row r="479" spans="1:4">
       <c r="A479" t="s">
         <v>366</v>
       </c>
       <c r="B479" s="5" t="s">
         <v>314</v>
       </c>
-      <c r="F479" s="3"/>
-    </row>
-    <row r="480" spans="1:6">
+      <c r="D479" s="3"/>
+    </row>
+    <row r="480" spans="1:4">
       <c r="A480" t="s">
         <v>529</v>
       </c>
       <c r="B480" t="s">
         <v>650</v>
       </c>
-      <c r="F480" s="3"/>
-    </row>
-    <row r="481" spans="1:6">
+      <c r="D480" s="3"/>
+    </row>
+    <row r="481" spans="1:4">
       <c r="A481" t="s">
         <v>2055</v>
       </c>
       <c r="B481" t="s">
         <v>2602</v>
       </c>
-      <c r="F481" s="3"/>
-    </row>
-    <row r="482" spans="1:6">
+      <c r="D481" s="3"/>
+    </row>
+    <row r="482" spans="1:4">
       <c r="A482" s="6" t="s">
         <v>378</v>
       </c>
       <c r="B482" s="5" t="s">
         <v>379</v>
       </c>
-      <c r="F482" s="2"/>
-    </row>
-    <row r="483" spans="1:6">
+      <c r="D482" s="2"/>
+    </row>
+    <row r="483" spans="1:4">
       <c r="A483" s="38" t="s">
         <v>2599</v>
       </c>
       <c r="B483" s="38" t="s">
         <v>2601</v>
       </c>
-      <c r="F483" s="2"/>
-    </row>
-    <row r="484" spans="1:6">
+      <c r="D483" s="2"/>
+    </row>
+    <row r="484" spans="1:4">
       <c r="A484" t="s">
         <v>2598</v>
       </c>
       <c r="B484" t="s">
         <v>2600</v>
       </c>
-      <c r="F484" s="2"/>
-    </row>
-    <row r="485" spans="1:6">
+      <c r="D484" s="2"/>
+    </row>
+    <row r="485" spans="1:4">
       <c r="A485" t="s">
         <v>228</v>
       </c>
       <c r="B485" t="s">
         <v>229</v>
       </c>
-      <c r="F485" s="2"/>
-    </row>
-    <row r="486" spans="1:6">
+      <c r="D485" s="2"/>
+    </row>
+    <row r="486" spans="1:4">
       <c r="A486" t="s">
         <v>539</v>
       </c>
       <c r="B486" s="9" t="s">
         <v>686</v>
       </c>
-      <c r="F486" s="2"/>
-    </row>
-    <row r="487" spans="1:6">
+      <c r="D486" s="2"/>
+    </row>
+    <row r="487" spans="1:4">
       <c r="A487" t="s">
         <v>2139</v>
       </c>
       <c r="B487" t="s">
         <v>2375</v>
       </c>
-      <c r="F487" s="2"/>
-    </row>
-    <row r="488" spans="1:6">
+      <c r="D487" s="2"/>
+    </row>
+    <row r="488" spans="1:4">
       <c r="A488" t="s">
         <v>1009</v>
       </c>
       <c r="B488" s="16" t="s">
         <v>1032</v>
       </c>
-      <c r="F488" s="2"/>
-    </row>
-    <row r="489" spans="1:6">
+      <c r="D488" s="2"/>
+    </row>
+    <row r="489" spans="1:4">
       <c r="A489" t="s">
         <v>2140</v>
       </c>
       <c r="B489" t="s">
         <v>2693</v>
       </c>
-      <c r="F489" s="2"/>
-    </row>
-    <row r="490" spans="1:6">
+      <c r="D489" s="2"/>
+    </row>
+    <row r="490" spans="1:4">
       <c r="A490" t="s">
         <v>455</v>
       </c>
       <c r="B490" t="s">
         <v>456</v>
       </c>
-      <c r="F490" s="3"/>
-    </row>
-    <row r="491" spans="1:6">
+      <c r="D490" s="3"/>
+    </row>
+    <row r="491" spans="1:4">
       <c r="A491" t="s">
         <v>2694</v>
       </c>
       <c r="B491" s="38" t="s">
         <v>2465</v>
       </c>
-      <c r="F491" s="3"/>
-    </row>
-    <row r="492" spans="1:6">
+      <c r="D491" s="3"/>
+    </row>
+    <row r="492" spans="1:4">
       <c r="A492" s="9" t="s">
         <v>2695</v>
       </c>
       <c r="B492" s="38" t="s">
         <v>2696</v>
       </c>
-      <c r="F492" s="2"/>
-    </row>
-    <row r="493" spans="1:6">
+      <c r="D492" s="2"/>
+    </row>
+    <row r="493" spans="1:4">
       <c r="A493" s="9" t="s">
         <v>2141</v>
       </c>
       <c r="B493" s="38" t="s">
         <v>2697</v>
       </c>
-      <c r="F493" s="3"/>
-    </row>
-    <row r="494" spans="1:6">
+      <c r="D493" s="3"/>
+    </row>
+    <row r="494" spans="1:4">
       <c r="A494" t="s">
         <v>835</v>
       </c>
       <c r="B494" t="s">
         <v>889</v>
       </c>
-      <c r="F494" s="3"/>
-    </row>
-    <row r="495" spans="1:6">
+      <c r="D494" s="3"/>
+    </row>
+    <row r="495" spans="1:4">
       <c r="A495" s="1" t="s">
         <v>309</v>
       </c>
       <c r="B495" s="1" t="s">
         <v>319</v>
       </c>
-      <c r="F495" s="2"/>
-    </row>
-    <row r="496" spans="1:6">
+      <c r="D495" s="2"/>
+    </row>
+    <row r="496" spans="1:4">
       <c r="A496" s="9" t="s">
         <v>573</v>
       </c>
       <c r="B496" s="9" t="s">
         <v>709</v>
       </c>
-      <c r="F496" s="3"/>
-    </row>
-    <row r="497" spans="1:6">
+      <c r="D496" s="3"/>
+    </row>
+    <row r="497" spans="1:4">
       <c r="A497" s="9" t="s">
         <v>591</v>
       </c>
       <c r="B497" s="9" t="s">
         <v>724</v>
       </c>
-      <c r="F497" s="3"/>
-    </row>
-    <row r="498" spans="1:6">
+      <c r="D497" s="3"/>
+    </row>
+    <row r="498" spans="1:4">
       <c r="A498" t="s">
         <v>76</v>
       </c>
       <c r="B498" t="s">
         <v>77</v>
       </c>
-      <c r="F498" s="2"/>
-    </row>
-    <row r="499" spans="1:6">
+      <c r="D498" s="2"/>
+    </row>
+    <row r="499" spans="1:4">
       <c r="A499" t="s">
         <v>30</v>
       </c>
       <c r="B499" t="s">
         <v>31</v>
       </c>
-      <c r="F499" s="3"/>
-    </row>
-    <row r="500" spans="1:6">
+      <c r="D499" s="3"/>
+    </row>
+    <row r="500" spans="1:4">
       <c r="A500" t="s">
         <v>264</v>
       </c>
       <c r="B500" t="s">
         <v>265</v>
       </c>
-      <c r="F500" s="2"/>
-    </row>
-    <row r="501" spans="1:6">
+      <c r="D500" s="2"/>
+    </row>
+    <row r="501" spans="1:4">
       <c r="A501" t="s">
         <v>925</v>
       </c>
       <c r="B501" t="s">
         <v>674</v>
       </c>
-      <c r="F501" s="3"/>
-    </row>
-    <row r="502" spans="1:6">
+      <c r="D501" s="3"/>
+    </row>
+    <row r="502" spans="1:4">
       <c r="A502" s="11" t="s">
         <v>3026</v>
       </c>
       <c r="B502" s="11" t="s">
         <v>674</v>
       </c>
-      <c r="F502" s="2"/>
-    </row>
-    <row r="503" spans="1:6">
+      <c r="D502" s="2"/>
+    </row>
+    <row r="503" spans="1:4">
       <c r="A503" t="s">
         <v>2142</v>
       </c>
       <c r="B503" t="s">
         <v>2603</v>
       </c>
-      <c r="F503" s="3"/>
-    </row>
-    <row r="504" spans="1:6">
+      <c r="D503" s="3"/>
+    </row>
+    <row r="504" spans="1:4">
       <c r="A504" t="s">
         <v>353</v>
       </c>
       <c r="B504" s="5" t="s">
         <v>352</v>
       </c>
-      <c r="F504" s="3"/>
-    </row>
-    <row r="505" spans="1:6">
+      <c r="D504" s="3"/>
+    </row>
+    <row r="505" spans="1:4">
       <c r="A505" t="s">
         <v>217</v>
       </c>
       <c r="B505" t="s">
         <v>445</v>
       </c>
-      <c r="F505" s="2"/>
-    </row>
-    <row r="506" spans="1:6">
+      <c r="D505" s="2"/>
+    </row>
+    <row r="506" spans="1:4">
       <c r="A506" t="s">
         <v>1001</v>
       </c>
       <c r="B506" t="s">
         <v>998</v>
       </c>
-      <c r="F506" s="3"/>
-    </row>
-    <row r="507" spans="1:6">
+      <c r="D506" s="3"/>
+    </row>
+    <row r="507" spans="1:4">
       <c r="A507" t="s">
         <v>567</v>
       </c>
       <c r="B507" s="9" t="s">
         <v>635</v>
       </c>
-      <c r="F507" s="3"/>
-    </row>
-    <row r="508" spans="1:6">
+      <c r="D507" s="3"/>
+    </row>
+    <row r="508" spans="1:4">
       <c r="A508" s="9" t="s">
         <v>720</v>
       </c>
       <c r="B508" s="9" t="s">
         <v>721</v>
       </c>
-      <c r="F508" s="3"/>
-    </row>
-    <row r="509" spans="1:6">
+      <c r="D508" s="3"/>
+    </row>
+    <row r="509" spans="1:4">
       <c r="A509" s="9" t="s">
         <v>722</v>
       </c>
       <c r="B509" s="9" t="s">
         <v>723</v>
       </c>
-      <c r="F509" s="2"/>
-    </row>
-    <row r="510" spans="1:6">
+      <c r="D509" s="2"/>
+    </row>
+    <row r="510" spans="1:4">
       <c r="A510" s="38" t="s">
         <v>2698</v>
       </c>
       <c r="B510" s="38" t="s">
         <v>2699</v>
       </c>
-      <c r="F510" s="2"/>
-    </row>
-    <row r="511" spans="1:6">
+      <c r="D510" s="2"/>
+    </row>
+    <row r="511" spans="1:4">
       <c r="A511" t="s">
         <v>522</v>
       </c>
       <c r="B511" t="s">
         <v>648</v>
       </c>
-      <c r="F511" s="2"/>
-    </row>
-    <row r="512" spans="1:6">
+      <c r="D511" s="2"/>
+    </row>
+    <row r="512" spans="1:4">
       <c r="A512" t="s">
         <v>112</v>
       </c>
       <c r="B512" t="s">
         <v>113</v>
       </c>
-      <c r="F512" s="3"/>
-    </row>
-    <row r="513" spans="1:6">
+      <c r="D512" s="3"/>
+    </row>
+    <row r="513" spans="1:4">
       <c r="A513" t="s">
         <v>428</v>
       </c>
       <c r="B513" t="s">
         <v>429</v>
       </c>
-      <c r="F513" s="2"/>
-    </row>
-    <row r="514" spans="1:6">
+      <c r="D513" s="2"/>
+    </row>
+    <row r="514" spans="1:4">
       <c r="A514" t="s">
         <v>221</v>
       </c>
       <c r="B514" t="s">
         <v>2700</v>
       </c>
-      <c r="F514" s="2"/>
-    </row>
-    <row r="515" spans="1:6">
+      <c r="D514" s="2"/>
+    </row>
+    <row r="515" spans="1:4">
       <c r="A515" t="s">
         <v>230</v>
       </c>
       <c r="B515" t="s">
         <v>231</v>
       </c>
-      <c r="F515" s="3"/>
-    </row>
-    <row r="516" spans="1:6">
+      <c r="D515" s="3"/>
+    </row>
+    <row r="516" spans="1:4">
       <c r="A516" t="s">
         <v>486</v>
       </c>
       <c r="B516" t="s">
         <v>613</v>
       </c>
-      <c r="F516" s="2"/>
-    </row>
-    <row r="517" spans="1:6">
+      <c r="D516" s="2"/>
+    </row>
+    <row r="517" spans="1:4">
       <c r="A517" t="s">
         <v>481</v>
       </c>
       <c r="B517" t="s">
         <v>604</v>
       </c>
-      <c r="F517" s="3"/>
-    </row>
-    <row r="518" spans="1:6">
+      <c r="D517" s="3"/>
+    </row>
+    <row r="518" spans="1:4">
       <c r="A518" t="s">
         <v>589</v>
       </c>
       <c r="B518" t="s">
         <v>672</v>
       </c>
-      <c r="F518" s="2"/>
-    </row>
-    <row r="519" spans="1:6">
+      <c r="D518" s="2"/>
+    </row>
+    <row r="519" spans="1:4">
       <c r="A519" t="s">
         <v>762</v>
       </c>
       <c r="B519" t="s">
         <v>860</v>
       </c>
-      <c r="F519" s="3"/>
-    </row>
-    <row r="520" spans="1:6">
+      <c r="D519" s="3"/>
+    </row>
+    <row r="520" spans="1:4">
       <c r="A520" t="s">
         <v>749</v>
       </c>
       <c r="B520" t="s">
         <v>854</v>
       </c>
-      <c r="F520" s="2"/>
-    </row>
-    <row r="521" spans="1:6">
+      <c r="D520" s="2"/>
+    </row>
+    <row r="521" spans="1:4">
       <c r="A521" s="12" t="s">
         <v>396</v>
       </c>
       <c r="B521" s="45" t="s">
         <v>397</v>
       </c>
-      <c r="F521" s="2"/>
-    </row>
-    <row r="522" spans="1:6">
+      <c r="D521" s="2"/>
+    </row>
+    <row r="522" spans="1:4">
       <c r="A522" t="s">
         <v>57</v>
       </c>
       <c r="B522" t="s">
         <v>58</v>
       </c>
-      <c r="F522" s="3"/>
-    </row>
-    <row r="523" spans="1:6">
+      <c r="D522" s="3"/>
+    </row>
+    <row r="523" spans="1:4">
       <c r="A523" s="1" t="s">
         <v>303</v>
       </c>
       <c r="B523" s="9" t="s">
         <v>717</v>
       </c>
-      <c r="F523" s="2"/>
-    </row>
-    <row r="524" spans="1:6">
+      <c r="D523" s="2"/>
+    </row>
+    <row r="524" spans="1:4">
       <c r="A524" s="38" t="s">
         <v>2634</v>
       </c>
       <c r="B524" s="38" t="s">
         <v>717</v>
       </c>
-      <c r="F524" s="2"/>
-    </row>
-    <row r="525" spans="1:6">
+      <c r="D524" s="2"/>
+    </row>
+    <row r="525" spans="1:4">
       <c r="A525" t="s">
         <v>945</v>
       </c>
       <c r="B525" t="s">
         <v>989</v>
       </c>
-      <c r="F525" s="2"/>
-    </row>
-    <row r="526" spans="1:6">
+      <c r="D525" s="2"/>
+    </row>
+    <row r="526" spans="1:4">
       <c r="A526" t="s">
         <v>2701</v>
       </c>
       <c r="B526" s="38" t="s">
         <v>2702</v>
       </c>
-      <c r="F526" s="3"/>
-    </row>
-    <row r="527" spans="1:6">
+      <c r="D526" s="3"/>
+    </row>
+    <row r="527" spans="1:4">
       <c r="A527" t="s">
         <v>2703</v>
       </c>
       <c r="B527" t="s">
         <v>2705</v>
       </c>
-      <c r="F527" s="3"/>
-    </row>
-    <row r="528" spans="1:6">
+      <c r="D527" s="3"/>
+    </row>
+    <row r="528" spans="1:4">
       <c r="A528" t="s">
         <v>2704</v>
       </c>
       <c r="B528" t="s">
         <v>1567</v>
       </c>
-      <c r="F528" s="2"/>
-    </row>
-    <row r="529" spans="1:6">
+      <c r="D528" s="2"/>
+    </row>
+    <row r="529" spans="1:4">
       <c r="A529" t="s">
         <v>2143</v>
       </c>
       <c r="B529" s="48" t="s">
         <v>444</v>
       </c>
-      <c r="F529" s="2"/>
-    </row>
-    <row r="530" spans="1:6">
+      <c r="D529" s="2"/>
+    </row>
+    <row r="530" spans="1:4">
       <c r="A530" t="s">
         <v>63</v>
       </c>
       <c r="B530" t="s">
         <v>64</v>
       </c>
-      <c r="F530" s="2"/>
-    </row>
-    <row r="531" spans="1:6">
+      <c r="D530" s="2"/>
+    </row>
+    <row r="531" spans="1:4">
       <c r="A531" t="s">
         <v>503</v>
       </c>
       <c r="B531" s="9" t="s">
         <v>677</v>
       </c>
-      <c r="F531" s="2"/>
-    </row>
-    <row r="532" spans="1:6">
+      <c r="D531" s="2"/>
+    </row>
+    <row r="532" spans="1:4">
       <c r="A532" s="16" t="s">
         <v>1018</v>
       </c>
       <c r="B532" s="16" t="s">
         <v>677</v>
       </c>
-      <c r="F532" s="3"/>
-    </row>
-    <row r="533" spans="1:6">
+      <c r="D532" s="3"/>
+    </row>
+    <row r="533" spans="1:4">
       <c r="A533" t="s">
         <v>137</v>
       </c>
       <c r="B533" t="s">
         <v>44</v>
       </c>
-      <c r="F533" s="2"/>
-    </row>
-    <row r="534" spans="1:6">
+      <c r="D533" s="2"/>
+    </row>
+    <row r="534" spans="1:4">
       <c r="A534" t="s">
         <v>2706</v>
       </c>
       <c r="B534" t="s">
         <v>2707</v>
       </c>
-      <c r="F534" s="2"/>
-    </row>
-    <row r="535" spans="1:6">
+      <c r="D534" s="2"/>
+    </row>
+    <row r="535" spans="1:4">
       <c r="A535" t="s">
         <v>237</v>
       </c>
       <c r="B535" t="s">
         <v>238</v>
       </c>
-      <c r="F535" s="3"/>
-    </row>
-    <row r="536" spans="1:6">
+      <c r="D535" s="3"/>
+    </row>
+    <row r="536" spans="1:4">
       <c r="A536" t="s">
         <v>2708</v>
       </c>
       <c r="B536" s="38" t="s">
         <v>2709</v>
       </c>
-      <c r="F536" s="3"/>
-    </row>
-    <row r="537" spans="1:6">
+      <c r="D536" s="3"/>
+    </row>
+    <row r="537" spans="1:4">
       <c r="A537" t="s">
         <v>325</v>
       </c>
       <c r="B537" s="5" t="s">
         <v>326</v>
       </c>
-      <c r="F537" s="3"/>
-    </row>
-    <row r="538" spans="1:6">
+      <c r="D537" s="3"/>
+    </row>
+    <row r="538" spans="1:4">
       <c r="A538" t="s">
         <v>743</v>
       </c>
       <c r="B538" s="9" t="s">
         <v>894</v>
       </c>
-      <c r="F538" s="2"/>
-    </row>
-    <row r="539" spans="1:6">
+      <c r="D538" s="2"/>
+    </row>
+    <row r="539" spans="1:4">
       <c r="A539" t="s">
         <v>243</v>
       </c>
       <c r="B539" t="s">
         <v>244</v>
       </c>
-      <c r="F539" s="3"/>
-    </row>
-    <row r="540" spans="1:6">
+      <c r="D539" s="3"/>
+    </row>
+    <row r="540" spans="1:4">
       <c r="A540" t="s">
         <v>103</v>
       </c>
       <c r="B540" t="s">
         <v>104</v>
       </c>
-      <c r="F540" s="3"/>
-    </row>
-    <row r="541" spans="1:6">
+      <c r="D540" s="3"/>
+    </row>
+    <row r="541" spans="1:4">
       <c r="A541" t="s">
         <v>2144</v>
       </c>
       <c r="B541" t="s">
         <v>2710</v>
       </c>
-      <c r="F541" s="2"/>
-    </row>
-    <row r="542" spans="1:6">
+      <c r="D541" s="2"/>
+    </row>
+    <row r="542" spans="1:4">
       <c r="A542" t="s">
         <v>3027</v>
       </c>
       <c r="B542" t="s">
         <v>83</v>
       </c>
-      <c r="F542" s="2"/>
-    </row>
-    <row r="543" spans="1:6">
+      <c r="D542" s="2"/>
+    </row>
+    <row r="543" spans="1:4">
       <c r="A543" t="s">
         <v>443</v>
       </c>
       <c r="B543" t="s">
         <v>321</v>
       </c>
-      <c r="F543" s="2"/>
-    </row>
-    <row r="544" spans="1:6">
+      <c r="D543" s="2"/>
+    </row>
+    <row r="544" spans="1:4">
       <c r="A544" t="s">
         <v>781</v>
       </c>
       <c r="B544" s="24" t="s">
         <v>1447</v>
       </c>
-      <c r="F544" s="2"/>
-    </row>
-    <row r="545" spans="1:6">
+      <c r="D544" s="2"/>
+    </row>
+    <row r="545" spans="1:4">
       <c r="A545" s="12" t="s">
         <v>415</v>
       </c>
       <c r="B545" s="5" t="s">
         <v>146</v>
       </c>
-      <c r="F545" s="2"/>
-    </row>
-    <row r="546" spans="1:6">
+      <c r="D545" s="2"/>
+    </row>
+    <row r="546" spans="1:4">
       <c r="A546" t="s">
         <v>34</v>
       </c>
       <c r="B546" t="s">
         <v>35</v>
       </c>
-      <c r="F546" s="2"/>
-    </row>
-    <row r="547" spans="1:6">
+      <c r="D546" s="2"/>
+    </row>
+    <row r="547" spans="1:4">
       <c r="A547" t="s">
         <v>737</v>
       </c>
       <c r="B547" t="s">
         <v>848</v>
       </c>
-      <c r="F547" s="3"/>
-    </row>
-    <row r="548" spans="1:6">
+      <c r="D547" s="3"/>
+    </row>
+    <row r="548" spans="1:4">
       <c r="A548" s="12" t="s">
         <v>399</v>
       </c>
       <c r="B548" s="5" t="s">
         <v>400</v>
       </c>
-      <c r="F548" s="3"/>
-    </row>
-    <row r="549" spans="1:6">
+      <c r="D548" s="3"/>
+    </row>
+    <row r="549" spans="1:4">
       <c r="A549" t="s">
         <v>453</v>
       </c>
       <c r="B549" t="s">
         <v>139</v>
       </c>
-      <c r="F549" s="2"/>
-    </row>
-    <row r="550" spans="1:6">
+      <c r="D549" s="2"/>
+    </row>
+    <row r="550" spans="1:4">
       <c r="A550" t="s">
         <v>580</v>
       </c>
       <c r="B550" s="9" t="s">
         <v>715</v>
       </c>
-      <c r="F550" s="2"/>
-    </row>
-    <row r="551" spans="1:6">
+      <c r="D550" s="2"/>
+    </row>
+    <row r="551" spans="1:4">
       <c r="A551" t="s">
         <v>979</v>
       </c>
       <c r="B551" t="s">
         <v>980</v>
       </c>
-      <c r="F551" s="2"/>
-    </row>
-    <row r="552" spans="1:6">
+      <c r="D551" s="2"/>
+    </row>
+    <row r="552" spans="1:4">
       <c r="A552" t="s">
         <v>957</v>
       </c>
       <c r="B552" t="s">
         <v>1003</v>
       </c>
-      <c r="F552" s="2"/>
-    </row>
-    <row r="553" spans="1:6">
+      <c r="D552" s="2"/>
+    </row>
+    <row r="553" spans="1:4">
       <c r="A553" t="s">
         <v>956</v>
       </c>
       <c r="B553" t="s">
         <v>975</v>
       </c>
-      <c r="F553" s="2"/>
-    </row>
-    <row r="554" spans="1:6">
+      <c r="D553" s="2"/>
+    </row>
+    <row r="554" spans="1:4">
       <c r="A554" t="s">
         <v>981</v>
       </c>
       <c r="B554" t="s">
         <v>976</v>
       </c>
-      <c r="F554" s="2"/>
-    </row>
-    <row r="555" spans="1:6">
+      <c r="D554" s="2"/>
+    </row>
+    <row r="555" spans="1:4">
       <c r="A555" t="s">
         <v>941</v>
       </c>
       <c r="B555" t="s">
         <v>985</v>
       </c>
-      <c r="F555" s="2"/>
-    </row>
-    <row r="556" spans="1:6">
+      <c r="D555" s="2"/>
+    </row>
+    <row r="556" spans="1:4">
       <c r="A556" t="s">
         <v>1011</v>
       </c>
       <c r="B556" s="16" t="s">
         <v>1034</v>
       </c>
-      <c r="F556" s="3"/>
-    </row>
-    <row r="557" spans="1:6">
+      <c r="D556" s="3"/>
+    </row>
+    <row r="557" spans="1:4">
       <c r="A557" t="s">
         <v>3028</v>
       </c>
       <c r="B557" t="s">
         <v>2</v>
       </c>
-      <c r="F557" s="2"/>
-    </row>
-    <row r="558" spans="1:6">
+      <c r="D557" s="2"/>
+    </row>
+    <row r="558" spans="1:4">
       <c r="A558" t="s">
         <v>3029</v>
       </c>
       <c r="B558" t="s">
         <v>666</v>
       </c>
-      <c r="F558" s="2"/>
-    </row>
-    <row r="559" spans="1:6">
+      <c r="D558" s="2"/>
+    </row>
+    <row r="559" spans="1:4">
       <c r="A559" t="s">
         <v>510</v>
       </c>
       <c r="B559" s="31" t="s">
         <v>1767</v>
       </c>
-      <c r="F559" s="2"/>
-    </row>
-    <row r="560" spans="1:6">
+      <c r="D559" s="2"/>
+    </row>
+    <row r="560" spans="1:4">
       <c r="A560" t="s">
         <v>266</v>
       </c>
       <c r="B560" t="s">
         <v>2</v>
       </c>
-      <c r="F560" s="3"/>
-    </row>
-    <row r="561" spans="1:6">
+      <c r="D560" s="3"/>
+    </row>
+    <row r="561" spans="1:4">
       <c r="A561" t="s">
         <v>571</v>
       </c>
       <c r="B561" t="s">
         <v>666</v>
       </c>
-      <c r="F561" s="2"/>
-    </row>
-    <row r="562" spans="1:6">
+      <c r="D561" s="2"/>
+    </row>
+    <row r="562" spans="1:4">
       <c r="A562" t="s">
         <v>942</v>
       </c>
       <c r="B562" t="s">
         <v>986</v>
       </c>
-      <c r="F562" s="3"/>
-    </row>
-    <row r="563" spans="1:6">
+      <c r="D562" s="3"/>
+    </row>
+    <row r="563" spans="1:4">
       <c r="A563" t="s">
         <v>3030</v>
       </c>
       <c r="B563" s="39" t="s">
         <v>2972</v>
       </c>
-      <c r="F563" s="2"/>
-    </row>
-    <row r="564" spans="1:6">
+      <c r="D563" s="2"/>
+    </row>
+    <row r="564" spans="1:4">
       <c r="A564" t="s">
         <v>479</v>
       </c>
       <c r="B564" t="s">
         <v>970</v>
       </c>
-      <c r="F564" s="2"/>
-    </row>
-    <row r="565" spans="1:6">
+      <c r="D564" s="2"/>
+    </row>
+    <row r="565" spans="1:4">
       <c r="A565" t="s">
         <v>448</v>
       </c>
       <c r="B565" t="s">
         <v>449</v>
       </c>
-      <c r="F565" s="2"/>
-    </row>
-    <row r="566" spans="1:6">
+      <c r="D565" s="2"/>
+    </row>
+    <row r="566" spans="1:4">
       <c r="A566" t="s">
         <v>790</v>
       </c>
@@ -21989,7 +22328,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="567" spans="1:6">
+    <row r="567" spans="1:4">
       <c r="A567" s="9" t="s">
         <v>3031</v>
       </c>
@@ -21997,7 +22336,7 @@
         <v>688</v>
       </c>
     </row>
-    <row r="568" spans="1:6">
+    <row r="568" spans="1:4">
       <c r="A568" s="9" t="s">
         <v>689</v>
       </c>
@@ -22005,7 +22344,7 @@
         <v>688</v>
       </c>
     </row>
-    <row r="569" spans="1:6">
+    <row r="569" spans="1:4">
       <c r="A569" s="12" t="s">
         <v>417</v>
       </c>
@@ -22013,7 +22352,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="570" spans="1:6">
+    <row r="570" spans="1:4">
       <c r="A570" s="12" t="s">
         <v>3032</v>
       </c>
@@ -22021,7 +22360,7 @@
         <v>2973</v>
       </c>
     </row>
-    <row r="571" spans="1:6">
+    <row r="571" spans="1:4">
       <c r="A571" t="s">
         <v>476</v>
       </c>
@@ -22029,7 +22368,7 @@
         <v>597</v>
       </c>
     </row>
-    <row r="572" spans="1:6">
+    <row r="572" spans="1:4">
       <c r="A572" t="s">
         <v>609</v>
       </c>
@@ -22037,7 +22376,7 @@
         <v>611</v>
       </c>
     </row>
-    <row r="573" spans="1:6">
+    <row r="573" spans="1:4">
       <c r="A573" t="s">
         <v>485</v>
       </c>
@@ -22045,7 +22384,7 @@
         <v>612</v>
       </c>
     </row>
-    <row r="574" spans="1:6">
+    <row r="574" spans="1:4">
       <c r="A574" t="s">
         <v>610</v>
       </c>
@@ -22053,7 +22392,7 @@
         <v>611</v>
       </c>
     </row>
-    <row r="575" spans="1:6">
+    <row r="575" spans="1:4">
       <c r="A575" t="s">
         <v>545</v>
       </c>
@@ -22061,7 +22400,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="576" spans="1:6">
+    <row r="576" spans="1:4">
       <c r="A576" t="s">
         <v>805</v>
       </c>
@@ -22069,7 +22408,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="577" spans="1:4">
+    <row r="577" spans="1:3">
       <c r="A577" t="s">
         <v>944</v>
       </c>
@@ -22077,7 +22416,7 @@
         <v>988</v>
       </c>
     </row>
-    <row r="578" spans="1:4">
+    <row r="578" spans="1:3">
       <c r="A578" t="s">
         <v>84</v>
       </c>
@@ -22085,7 +22424,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="579" spans="1:4">
+    <row r="579" spans="1:3">
       <c r="A579" t="s">
         <v>527</v>
       </c>
@@ -22093,7 +22432,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="580" spans="1:4">
+    <row r="580" spans="1:3">
       <c r="A580" t="s">
         <v>2145</v>
       </c>
@@ -22101,7 +22440,7 @@
         <v>2604</v>
       </c>
     </row>
-    <row r="581" spans="1:4">
+    <row r="581" spans="1:3">
       <c r="A581" t="s">
         <v>507</v>
       </c>
@@ -22109,7 +22448,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="582" spans="1:4">
+    <row r="582" spans="1:3">
       <c r="A582" s="1" t="s">
         <v>307</v>
       </c>
@@ -22117,142 +22456,142 @@
         <v>317</v>
       </c>
     </row>
-    <row r="583" spans="1:4">
+    <row r="583" spans="1:3">
       <c r="A583" t="s">
         <v>504</v>
       </c>
       <c r="B583" t="s">
         <v>627</v>
       </c>
-      <c r="D583" s="3"/>
-    </row>
-    <row r="584" spans="1:4">
+      <c r="C583" s="3"/>
+    </row>
+    <row r="584" spans="1:3">
       <c r="A584" s="38" t="s">
         <v>2608</v>
       </c>
       <c r="B584" s="38" t="s">
         <v>2612</v>
       </c>
-      <c r="D584" s="2"/>
-    </row>
-    <row r="585" spans="1:4">
+      <c r="C584" s="2"/>
+    </row>
+    <row r="585" spans="1:3">
       <c r="A585" t="s">
         <v>2121</v>
       </c>
       <c r="B585" t="s">
         <v>2610</v>
       </c>
-      <c r="D585" s="3"/>
-    </row>
-    <row r="586" spans="1:4">
+      <c r="C585" s="3"/>
+    </row>
+    <row r="586" spans="1:3">
       <c r="A586" t="s">
         <v>2609</v>
       </c>
       <c r="B586" t="s">
         <v>923</v>
       </c>
-      <c r="D586" s="2"/>
-    </row>
-    <row r="587" spans="1:4">
+      <c r="C586" s="2"/>
+    </row>
+    <row r="587" spans="1:3">
       <c r="A587" t="s">
         <v>8</v>
       </c>
       <c r="B587" t="s">
         <v>9</v>
       </c>
-      <c r="D587" s="2"/>
-    </row>
-    <row r="588" spans="1:4">
+      <c r="C587" s="2"/>
+    </row>
+    <row r="588" spans="1:3">
       <c r="A588" t="s">
         <v>482</v>
       </c>
       <c r="B588" t="s">
         <v>605</v>
       </c>
-      <c r="D588" s="3"/>
-    </row>
-    <row r="589" spans="1:4">
+      <c r="C588" s="3"/>
+    </row>
+    <row r="589" spans="1:3">
       <c r="A589" t="s">
         <v>799</v>
       </c>
       <c r="B589" t="s">
         <v>874</v>
       </c>
-      <c r="D589" s="2"/>
-    </row>
-    <row r="590" spans="1:4">
+      <c r="C589" s="2"/>
+    </row>
+    <row r="590" spans="1:3">
       <c r="A590" s="38" t="s">
         <v>2613</v>
       </c>
       <c r="B590" t="s">
         <v>2614</v>
       </c>
-      <c r="D590" s="2"/>
-    </row>
-    <row r="591" spans="1:4">
+      <c r="C590" s="2"/>
+    </row>
+    <row r="591" spans="1:3">
       <c r="A591" t="s">
         <v>457</v>
       </c>
       <c r="B591" t="s">
         <v>458</v>
       </c>
-      <c r="D591" s="2"/>
-    </row>
-    <row r="592" spans="1:4">
+      <c r="C591" s="2"/>
+    </row>
+    <row r="592" spans="1:3">
       <c r="A592" t="s">
         <v>106</v>
       </c>
       <c r="B592" t="s">
         <v>107</v>
       </c>
-      <c r="D592" s="2"/>
-    </row>
-    <row r="593" spans="1:4">
+      <c r="C592" s="2"/>
+    </row>
+    <row r="593" spans="1:3">
       <c r="A593" t="s">
         <v>2615</v>
       </c>
       <c r="B593" t="s">
         <v>2616</v>
       </c>
-      <c r="D593" s="2"/>
-    </row>
-    <row r="594" spans="1:4">
+      <c r="C593" s="2"/>
+    </row>
+    <row r="594" spans="1:3">
       <c r="A594" t="s">
         <v>200</v>
       </c>
       <c r="B594" t="s">
         <v>201</v>
       </c>
-      <c r="D594" s="3"/>
-    </row>
-    <row r="595" spans="1:4">
+      <c r="C594" s="3"/>
+    </row>
+    <row r="595" spans="1:3">
       <c r="A595" t="s">
         <v>2617</v>
       </c>
       <c r="B595" t="s">
         <v>2711</v>
       </c>
-      <c r="D595" s="2"/>
-    </row>
-    <row r="596" spans="1:4">
+      <c r="C595" s="2"/>
+    </row>
+    <row r="596" spans="1:3">
       <c r="A596" s="38" t="s">
         <v>2376</v>
       </c>
       <c r="B596" s="38" t="s">
         <v>2377</v>
       </c>
-      <c r="D596" s="2"/>
-    </row>
-    <row r="597" spans="1:4">
+      <c r="C596" s="2"/>
+    </row>
+    <row r="597" spans="1:3">
       <c r="A597" t="s">
         <v>2378</v>
       </c>
       <c r="B597" t="s">
         <v>2379</v>
       </c>
-      <c r="D597" s="2"/>
-    </row>
-    <row r="598" spans="1:4">
+      <c r="C597" s="2"/>
+    </row>
+    <row r="598" spans="1:3">
       <c r="A598" s="1" t="s">
         <v>310</v>
       </c>
@@ -22260,1186 +22599,1186 @@
         <v>312</v>
       </c>
     </row>
-    <row r="599" spans="1:4">
+    <row r="599" spans="1:3">
       <c r="A599" t="s">
         <v>472</v>
       </c>
       <c r="B599" t="s">
         <v>601</v>
       </c>
-      <c r="D599" s="3"/>
-    </row>
-    <row r="600" spans="1:4">
+      <c r="C599" s="3"/>
+    </row>
+    <row r="600" spans="1:3">
       <c r="A600" t="s">
         <v>818</v>
       </c>
       <c r="B600" s="9" t="s">
         <v>914</v>
       </c>
-      <c r="D600" s="2"/>
-    </row>
-    <row r="601" spans="1:4">
+      <c r="C600" s="2"/>
+    </row>
+    <row r="601" spans="1:3">
       <c r="A601" t="s">
         <v>520</v>
       </c>
       <c r="B601" s="9" t="s">
         <v>680</v>
       </c>
-      <c r="D601" s="3"/>
-    </row>
-    <row r="602" spans="1:4">
+      <c r="C601" s="3"/>
+    </row>
+    <row r="602" spans="1:3">
       <c r="A602" t="s">
         <v>575</v>
       </c>
       <c r="B602" t="s">
         <v>667</v>
       </c>
-      <c r="D602" s="2"/>
-    </row>
-    <row r="603" spans="1:4">
+      <c r="C602" s="2"/>
+    </row>
+    <row r="603" spans="1:3">
       <c r="A603" t="s">
         <v>3033</v>
       </c>
       <c r="B603" t="s">
         <v>2974</v>
       </c>
-      <c r="D603" s="3"/>
-    </row>
-    <row r="604" spans="1:4">
+      <c r="C603" s="3"/>
+    </row>
+    <row r="604" spans="1:3">
       <c r="A604" t="s">
         <v>2712</v>
       </c>
       <c r="B604" s="38" t="s">
         <v>431</v>
       </c>
-      <c r="D604" s="3"/>
-    </row>
-    <row r="605" spans="1:4">
+      <c r="C604" s="3"/>
+    </row>
+    <row r="605" spans="1:3">
       <c r="A605" t="s">
         <v>2618</v>
       </c>
       <c r="B605" s="38" t="s">
         <v>222</v>
       </c>
-      <c r="D605" s="3"/>
-    </row>
-    <row r="606" spans="1:4">
+      <c r="C605" s="3"/>
+    </row>
+    <row r="606" spans="1:3">
       <c r="A606" t="s">
         <v>99</v>
       </c>
       <c r="B606" t="s">
         <v>100</v>
       </c>
-      <c r="D606" s="3"/>
-    </row>
-    <row r="607" spans="1:4">
+      <c r="C606" s="3"/>
+    </row>
+    <row r="607" spans="1:3">
       <c r="A607" t="s">
         <v>747</v>
       </c>
       <c r="B607" s="24" t="s">
         <v>1448</v>
       </c>
-      <c r="D607" s="2"/>
-    </row>
-    <row r="608" spans="1:4">
+      <c r="C607" s="2"/>
+    </row>
+    <row r="608" spans="1:3">
       <c r="A608" t="s">
         <v>165</v>
       </c>
       <c r="B608" t="s">
         <v>166</v>
       </c>
-      <c r="D608" s="2"/>
-    </row>
-    <row r="609" spans="1:4">
+      <c r="C608" s="2"/>
+    </row>
+    <row r="609" spans="1:3">
       <c r="A609" t="s">
         <v>14</v>
       </c>
       <c r="B609" t="s">
         <v>15</v>
       </c>
-      <c r="D609" s="3"/>
-    </row>
-    <row r="610" spans="1:4">
+      <c r="C609" s="3"/>
+    </row>
+    <row r="610" spans="1:3">
       <c r="A610" s="38" t="s">
         <v>1574</v>
       </c>
       <c r="B610" s="38" t="s">
         <v>2605</v>
       </c>
-      <c r="D610" s="3"/>
-    </row>
-    <row r="611" spans="1:4">
+      <c r="C610" s="3"/>
+    </row>
+    <row r="611" spans="1:3">
       <c r="A611" t="s">
         <v>463</v>
       </c>
       <c r="B611" t="s">
         <v>462</v>
       </c>
-      <c r="D611" s="3"/>
-    </row>
-    <row r="612" spans="1:4">
+      <c r="C611" s="3"/>
+    </row>
+    <row r="612" spans="1:3">
       <c r="A612" t="s">
         <v>122</v>
       </c>
       <c r="B612" t="s">
         <v>123</v>
       </c>
-      <c r="D612" s="2"/>
-    </row>
-    <row r="613" spans="1:4">
+      <c r="C612" s="2"/>
+    </row>
+    <row r="613" spans="1:3">
       <c r="A613" s="60" t="s">
         <v>18</v>
       </c>
       <c r="B613" t="s">
         <v>19</v>
       </c>
-      <c r="D613" s="2"/>
-    </row>
-    <row r="614" spans="1:4">
+      <c r="C613" s="2"/>
+    </row>
+    <row r="614" spans="1:3">
       <c r="A614" t="s">
         <v>758</v>
       </c>
       <c r="B614" s="9" t="s">
         <v>897</v>
       </c>
-      <c r="D614" s="3"/>
-    </row>
-    <row r="615" spans="1:4">
+      <c r="C614" s="3"/>
+    </row>
+    <row r="615" spans="1:3">
       <c r="A615" s="9" t="s">
         <v>535</v>
       </c>
       <c r="B615" s="9" t="s">
         <v>684</v>
       </c>
-      <c r="D615" s="3"/>
-    </row>
-    <row r="616" spans="1:4">
+      <c r="C615" s="3"/>
+    </row>
+    <row r="616" spans="1:3">
       <c r="A616" t="s">
         <v>141</v>
       </c>
       <c r="B616" t="s">
         <v>142</v>
       </c>
-      <c r="D616" s="3"/>
-    </row>
-    <row r="617" spans="1:4">
+      <c r="C616" s="3"/>
+    </row>
+    <row r="617" spans="1:3">
       <c r="A617" t="s">
         <v>340</v>
       </c>
       <c r="B617" s="5" t="s">
         <v>166</v>
       </c>
-      <c r="D617" s="3"/>
-    </row>
-    <row r="618" spans="1:4">
+      <c r="C617" s="3"/>
+    </row>
+    <row r="618" spans="1:3">
       <c r="A618" t="s">
         <v>491</v>
       </c>
       <c r="B618" t="s">
         <v>159</v>
       </c>
-      <c r="D618" s="3"/>
-    </row>
-    <row r="619" spans="1:4">
+      <c r="C618" s="3"/>
+    </row>
+    <row r="619" spans="1:3">
       <c r="A619" t="s">
         <v>594</v>
       </c>
       <c r="B619" s="9" t="s">
         <v>727</v>
       </c>
-      <c r="D619" s="3"/>
-    </row>
-    <row r="620" spans="1:4">
+      <c r="C619" s="3"/>
+    </row>
+    <row r="620" spans="1:3">
       <c r="A620" t="s">
         <v>484</v>
       </c>
       <c r="B620" t="s">
         <v>608</v>
       </c>
-      <c r="D620" s="3"/>
-    </row>
-    <row r="621" spans="1:4">
+      <c r="C620" s="3"/>
+    </row>
+    <row r="621" spans="1:3">
       <c r="A621" t="s">
         <v>213</v>
       </c>
       <c r="B621" t="s">
         <v>214</v>
       </c>
-      <c r="D621" s="3"/>
-    </row>
-    <row r="622" spans="1:4">
+      <c r="C621" s="3"/>
+    </row>
+    <row r="622" spans="1:3">
       <c r="A622" t="s">
         <v>358</v>
       </c>
       <c r="B622" s="5" t="s">
         <v>359</v>
       </c>
-      <c r="D622" s="3"/>
-    </row>
-    <row r="623" spans="1:4">
+      <c r="C622" s="3"/>
+    </row>
+    <row r="623" spans="1:3">
       <c r="A623" t="s">
         <v>430</v>
       </c>
       <c r="B623" t="s">
         <v>431</v>
       </c>
-      <c r="D623" s="2"/>
-    </row>
-    <row r="624" spans="1:4">
+      <c r="C623" s="2"/>
+    </row>
+    <row r="624" spans="1:3">
       <c r="A624" t="s">
         <v>540</v>
       </c>
       <c r="B624" s="9" t="s">
         <v>687</v>
       </c>
-      <c r="D624" s="2"/>
-    </row>
-    <row r="625" spans="1:4">
+      <c r="C624" s="2"/>
+    </row>
+    <row r="625" spans="1:3">
       <c r="A625" t="s">
         <v>52</v>
       </c>
       <c r="B625" t="s">
         <v>53</v>
       </c>
-      <c r="D625" s="3"/>
-    </row>
-    <row r="626" spans="1:4">
+      <c r="C625" s="3"/>
+    </row>
+    <row r="626" spans="1:3">
       <c r="A626" t="s">
         <v>518</v>
       </c>
       <c r="B626" t="s">
         <v>645</v>
       </c>
-      <c r="D626" s="3"/>
-    </row>
-    <row r="627" spans="1:4">
+      <c r="C626" s="3"/>
+    </row>
+    <row r="627" spans="1:3">
       <c r="A627" t="s">
         <v>959</v>
       </c>
       <c r="B627" t="s">
         <v>1005</v>
       </c>
-      <c r="D627" s="3"/>
-    </row>
-    <row r="628" spans="1:4">
+      <c r="C627" s="3"/>
+    </row>
+    <row r="628" spans="1:3">
       <c r="A628" s="5" t="s">
         <v>236</v>
       </c>
       <c r="B628" s="5" t="s">
         <v>385</v>
       </c>
-      <c r="D628" s="2"/>
-    </row>
-    <row r="629" spans="1:4">
+      <c r="C628" s="2"/>
+    </row>
+    <row r="629" spans="1:3">
       <c r="A629" t="s">
         <v>943</v>
       </c>
       <c r="B629" t="s">
         <v>987</v>
       </c>
-      <c r="D629" s="2"/>
-    </row>
-    <row r="630" spans="1:4">
+      <c r="C629" s="2"/>
+    </row>
+    <row r="630" spans="1:3">
       <c r="A630" t="s">
         <v>171</v>
       </c>
       <c r="B630" t="s">
         <v>172</v>
       </c>
-      <c r="D630" s="3"/>
-    </row>
-    <row r="631" spans="1:4">
+      <c r="C630" s="3"/>
+    </row>
+    <row r="631" spans="1:3">
       <c r="A631" s="4" t="s">
         <v>324</v>
       </c>
       <c r="B631" s="4" t="s">
         <v>170</v>
       </c>
-      <c r="D631" s="3"/>
-    </row>
-    <row r="632" spans="1:4">
+      <c r="C631" s="3"/>
+    </row>
+    <row r="632" spans="1:3">
       <c r="A632" s="12" t="s">
         <v>413</v>
       </c>
       <c r="B632" s="5" t="s">
         <v>388</v>
       </c>
-      <c r="D632" s="2"/>
-    </row>
-    <row r="633" spans="1:4">
+      <c r="C632" s="2"/>
+    </row>
+    <row r="633" spans="1:3">
       <c r="A633" t="s">
         <v>817</v>
       </c>
       <c r="B633" s="24" t="s">
         <v>1449</v>
       </c>
-      <c r="D633" s="3"/>
-    </row>
-    <row r="634" spans="1:4">
+      <c r="C633" s="3"/>
+    </row>
+    <row r="634" spans="1:3">
       <c r="A634" t="s">
         <v>561</v>
       </c>
       <c r="B634" t="s">
         <v>663</v>
       </c>
-      <c r="D634" s="2"/>
-    </row>
-    <row r="635" spans="1:4">
+      <c r="C634" s="2"/>
+    </row>
+    <row r="635" spans="1:3">
       <c r="A635" t="s">
         <v>241</v>
       </c>
       <c r="B635" t="s">
         <v>242</v>
       </c>
-      <c r="D635" s="2"/>
-    </row>
-    <row r="636" spans="1:4">
+      <c r="C635" s="2"/>
+    </row>
+    <row r="636" spans="1:3">
       <c r="A636" t="s">
         <v>574</v>
       </c>
       <c r="B636" t="s">
         <v>1545</v>
       </c>
-      <c r="D636" s="3"/>
-    </row>
-    <row r="637" spans="1:4">
+      <c r="C636" s="3"/>
+    </row>
+    <row r="637" spans="1:3">
       <c r="A637" t="s">
         <v>592</v>
       </c>
       <c r="B637" s="9" t="s">
         <v>1545</v>
       </c>
-      <c r="D637" s="2"/>
-    </row>
-    <row r="638" spans="1:4">
+      <c r="C637" s="2"/>
+    </row>
+    <row r="638" spans="1:3">
       <c r="A638" t="s">
         <v>506</v>
       </c>
       <c r="B638" t="s">
         <v>1545</v>
       </c>
-      <c r="D638" s="2"/>
-    </row>
-    <row r="639" spans="1:4">
+      <c r="C638" s="2"/>
+    </row>
+    <row r="639" spans="1:3">
       <c r="A639" t="s">
         <v>530</v>
       </c>
       <c r="B639" s="9" t="s">
         <v>121</v>
       </c>
-      <c r="D639" s="3"/>
-    </row>
-    <row r="640" spans="1:4">
+      <c r="C639" s="3"/>
+    </row>
+    <row r="640" spans="1:3">
       <c r="A640" t="s">
         <v>40</v>
       </c>
       <c r="B640" t="s">
         <v>41</v>
       </c>
-      <c r="D640" s="3"/>
-    </row>
-    <row r="641" spans="1:4">
+      <c r="C640" s="3"/>
+    </row>
+    <row r="641" spans="1:3">
       <c r="A641" t="s">
         <v>982</v>
       </c>
       <c r="B641" t="s">
         <v>864</v>
       </c>
-      <c r="D641" s="2"/>
-    </row>
-    <row r="642" spans="1:4">
+      <c r="C641" s="2"/>
+    </row>
+    <row r="642" spans="1:3">
       <c r="A642" t="s">
         <v>2606</v>
       </c>
       <c r="B642" t="s">
         <v>2607</v>
       </c>
-      <c r="D642" s="3"/>
-    </row>
-    <row r="643" spans="1:4">
+      <c r="C642" s="3"/>
+    </row>
+    <row r="643" spans="1:3">
       <c r="A643" t="s">
         <v>3034</v>
       </c>
       <c r="B643" t="s">
         <v>2975</v>
       </c>
-      <c r="D643" s="3"/>
-    </row>
-    <row r="644" spans="1:4">
+      <c r="C643" s="3"/>
+    </row>
+    <row r="644" spans="1:3">
       <c r="A644" t="s">
         <v>294</v>
       </c>
       <c r="B644" t="s">
         <v>295</v>
       </c>
-      <c r="D644" s="3"/>
-    </row>
-    <row r="645" spans="1:4">
+      <c r="C644" s="3"/>
+    </row>
+    <row r="645" spans="1:3">
       <c r="A645" t="s">
         <v>2146</v>
       </c>
       <c r="B645" t="s">
         <v>2380</v>
       </c>
-      <c r="D645" s="3"/>
-    </row>
-    <row r="646" spans="1:4">
+      <c r="C645" s="3"/>
+    </row>
+    <row r="646" spans="1:3">
       <c r="A646" t="s">
         <v>502</v>
       </c>
       <c r="B646" s="9" t="s">
         <v>638</v>
       </c>
-      <c r="D646" s="2"/>
-    </row>
-    <row r="647" spans="1:4">
+      <c r="C646" s="2"/>
+    </row>
+    <row r="647" spans="1:3">
       <c r="A647" t="s">
         <v>780</v>
       </c>
       <c r="B647" t="s">
         <v>168</v>
       </c>
-      <c r="D647" s="3"/>
-    </row>
-    <row r="648" spans="1:4">
+      <c r="C647" s="3"/>
+    </row>
+    <row r="648" spans="1:3">
       <c r="A648" t="s">
         <v>284</v>
       </c>
       <c r="B648" t="s">
         <v>285</v>
       </c>
-      <c r="D648" s="2"/>
-    </row>
-    <row r="649" spans="1:4">
+      <c r="C648" s="2"/>
+    </row>
+    <row r="649" spans="1:3">
       <c r="A649" t="s">
         <v>753</v>
       </c>
       <c r="B649" t="s">
         <v>2713</v>
       </c>
-      <c r="D649" s="2"/>
-    </row>
-    <row r="650" spans="1:4">
+      <c r="C649" s="2"/>
+    </row>
+    <row r="650" spans="1:3">
       <c r="A650" t="s">
         <v>757</v>
       </c>
       <c r="B650" s="9" t="s">
         <v>896</v>
       </c>
-      <c r="D650" s="3"/>
-    </row>
-    <row r="651" spans="1:4">
+      <c r="C650" s="3"/>
+    </row>
+    <row r="651" spans="1:3">
       <c r="A651" t="s">
         <v>42</v>
       </c>
       <c r="B651" t="s">
         <v>43</v>
       </c>
-      <c r="D651" s="3"/>
-    </row>
-    <row r="652" spans="1:4">
+      <c r="C651" s="3"/>
+    </row>
+    <row r="652" spans="1:3">
       <c r="A652" s="38" t="s">
         <v>2714</v>
       </c>
       <c r="B652" s="38" t="s">
         <v>2715</v>
       </c>
-      <c r="D652" s="3"/>
-    </row>
-    <row r="653" spans="1:4">
+      <c r="C652" s="3"/>
+    </row>
+    <row r="653" spans="1:3">
       <c r="A653" t="s">
         <v>2716</v>
       </c>
       <c r="B653" t="s">
         <v>2717</v>
       </c>
-      <c r="D653" s="3"/>
-    </row>
-    <row r="654" spans="1:4">
+      <c r="C653" s="3"/>
+    </row>
+    <row r="654" spans="1:3">
       <c r="A654" t="s">
         <v>2718</v>
       </c>
       <c r="B654" t="s">
         <v>2720</v>
       </c>
-      <c r="D654" s="2"/>
-    </row>
-    <row r="655" spans="1:4">
+      <c r="C654" s="2"/>
+    </row>
+    <row r="655" spans="1:3">
       <c r="A655" t="s">
         <v>2719</v>
       </c>
       <c r="B655" t="s">
         <v>2721</v>
       </c>
-      <c r="D655" s="3"/>
-    </row>
-    <row r="656" spans="1:4">
+      <c r="C655" s="3"/>
+    </row>
+    <row r="656" spans="1:3">
       <c r="A656" t="s">
         <v>796</v>
       </c>
       <c r="B656" t="s">
         <v>871</v>
       </c>
-      <c r="D656" s="2"/>
-    </row>
-    <row r="657" spans="1:4">
+      <c r="C656" s="2"/>
+    </row>
+    <row r="657" spans="1:3">
       <c r="A657" t="s">
         <v>801</v>
       </c>
       <c r="B657" t="s">
         <v>871</v>
       </c>
-      <c r="D657" s="3"/>
-    </row>
-    <row r="658" spans="1:4">
+      <c r="C657" s="3"/>
+    </row>
+    <row r="658" spans="1:3">
       <c r="A658" s="38" t="s">
         <v>2722</v>
       </c>
       <c r="B658" s="38" t="s">
         <v>43</v>
       </c>
-      <c r="D658" s="2"/>
-    </row>
-    <row r="659" spans="1:4">
+      <c r="C658" s="2"/>
+    </row>
+    <row r="659" spans="1:3">
       <c r="A659" t="s">
         <v>2723</v>
       </c>
       <c r="B659" t="s">
         <v>2724</v>
       </c>
-      <c r="D659" s="3"/>
-    </row>
-    <row r="660" spans="1:4">
+      <c r="C659" s="3"/>
+    </row>
+    <row r="660" spans="1:3">
       <c r="A660" t="s">
         <v>792</v>
       </c>
       <c r="B660" s="9" t="s">
         <v>907</v>
       </c>
-      <c r="D660" s="3"/>
-    </row>
-    <row r="661" spans="1:4">
+      <c r="C660" s="3"/>
+    </row>
+    <row r="661" spans="1:3">
       <c r="A661" t="s">
         <v>825</v>
       </c>
       <c r="B661" t="s">
         <v>844</v>
       </c>
-      <c r="D661" s="2"/>
-    </row>
-    <row r="662" spans="1:4">
+      <c r="C661" s="2"/>
+    </row>
+    <row r="662" spans="1:3">
       <c r="A662" t="s">
         <v>192</v>
       </c>
       <c r="B662" t="s">
         <v>187</v>
       </c>
-      <c r="D662" s="2"/>
-    </row>
-    <row r="663" spans="1:4">
+      <c r="C662" s="2"/>
+    </row>
+    <row r="663" spans="1:3">
       <c r="A663" t="s">
         <v>764</v>
       </c>
       <c r="B663" t="s">
         <v>395</v>
       </c>
-      <c r="D663" s="3"/>
-    </row>
-    <row r="664" spans="1:4">
+      <c r="C663" s="3"/>
+    </row>
+    <row r="664" spans="1:3">
       <c r="A664" t="s">
         <v>2147</v>
       </c>
       <c r="B664" t="s">
         <v>705</v>
       </c>
-      <c r="D664" s="3"/>
-    </row>
-    <row r="665" spans="1:4">
+      <c r="C664" s="3"/>
+    </row>
+    <row r="665" spans="1:3">
       <c r="A665" s="9" t="s">
         <v>768</v>
       </c>
       <c r="B665" s="9" t="s">
         <v>902</v>
       </c>
-      <c r="D665" s="2"/>
-    </row>
-    <row r="666" spans="1:4">
+      <c r="C665" s="2"/>
+    </row>
+    <row r="666" spans="1:3">
       <c r="A666" t="s">
         <v>186</v>
       </c>
       <c r="B666" t="s">
         <v>187</v>
       </c>
-      <c r="D666" s="2"/>
-    </row>
-    <row r="667" spans="1:4">
+      <c r="C666" s="2"/>
+    </row>
+    <row r="667" spans="1:3">
       <c r="A667" t="s">
         <v>566</v>
       </c>
       <c r="B667" s="9" t="s">
         <v>705</v>
       </c>
-      <c r="D667" s="2"/>
-    </row>
-    <row r="668" spans="1:4">
+      <c r="C667" s="2"/>
+    </row>
+    <row r="668" spans="1:3">
       <c r="A668" t="s">
         <v>338</v>
       </c>
       <c r="B668" s="5" t="s">
         <v>339</v>
       </c>
-      <c r="D668" s="2"/>
-    </row>
-    <row r="669" spans="1:4">
+      <c r="C668" s="2"/>
+    </row>
+    <row r="669" spans="1:3">
       <c r="A669" t="s">
         <v>193</v>
       </c>
       <c r="B669" t="s">
         <v>194</v>
       </c>
-      <c r="D669" s="3"/>
-    </row>
-    <row r="670" spans="1:4">
+      <c r="C669" s="3"/>
+    </row>
+    <row r="670" spans="1:3">
       <c r="A670" s="9" t="s">
         <v>690</v>
       </c>
       <c r="B670" s="9" t="s">
         <v>691</v>
       </c>
-      <c r="D670" s="3"/>
-    </row>
-    <row r="671" spans="1:4">
+      <c r="C670" s="3"/>
+    </row>
+    <row r="671" spans="1:3">
       <c r="A671" t="s">
         <v>2725</v>
       </c>
       <c r="B671" s="38" t="s">
         <v>2726</v>
       </c>
-      <c r="D671" s="2"/>
-    </row>
-    <row r="672" spans="1:4">
+      <c r="C671" s="2"/>
+    </row>
+    <row r="672" spans="1:3">
       <c r="A672" t="s">
         <v>554</v>
       </c>
       <c r="B672" t="s">
         <v>659</v>
       </c>
-      <c r="D672" s="2"/>
-    </row>
-    <row r="673" spans="1:4">
+      <c r="C672" s="2"/>
+    </row>
+    <row r="673" spans="1:3">
       <c r="A673" t="s">
         <v>2727</v>
       </c>
       <c r="B673" s="38" t="s">
         <v>2728</v>
       </c>
-      <c r="D673" s="2"/>
-    </row>
-    <row r="674" spans="1:4">
+      <c r="C673" s="2"/>
+    </row>
+    <row r="674" spans="1:3">
       <c r="A674" t="s">
         <v>761</v>
       </c>
       <c r="B674" t="s">
         <v>850</v>
       </c>
-      <c r="D674" s="3"/>
-    </row>
-    <row r="675" spans="1:4">
+      <c r="C674" s="3"/>
+    </row>
+    <row r="675" spans="1:3">
       <c r="A675" t="s">
         <v>977</v>
       </c>
       <c r="B675" t="s">
         <v>978</v>
       </c>
-      <c r="D675" s="2"/>
-    </row>
-    <row r="676" spans="1:4">
+      <c r="C675" s="2"/>
+    </row>
+    <row r="676" spans="1:3">
       <c r="A676" t="s">
         <v>2062</v>
       </c>
       <c r="B676" t="s">
         <v>2063</v>
       </c>
-      <c r="D676" s="2"/>
-    </row>
-    <row r="677" spans="1:4">
+      <c r="C676" s="2"/>
+    </row>
+    <row r="677" spans="1:3">
       <c r="A677" t="s">
         <v>434</v>
       </c>
       <c r="B677" t="s">
         <v>361</v>
       </c>
-      <c r="D677" s="2"/>
-    </row>
-    <row r="678" spans="1:4">
+      <c r="C677" s="2"/>
+    </row>
+    <row r="678" spans="1:3">
       <c r="A678" s="5" t="s">
         <v>360</v>
       </c>
       <c r="B678" s="5" t="s">
         <v>361</v>
       </c>
-      <c r="D678" s="2"/>
-    </row>
-    <row r="679" spans="1:4">
+      <c r="C678" s="2"/>
+    </row>
+    <row r="679" spans="1:3">
       <c r="A679" s="9" t="s">
         <v>726</v>
       </c>
       <c r="B679" s="9" t="s">
         <v>725</v>
       </c>
-      <c r="D679" s="3"/>
-    </row>
-    <row r="680" spans="1:4">
+      <c r="C679" s="3"/>
+    </row>
+    <row r="680" spans="1:3">
       <c r="A680" t="s">
         <v>61</v>
       </c>
       <c r="B680" t="s">
         <v>62</v>
       </c>
-      <c r="D680" s="2"/>
-    </row>
-    <row r="681" spans="1:4">
+      <c r="C680" s="2"/>
+    </row>
+    <row r="681" spans="1:3">
       <c r="A681" t="s">
         <v>331</v>
       </c>
       <c r="B681" s="5" t="s">
         <v>332</v>
       </c>
-      <c r="D681" s="3"/>
-    </row>
-    <row r="682" spans="1:4">
+      <c r="C681" s="3"/>
+    </row>
+    <row r="682" spans="1:3">
       <c r="A682" t="s">
         <v>151</v>
       </c>
       <c r="B682" t="s">
         <v>152</v>
       </c>
-      <c r="D682" s="3"/>
-    </row>
-    <row r="683" spans="1:4">
+      <c r="C682" s="3"/>
+    </row>
+    <row r="683" spans="1:3">
       <c r="A683" t="s">
         <v>292</v>
       </c>
       <c r="B683" t="s">
         <v>293</v>
       </c>
-      <c r="D683" s="3"/>
-    </row>
-    <row r="684" spans="1:4">
+      <c r="C683" s="3"/>
+    </row>
+    <row r="684" spans="1:3">
       <c r="A684" t="s">
         <v>789</v>
       </c>
       <c r="B684" t="s">
         <v>869</v>
       </c>
-      <c r="D684" s="3"/>
-    </row>
-    <row r="685" spans="1:4">
+      <c r="C684" s="3"/>
+    </row>
+    <row r="685" spans="1:3">
       <c r="A685" t="s">
         <v>738</v>
       </c>
       <c r="B685" t="s">
         <v>837</v>
       </c>
-      <c r="D685" s="2"/>
-    </row>
-    <row r="686" spans="1:4">
+      <c r="C685" s="2"/>
+    </row>
+    <row r="686" spans="1:3">
       <c r="A686" s="12" t="s">
         <v>2729</v>
       </c>
       <c r="B686" s="38" t="s">
         <v>2730</v>
       </c>
-      <c r="D686" s="3"/>
-    </row>
-    <row r="687" spans="1:4">
+      <c r="C686" s="3"/>
+    </row>
+    <row r="687" spans="1:3">
       <c r="A687" t="s">
         <v>250</v>
       </c>
       <c r="B687" t="s">
         <v>251</v>
       </c>
-      <c r="D687" s="3"/>
-    </row>
-    <row r="688" spans="1:4">
+      <c r="C687" s="3"/>
+    </row>
+    <row r="688" spans="1:3">
       <c r="A688" s="9" t="s">
         <v>581</v>
       </c>
       <c r="B688" s="9" t="s">
         <v>716</v>
       </c>
-      <c r="D688" s="3"/>
-    </row>
-    <row r="689" spans="1:4">
+      <c r="C688" s="3"/>
+    </row>
+    <row r="689" spans="1:3">
       <c r="A689" s="1" t="s">
         <v>305</v>
       </c>
       <c r="B689" s="9" t="s">
         <v>718</v>
       </c>
-      <c r="D689" s="3"/>
-    </row>
-    <row r="690" spans="1:4">
+      <c r="C689" s="3"/>
+    </row>
+    <row r="690" spans="1:3">
       <c r="A690" t="s">
         <v>526</v>
       </c>
       <c r="B690" t="s">
         <v>631</v>
       </c>
-      <c r="D690" s="3"/>
-    </row>
-    <row r="691" spans="1:4">
+      <c r="C690" s="3"/>
+    </row>
+    <row r="691" spans="1:3">
       <c r="A691" t="s">
         <v>494</v>
       </c>
       <c r="B691" t="s">
         <v>622</v>
       </c>
-      <c r="D691" s="2"/>
-    </row>
-    <row r="692" spans="1:4">
+      <c r="C691" s="2"/>
+    </row>
+    <row r="692" spans="1:3">
       <c r="A692" t="s">
         <v>489</v>
       </c>
       <c r="B692" t="s">
         <v>616</v>
       </c>
-      <c r="D692" s="2"/>
-    </row>
-    <row r="693" spans="1:4">
+      <c r="C692" s="2"/>
+    </row>
+    <row r="693" spans="1:3">
       <c r="A693" t="s">
         <v>158</v>
       </c>
       <c r="B693" t="s">
         <v>159</v>
       </c>
-      <c r="D693" s="2"/>
-    </row>
-    <row r="694" spans="1:4">
+      <c r="C693" s="2"/>
+    </row>
+    <row r="694" spans="1:3">
       <c r="A694" t="s">
         <v>477</v>
       </c>
       <c r="B694" t="s">
         <v>159</v>
       </c>
-      <c r="D694" s="2"/>
-    </row>
-    <row r="695" spans="1:4">
+      <c r="C694" s="2"/>
+    </row>
+    <row r="695" spans="1:3">
       <c r="A695" t="s">
         <v>517</v>
       </c>
       <c r="B695" s="9" t="s">
         <v>692</v>
       </c>
-      <c r="D695" s="2"/>
-    </row>
-    <row r="696" spans="1:4">
+      <c r="C695" s="2"/>
+    </row>
+    <row r="696" spans="1:3">
       <c r="A696" t="s">
         <v>559</v>
       </c>
       <c r="B696" t="s">
         <v>661</v>
       </c>
-      <c r="D696" s="3"/>
-    </row>
-    <row r="697" spans="1:4">
+      <c r="C696" s="3"/>
+    </row>
+    <row r="697" spans="1:3">
       <c r="A697" t="s">
         <v>536</v>
       </c>
       <c r="B697" s="9" t="s">
         <v>685</v>
       </c>
-      <c r="D697" s="2"/>
-    </row>
-    <row r="698" spans="1:4">
+      <c r="C697" s="2"/>
+    </row>
+    <row r="698" spans="1:3">
       <c r="A698" t="s">
         <v>955</v>
       </c>
       <c r="B698" t="s">
         <v>1002</v>
       </c>
-      <c r="D698" s="2"/>
-    </row>
-    <row r="699" spans="1:4">
+      <c r="C698" s="2"/>
+    </row>
+    <row r="699" spans="1:3">
       <c r="A699" s="12" t="s">
         <v>414</v>
       </c>
       <c r="B699" s="5" t="s">
         <v>382</v>
       </c>
-      <c r="D699" s="2"/>
-    </row>
-    <row r="700" spans="1:4">
+      <c r="C699" s="2"/>
+    </row>
+    <row r="700" spans="1:3">
       <c r="A700" t="s">
         <v>2089</v>
       </c>
       <c r="B700" t="s">
         <v>89</v>
       </c>
-      <c r="D700" s="3"/>
-    </row>
-    <row r="701" spans="1:4">
+      <c r="C700" s="3"/>
+    </row>
+    <row r="701" spans="1:3">
       <c r="A701" t="s">
         <v>572</v>
       </c>
       <c r="B701" s="9" t="s">
         <v>708</v>
       </c>
-      <c r="D701" s="2"/>
-    </row>
-    <row r="702" spans="1:4">
+      <c r="C701" s="2"/>
+    </row>
+    <row r="702" spans="1:3">
       <c r="A702" t="s">
         <v>505</v>
       </c>
       <c r="B702" t="s">
         <v>639</v>
       </c>
-      <c r="D702" s="2"/>
-    </row>
-    <row r="703" spans="1:4">
+      <c r="C702" s="2"/>
+    </row>
+    <row r="703" spans="1:3">
       <c r="A703" t="s">
         <v>2731</v>
       </c>
       <c r="B703" t="s">
         <v>1402</v>
       </c>
-      <c r="D703" s="3"/>
-    </row>
-    <row r="704" spans="1:4">
+      <c r="C703" s="3"/>
+    </row>
+    <row r="704" spans="1:3">
       <c r="A704" t="s">
         <v>746</v>
       </c>
       <c r="B704" t="s">
         <v>852</v>
       </c>
-      <c r="D704" s="3"/>
-    </row>
-    <row r="705" spans="1:4">
+      <c r="C704" s="3"/>
+    </row>
+    <row r="705" spans="1:3">
       <c r="A705" s="1" t="s">
         <v>302</v>
       </c>
       <c r="B705" s="1" t="s">
         <v>315</v>
       </c>
-      <c r="D705" s="2"/>
-    </row>
-    <row r="706" spans="1:4">
+      <c r="C705" s="2"/>
+    </row>
+    <row r="706" spans="1:3">
       <c r="A706" t="s">
         <v>590</v>
       </c>
       <c r="B706" t="s">
         <v>673</v>
       </c>
-      <c r="D706" s="2"/>
-    </row>
-    <row r="707" spans="1:4">
+      <c r="C706" s="2"/>
+    </row>
+    <row r="707" spans="1:3">
       <c r="A707" t="s">
         <v>740</v>
       </c>
       <c r="B707" s="9" t="s">
         <v>892</v>
       </c>
-      <c r="D707" s="3"/>
-    </row>
-    <row r="708" spans="1:4">
+      <c r="C707" s="3"/>
+    </row>
+    <row r="708" spans="1:3">
       <c r="A708" t="s">
         <v>788</v>
       </c>
       <c r="B708" t="s">
         <v>868</v>
       </c>
-      <c r="D708" s="3"/>
-    </row>
-    <row r="709" spans="1:4">
+      <c r="C708" s="3"/>
+    </row>
+    <row r="709" spans="1:3">
       <c r="A709" t="s">
         <v>3035</v>
       </c>
       <c r="B709" s="39" t="s">
         <v>2976</v>
       </c>
-      <c r="D709" s="3"/>
-    </row>
-    <row r="710" spans="1:4">
+      <c r="C709" s="3"/>
+    </row>
+    <row r="710" spans="1:3">
       <c r="A710" s="38" t="s">
         <v>3036</v>
       </c>
       <c r="B710" s="39" t="s">
         <v>2976</v>
       </c>
-      <c r="D710" s="3"/>
-    </row>
-    <row r="711" spans="1:4">
+      <c r="C710" s="3"/>
+    </row>
+    <row r="711" spans="1:3">
       <c r="A711" t="s">
         <v>85</v>
       </c>
       <c r="B711" t="s">
         <v>140</v>
       </c>
-      <c r="D711" s="2"/>
-    </row>
-    <row r="712" spans="1:4">
+      <c r="C711" s="2"/>
+    </row>
+    <row r="712" spans="1:3">
       <c r="A712" t="s">
         <v>493</v>
       </c>
       <c r="B712" t="s">
         <v>621</v>
       </c>
-      <c r="D712" s="2"/>
-    </row>
-    <row r="713" spans="1:4">
+      <c r="C712" s="2"/>
+    </row>
+    <row r="713" spans="1:3">
       <c r="A713" t="s">
         <v>521</v>
       </c>
       <c r="B713" t="s">
         <v>961</v>
       </c>
-      <c r="D713" s="2"/>
-    </row>
-    <row r="714" spans="1:4">
+      <c r="C713" s="2"/>
+    </row>
+    <row r="714" spans="1:3">
       <c r="A714" t="s">
         <v>533</v>
       </c>
       <c r="B714" s="9" t="s">
         <v>682</v>
       </c>
-      <c r="D714" s="2"/>
-    </row>
-    <row r="715" spans="1:4">
+      <c r="C714" s="2"/>
+    </row>
+    <row r="715" spans="1:3">
       <c r="A715" s="16" t="s">
         <v>125</v>
       </c>
       <c r="B715" t="s">
         <v>126</v>
       </c>
-      <c r="D715" s="3"/>
-    </row>
-    <row r="716" spans="1:4">
+      <c r="C715" s="3"/>
+    </row>
+    <row r="716" spans="1:3">
       <c r="A716" t="s">
         <v>288</v>
       </c>
       <c r="B716" t="s">
         <v>247</v>
       </c>
-      <c r="D716" s="2"/>
-    </row>
-    <row r="717" spans="1:4">
+      <c r="C716" s="2"/>
+    </row>
+    <row r="717" spans="1:3">
       <c r="A717" t="s">
         <v>2890</v>
       </c>
       <c r="B717" t="s">
         <v>247</v>
       </c>
-      <c r="D717" s="2"/>
-    </row>
-    <row r="718" spans="1:4">
+      <c r="C717" s="2"/>
+    </row>
+    <row r="718" spans="1:3">
       <c r="A718" s="38" t="s">
         <v>3037</v>
       </c>
       <c r="B718" s="38" t="s">
         <v>247</v>
       </c>
-      <c r="D718" s="2"/>
-    </row>
-    <row r="719" spans="1:4">
+      <c r="C718" s="2"/>
+    </row>
+    <row r="719" spans="1:3">
       <c r="A719" t="s">
         <v>218</v>
       </c>
       <c r="B719" t="s">
         <v>219</v>
       </c>
-      <c r="D719" s="2"/>
-    </row>
-    <row r="720" spans="1:4">
+      <c r="C719" s="2"/>
+    </row>
+    <row r="720" spans="1:3">
       <c r="A720" t="s">
         <v>2148</v>
       </c>
       <c r="B720" s="38" t="s">
         <v>2732</v>
       </c>
-      <c r="D720" s="2"/>
-    </row>
-    <row r="721" spans="1:4">
+      <c r="C720" s="2"/>
+    </row>
+    <row r="721" spans="1:3">
       <c r="A721" t="s">
         <v>823</v>
       </c>
       <c r="B721" s="9" t="s">
         <v>917</v>
       </c>
-      <c r="D721" s="3"/>
-    </row>
-    <row r="722" spans="1:4">
+      <c r="C721" s="3"/>
+    </row>
+    <row r="722" spans="1:3">
       <c r="A722" t="s">
         <v>2734</v>
       </c>
       <c r="B722" s="38" t="s">
         <v>1223</v>
       </c>
-      <c r="D722" s="2"/>
-    </row>
-    <row r="723" spans="1:4">
+      <c r="C722" s="2"/>
+    </row>
+    <row r="723" spans="1:3">
       <c r="A723" t="s">
         <v>2733</v>
       </c>
       <c r="B723" s="38" t="s">
         <v>2735</v>
       </c>
-      <c r="D723" s="2"/>
-    </row>
-    <row r="724" spans="1:4">
+      <c r="C723" s="2"/>
+    </row>
+    <row r="724" spans="1:3">
       <c r="A724" t="s">
         <v>951</v>
       </c>
       <c r="B724" t="s">
         <v>993</v>
       </c>
-      <c r="D724" s="2"/>
-    </row>
-    <row r="725" spans="1:4">
+      <c r="C724" s="2"/>
+    </row>
+    <row r="725" spans="1:3">
       <c r="A725" t="s">
         <v>296</v>
       </c>
       <c r="B725" t="s">
         <v>297</v>
       </c>
-      <c r="D725" s="2"/>
-    </row>
-    <row r="726" spans="1:4">
+      <c r="C725" s="2"/>
+    </row>
+    <row r="726" spans="1:3">
       <c r="A726" t="s">
         <v>2635</v>
       </c>
       <c r="B726" t="s">
         <v>2636</v>
       </c>
-      <c r="D726" s="3"/>
-    </row>
-    <row r="727" spans="1:4">
+      <c r="C726" s="3"/>
+    </row>
+    <row r="727" spans="1:3">
       <c r="A727" t="s">
         <v>2736</v>
       </c>
       <c r="B727" t="s">
         <v>2737</v>
       </c>
-      <c r="D727" s="2"/>
-    </row>
-    <row r="728" spans="1:4">
+      <c r="C727" s="2"/>
+    </row>
+    <row r="728" spans="1:3">
       <c r="A728" t="s">
         <v>814</v>
       </c>
       <c r="B728" t="s">
         <v>881</v>
       </c>
-      <c r="D728" s="2"/>
-    </row>
-    <row r="729" spans="1:4">
+      <c r="C728" s="2"/>
+    </row>
+    <row r="729" spans="1:3">
       <c r="A729" s="38" t="s">
         <v>2738</v>
       </c>
       <c r="B729" t="s">
         <v>2739</v>
       </c>
-      <c r="D729" s="2"/>
-    </row>
-    <row r="730" spans="1:4">
+      <c r="C729" s="2"/>
+    </row>
+    <row r="730" spans="1:3">
       <c r="A730" t="s">
         <v>546</v>
       </c>
@@ -23447,7 +23786,7 @@
         <v>656</v>
       </c>
     </row>
-    <row r="731" spans="1:4">
+    <row r="731" spans="1:3">
       <c r="A731" t="s">
         <v>543</v>
       </c>
@@ -23455,7 +23794,7 @@
         <v>654</v>
       </c>
     </row>
-    <row r="732" spans="1:4">
+    <row r="732" spans="1:3">
       <c r="A732" t="s">
         <v>930</v>
       </c>
@@ -23463,7 +23802,7 @@
         <v>967</v>
       </c>
     </row>
-    <row r="733" spans="1:4">
+    <row r="733" spans="1:3">
       <c r="A733" t="s">
         <v>560</v>
       </c>
@@ -23471,7 +23810,7 @@
         <v>662</v>
       </c>
     </row>
-    <row r="734" spans="1:4">
+    <row r="734" spans="1:3">
       <c r="A734" t="s">
         <v>2740</v>
       </c>
@@ -23479,7 +23818,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="735" spans="1:4">
+    <row r="735" spans="1:3">
       <c r="A735" t="s">
         <v>794</v>
       </c>
@@ -23487,7 +23826,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="736" spans="1:4">
+    <row r="736" spans="1:3">
       <c r="A736" t="s">
         <v>617</v>
       </c>
@@ -24135,7 +24474,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="817" spans="1:4">
+    <row r="817" spans="1:3">
       <c r="A817" t="s">
         <v>1090</v>
       </c>
@@ -24143,7 +24482,7 @@
         <v>1453</v>
       </c>
     </row>
-    <row r="818" spans="1:4">
+    <row r="818" spans="1:3">
       <c r="A818" t="s">
         <v>2093</v>
       </c>
@@ -24151,7 +24490,7 @@
         <v>2764</v>
       </c>
     </row>
-    <row r="819" spans="1:4">
+    <row r="819" spans="1:3">
       <c r="A819" t="s">
         <v>1776</v>
       </c>
@@ -24159,7 +24498,7 @@
         <v>1781</v>
       </c>
     </row>
-    <row r="820" spans="1:4">
+    <row r="820" spans="1:3">
       <c r="A820" t="s">
         <v>3041</v>
       </c>
@@ -24167,7 +24506,7 @@
         <v>1122</v>
       </c>
     </row>
-    <row r="821" spans="1:4">
+    <row r="821" spans="1:3">
       <c r="A821" t="s">
         <v>2151</v>
       </c>
@@ -24175,7 +24514,7 @@
         <v>2639</v>
       </c>
     </row>
-    <row r="822" spans="1:4">
+    <row r="822" spans="1:3">
       <c r="A822" t="s">
         <v>1091</v>
       </c>
@@ -24183,7 +24522,7 @@
         <v>1123</v>
       </c>
     </row>
-    <row r="823" spans="1:4">
+    <row r="823" spans="1:3">
       <c r="A823" t="s">
         <v>1092</v>
       </c>
@@ -24191,7 +24530,7 @@
         <v>1124</v>
       </c>
     </row>
-    <row r="824" spans="1:4">
+    <row r="824" spans="1:3">
       <c r="A824" t="s">
         <v>3042</v>
       </c>
@@ -24199,7 +24538,7 @@
         <v>1099</v>
       </c>
     </row>
-    <row r="825" spans="1:4">
+    <row r="825" spans="1:3">
       <c r="A825" t="s">
         <v>1127</v>
       </c>
@@ -24207,7 +24546,7 @@
         <v>1178</v>
       </c>
     </row>
-    <row r="826" spans="1:4">
+    <row r="826" spans="1:3">
       <c r="A826" t="s">
         <v>804</v>
       </c>
@@ -24215,7 +24554,7 @@
         <v>876</v>
       </c>
     </row>
-    <row r="827" spans="1:4">
+    <row r="827" spans="1:3">
       <c r="A827" s="18" t="s">
         <v>1128</v>
       </c>
@@ -24223,646 +24562,646 @@
         <v>1179</v>
       </c>
     </row>
-    <row r="828" spans="1:4">
+    <row r="828" spans="1:3">
       <c r="A828" t="s">
         <v>1129</v>
       </c>
       <c r="B828" t="s">
         <v>1162</v>
       </c>
-      <c r="D828" s="2"/>
-    </row>
-    <row r="829" spans="1:4">
+      <c r="C828" s="2"/>
+    </row>
+    <row r="829" spans="1:3">
       <c r="A829" t="s">
         <v>1130</v>
       </c>
       <c r="B829" t="s">
         <v>1163</v>
       </c>
-      <c r="D829" s="2"/>
-    </row>
-    <row r="830" spans="1:4">
+      <c r="C829" s="2"/>
+    </row>
+    <row r="830" spans="1:3">
       <c r="A830" t="s">
         <v>1131</v>
       </c>
       <c r="B830" s="18" t="s">
         <v>1180</v>
       </c>
-      <c r="D830" s="2"/>
-    </row>
-    <row r="831" spans="1:4">
+      <c r="C830" s="2"/>
+    </row>
+    <row r="831" spans="1:3">
       <c r="A831" t="s">
         <v>1132</v>
       </c>
       <c r="B831" s="18" t="s">
         <v>1181</v>
       </c>
-      <c r="D831" s="3"/>
-    </row>
-    <row r="832" spans="1:4">
+      <c r="C831" s="3"/>
+    </row>
+    <row r="832" spans="1:3">
       <c r="A832" s="38" t="s">
         <v>2765</v>
       </c>
       <c r="B832" s="38" t="s">
         <v>2766</v>
       </c>
-      <c r="D832" s="3"/>
-    </row>
-    <row r="833" spans="1:4">
+      <c r="C832" s="3"/>
+    </row>
+    <row r="833" spans="1:3">
       <c r="A833" t="s">
         <v>1133</v>
       </c>
       <c r="B833" s="24" t="s">
         <v>1454</v>
       </c>
-      <c r="D833" s="3"/>
-    </row>
-    <row r="834" spans="1:4">
+      <c r="C833" s="3"/>
+    </row>
+    <row r="834" spans="1:3">
       <c r="A834" t="s">
         <v>2152</v>
       </c>
       <c r="B834" t="s">
         <v>2767</v>
       </c>
-      <c r="D834" s="2"/>
-    </row>
-    <row r="835" spans="1:4">
+      <c r="C834" s="2"/>
+    </row>
+    <row r="835" spans="1:3">
       <c r="A835" t="s">
         <v>1134</v>
       </c>
       <c r="B835" t="s">
         <v>1164</v>
       </c>
-      <c r="D835" s="2"/>
-    </row>
-    <row r="836" spans="1:4">
+      <c r="C835" s="2"/>
+    </row>
+    <row r="836" spans="1:3">
       <c r="A836" t="s">
         <v>1135</v>
       </c>
       <c r="B836" s="18" t="s">
         <v>1182</v>
       </c>
-      <c r="D836" s="3"/>
-    </row>
-    <row r="837" spans="1:4">
+      <c r="C836" s="3"/>
+    </row>
+    <row r="837" spans="1:3">
       <c r="A837" t="s">
         <v>1136</v>
       </c>
       <c r="B837" t="s">
         <v>1165</v>
       </c>
-      <c r="D837" s="3"/>
-    </row>
-    <row r="838" spans="1:4">
+      <c r="C837" s="3"/>
+    </row>
+    <row r="838" spans="1:3">
       <c r="A838" t="s">
         <v>2768</v>
       </c>
       <c r="B838" s="38" t="s">
         <v>2768</v>
       </c>
-      <c r="D838" s="3"/>
-    </row>
-    <row r="839" spans="1:4">
+      <c r="C838" s="3"/>
+    </row>
+    <row r="839" spans="1:3">
       <c r="A839" t="s">
         <v>2769</v>
       </c>
       <c r="B839" s="38" t="s">
         <v>2769</v>
       </c>
-      <c r="D839" s="3"/>
-    </row>
-    <row r="840" spans="1:4">
+      <c r="C839" s="3"/>
+    </row>
+    <row r="840" spans="1:3">
       <c r="A840" t="s">
         <v>2770</v>
       </c>
       <c r="B840" s="38" t="s">
         <v>2770</v>
       </c>
-      <c r="D840" s="3"/>
-    </row>
-    <row r="841" spans="1:4">
+      <c r="C840" s="3"/>
+    </row>
+    <row r="841" spans="1:3">
       <c r="A841" t="s">
         <v>1137</v>
       </c>
       <c r="B841" t="s">
         <v>1158</v>
       </c>
-      <c r="D841" s="3"/>
-    </row>
-    <row r="842" spans="1:4">
+      <c r="C841" s="3"/>
+    </row>
+    <row r="842" spans="1:3">
       <c r="A842" t="s">
         <v>1138</v>
       </c>
       <c r="B842" t="s">
         <v>1159</v>
       </c>
-      <c r="D842" s="2"/>
-    </row>
-    <row r="843" spans="1:4">
+      <c r="C842" s="2"/>
+    </row>
+    <row r="843" spans="1:3">
       <c r="A843" t="s">
         <v>1139</v>
       </c>
       <c r="B843" t="s">
         <v>121</v>
       </c>
-      <c r="D843" s="3"/>
-    </row>
-    <row r="844" spans="1:4">
+      <c r="C843" s="3"/>
+    </row>
+    <row r="844" spans="1:3">
       <c r="A844" t="s">
         <v>1140</v>
       </c>
       <c r="B844" t="s">
         <v>650</v>
       </c>
-      <c r="D844" s="3"/>
-    </row>
-    <row r="845" spans="1:4">
+      <c r="C844" s="3"/>
+    </row>
+    <row r="845" spans="1:3">
       <c r="A845" t="s">
         <v>2771</v>
       </c>
       <c r="B845" t="s">
         <v>2772</v>
       </c>
-      <c r="D845" s="2"/>
-    </row>
-    <row r="846" spans="1:4">
+      <c r="C845" s="2"/>
+    </row>
+    <row r="846" spans="1:3">
       <c r="A846" t="s">
         <v>2153</v>
       </c>
       <c r="B846" t="s">
         <v>2773</v>
       </c>
-      <c r="D846" s="3"/>
-    </row>
-    <row r="847" spans="1:4">
+      <c r="C846" s="3"/>
+    </row>
+    <row r="847" spans="1:3">
       <c r="A847" t="s">
         <v>2094</v>
       </c>
       <c r="B847" t="s">
         <v>2774</v>
       </c>
-      <c r="D847" s="3"/>
-    </row>
-    <row r="848" spans="1:4">
+      <c r="C847" s="3"/>
+    </row>
+    <row r="848" spans="1:3">
       <c r="A848" t="s">
         <v>2775</v>
       </c>
       <c r="B848" t="s">
         <v>2776</v>
       </c>
-      <c r="D848" s="3"/>
-    </row>
-    <row r="849" spans="1:4">
+      <c r="C848" s="3"/>
+    </row>
+    <row r="849" spans="1:3">
       <c r="A849" t="s">
         <v>3043</v>
       </c>
       <c r="B849" t="s">
         <v>2927</v>
       </c>
-      <c r="D849" s="3"/>
-    </row>
-    <row r="850" spans="1:4">
+      <c r="C849" s="3"/>
+    </row>
+    <row r="850" spans="1:3">
       <c r="A850" t="s">
         <v>3044</v>
       </c>
       <c r="B850" t="s">
         <v>2792</v>
       </c>
-      <c r="D850" s="2"/>
-    </row>
-    <row r="851" spans="1:4">
+      <c r="C850" s="2"/>
+    </row>
+    <row r="851" spans="1:3">
       <c r="A851" t="s">
         <v>1141</v>
       </c>
       <c r="B851" t="s">
         <v>1166</v>
       </c>
-      <c r="D851" s="2"/>
-    </row>
-    <row r="852" spans="1:4">
+      <c r="C851" s="2"/>
+    </row>
+    <row r="852" spans="1:3">
       <c r="A852" t="s">
         <v>1142</v>
       </c>
       <c r="B852" t="s">
         <v>1167</v>
       </c>
-      <c r="D852" s="2"/>
-    </row>
-    <row r="853" spans="1:4">
+      <c r="C852" s="2"/>
+    </row>
+    <row r="853" spans="1:3">
       <c r="A853" t="s">
         <v>1143</v>
       </c>
       <c r="B853" t="s">
         <v>1168</v>
       </c>
-      <c r="D853" s="3"/>
-    </row>
-    <row r="854" spans="1:4">
+      <c r="C853" s="3"/>
+    </row>
+    <row r="854" spans="1:3">
       <c r="A854" t="s">
         <v>1144</v>
       </c>
       <c r="B854" t="s">
         <v>1169</v>
       </c>
-      <c r="D854" s="2"/>
-    </row>
-    <row r="855" spans="1:4">
+      <c r="C854" s="2"/>
+    </row>
+    <row r="855" spans="1:3">
       <c r="A855" t="s">
         <v>1145</v>
       </c>
       <c r="B855" t="s">
         <v>1183</v>
       </c>
-      <c r="D855" s="3"/>
-    </row>
-    <row r="856" spans="1:4">
+      <c r="C855" s="3"/>
+    </row>
+    <row r="856" spans="1:3">
       <c r="A856" t="s">
         <v>1146</v>
       </c>
       <c r="B856" t="s">
         <v>1170</v>
       </c>
-      <c r="D856" s="3"/>
-    </row>
-    <row r="857" spans="1:4">
+      <c r="C856" s="3"/>
+    </row>
+    <row r="857" spans="1:3">
       <c r="A857" t="s">
         <v>1147</v>
       </c>
       <c r="B857" t="s">
         <v>1171</v>
       </c>
-      <c r="D857" s="3"/>
-    </row>
-    <row r="858" spans="1:4">
+      <c r="C857" s="3"/>
+    </row>
+    <row r="858" spans="1:3">
       <c r="A858" t="s">
         <v>1148</v>
       </c>
       <c r="B858" t="s">
         <v>1160</v>
       </c>
-      <c r="D858" s="2"/>
-    </row>
-    <row r="859" spans="1:4">
+      <c r="C858" s="2"/>
+    </row>
+    <row r="859" spans="1:3">
       <c r="A859" t="s">
         <v>2777</v>
       </c>
       <c r="B859" t="s">
         <v>2779</v>
       </c>
-      <c r="D859" s="2"/>
-    </row>
-    <row r="860" spans="1:4">
+      <c r="C859" s="2"/>
+    </row>
+    <row r="860" spans="1:3">
       <c r="A860" t="s">
         <v>1149</v>
       </c>
       <c r="B860" t="s">
         <v>1172</v>
       </c>
-      <c r="D860" s="3"/>
-    </row>
-    <row r="861" spans="1:4">
+      <c r="C860" s="3"/>
+    </row>
+    <row r="861" spans="1:3">
       <c r="A861" t="s">
         <v>2778</v>
       </c>
       <c r="B861" t="s">
         <v>2780</v>
       </c>
-      <c r="D861" s="3"/>
-    </row>
-    <row r="862" spans="1:4">
+      <c r="C861" s="3"/>
+    </row>
+    <row r="862" spans="1:3">
       <c r="A862" t="s">
         <v>2781</v>
       </c>
       <c r="B862" t="s">
         <v>2535</v>
       </c>
-      <c r="D862" s="3"/>
-    </row>
-    <row r="863" spans="1:4">
+      <c r="C862" s="3"/>
+    </row>
+    <row r="863" spans="1:3">
       <c r="A863" t="s">
         <v>1150</v>
       </c>
       <c r="B863" t="s">
         <v>1173</v>
       </c>
-      <c r="D863" s="3"/>
-    </row>
-    <row r="864" spans="1:4">
+      <c r="C863" s="3"/>
+    </row>
+    <row r="864" spans="1:3">
       <c r="A864" t="s">
         <v>2095</v>
       </c>
       <c r="B864" t="s">
         <v>2286</v>
       </c>
-      <c r="D864" s="3"/>
-    </row>
-    <row r="865" spans="1:4">
+      <c r="C864" s="3"/>
+    </row>
+    <row r="865" spans="1:3">
       <c r="A865" t="s">
         <v>3045</v>
       </c>
       <c r="B865" t="s">
         <v>2977</v>
       </c>
-      <c r="D865" s="3"/>
-    </row>
-    <row r="866" spans="1:4">
+      <c r="C865" s="3"/>
+    </row>
+    <row r="866" spans="1:3">
       <c r="A866" t="s">
         <v>2064</v>
       </c>
       <c r="B866" t="s">
         <v>2065</v>
       </c>
-      <c r="D866" s="3"/>
-    </row>
-    <row r="867" spans="1:4">
+      <c r="C866" s="3"/>
+    </row>
+    <row r="867" spans="1:3">
       <c r="A867" t="s">
         <v>2096</v>
       </c>
       <c r="B867" t="s">
         <v>2782</v>
       </c>
-      <c r="D867" s="2"/>
-    </row>
-    <row r="868" spans="1:4">
+      <c r="C867" s="2"/>
+    </row>
+    <row r="868" spans="1:3">
       <c r="A868" t="s">
         <v>1151</v>
       </c>
       <c r="B868" t="s">
         <v>1161</v>
       </c>
-      <c r="D868" s="3"/>
-    </row>
-    <row r="869" spans="1:4">
+      <c r="C868" s="3"/>
+    </row>
+    <row r="869" spans="1:3">
       <c r="A869" t="s">
         <v>1152</v>
       </c>
       <c r="B869" t="s">
         <v>1174</v>
       </c>
-      <c r="D869" s="2"/>
-    </row>
-    <row r="870" spans="1:4">
+      <c r="C869" s="2"/>
+    </row>
+    <row r="870" spans="1:3">
       <c r="A870" s="60" t="s">
         <v>2783</v>
       </c>
       <c r="B870" t="s">
         <v>452</v>
       </c>
-      <c r="D870" s="2"/>
-    </row>
-    <row r="871" spans="1:4">
+      <c r="C870" s="2"/>
+    </row>
+    <row r="871" spans="1:3">
       <c r="A871" t="s">
         <v>2784</v>
       </c>
       <c r="B871" t="s">
         <v>2785</v>
       </c>
-      <c r="D871" s="2"/>
-    </row>
-    <row r="872" spans="1:4">
+      <c r="C871" s="2"/>
+    </row>
+    <row r="872" spans="1:3">
       <c r="A872" t="s">
         <v>1153</v>
       </c>
       <c r="B872" t="s">
         <v>1175</v>
       </c>
-      <c r="D872" s="2"/>
-    </row>
-    <row r="873" spans="1:4">
+      <c r="C872" s="2"/>
+    </row>
+    <row r="873" spans="1:3">
       <c r="A873" t="s">
         <v>1154</v>
       </c>
       <c r="B873" t="s">
         <v>247</v>
       </c>
-      <c r="D873" s="2"/>
-    </row>
-    <row r="874" spans="1:4">
+      <c r="C873" s="2"/>
+    </row>
+    <row r="874" spans="1:3">
       <c r="A874" t="s">
         <v>1155</v>
       </c>
       <c r="B874" t="s">
         <v>1176</v>
       </c>
-      <c r="D874" s="2"/>
-    </row>
-    <row r="875" spans="1:4">
+      <c r="C874" s="2"/>
+    </row>
+    <row r="875" spans="1:3">
       <c r="A875" t="s">
         <v>1156</v>
       </c>
       <c r="B875" t="s">
         <v>1184</v>
       </c>
-      <c r="D875" s="3"/>
-    </row>
-    <row r="876" spans="1:4">
+      <c r="C875" s="3"/>
+    </row>
+    <row r="876" spans="1:3">
       <c r="A876" t="s">
         <v>1157</v>
       </c>
       <c r="B876" t="s">
         <v>1177</v>
       </c>
-      <c r="D876" s="2"/>
-    </row>
-    <row r="877" spans="1:4">
+      <c r="C876" s="2"/>
+    </row>
+    <row r="877" spans="1:3">
       <c r="A877" t="s">
         <v>2787</v>
       </c>
       <c r="B877" t="s">
         <v>2786</v>
       </c>
-      <c r="D877" s="3"/>
-    </row>
-    <row r="878" spans="1:4">
+      <c r="C877" s="3"/>
+    </row>
+    <row r="878" spans="1:3">
       <c r="A878" t="s">
         <v>2154</v>
       </c>
       <c r="B878" t="s">
         <v>2788</v>
       </c>
-      <c r="D878" s="2"/>
-    </row>
-    <row r="879" spans="1:4">
+      <c r="C878" s="2"/>
+    </row>
+    <row r="879" spans="1:3">
       <c r="A879" t="s">
         <v>1187</v>
       </c>
       <c r="B879" t="s">
         <v>1210</v>
       </c>
-      <c r="D879" s="2"/>
-    </row>
-    <row r="880" spans="1:4">
+      <c r="C879" s="2"/>
+    </row>
+    <row r="880" spans="1:3">
       <c r="A880" t="s">
         <v>1188</v>
       </c>
       <c r="B880" t="s">
         <v>1185</v>
       </c>
-      <c r="D880" s="3"/>
-    </row>
-    <row r="881" spans="1:4">
+      <c r="C880" s="3"/>
+    </row>
+    <row r="881" spans="1:3">
       <c r="A881" t="s">
         <v>1189</v>
       </c>
       <c r="B881" s="19" t="s">
         <v>1220</v>
       </c>
-      <c r="D881" s="2"/>
-    </row>
-    <row r="882" spans="1:4">
+      <c r="C881" s="2"/>
+    </row>
+    <row r="882" spans="1:3">
       <c r="A882" s="19" t="s">
         <v>1190</v>
       </c>
       <c r="B882" s="19" t="s">
         <v>1221</v>
       </c>
-      <c r="D882" s="3"/>
-    </row>
-    <row r="883" spans="1:4">
+      <c r="C882" s="3"/>
+    </row>
+    <row r="883" spans="1:3">
       <c r="A883" t="s">
         <v>1191</v>
       </c>
       <c r="B883" s="19" t="s">
         <v>1222</v>
       </c>
-      <c r="D883" s="2"/>
-    </row>
-    <row r="884" spans="1:4">
+      <c r="C883" s="2"/>
+    </row>
+    <row r="884" spans="1:3">
       <c r="A884" t="s">
         <v>1192</v>
       </c>
       <c r="B884" s="19" t="s">
         <v>1223</v>
       </c>
-      <c r="D884" s="2"/>
-    </row>
-    <row r="885" spans="1:4">
+      <c r="C884" s="2"/>
+    </row>
+    <row r="885" spans="1:3">
       <c r="A885" t="s">
         <v>1193</v>
       </c>
       <c r="B885" t="s">
         <v>859</v>
       </c>
-      <c r="D885" s="2"/>
-    </row>
-    <row r="886" spans="1:4">
+      <c r="C885" s="2"/>
+    </row>
+    <row r="886" spans="1:3">
       <c r="A886" t="s">
         <v>1194</v>
       </c>
       <c r="B886" t="s">
         <v>1045</v>
       </c>
-      <c r="D886" s="3"/>
-    </row>
-    <row r="887" spans="1:4">
+      <c r="C886" s="3"/>
+    </row>
+    <row r="887" spans="1:3">
       <c r="A887" s="19" t="s">
         <v>1195</v>
       </c>
       <c r="B887" t="s">
         <v>1211</v>
       </c>
-      <c r="D887" s="2"/>
-    </row>
-    <row r="888" spans="1:4">
+      <c r="C887" s="2"/>
+    </row>
+    <row r="888" spans="1:3">
       <c r="A888" t="s">
         <v>1196</v>
       </c>
       <c r="B888" t="s">
         <v>1212</v>
       </c>
-      <c r="D888" s="3"/>
-    </row>
-    <row r="889" spans="1:4">
+      <c r="C888" s="3"/>
+    </row>
+    <row r="889" spans="1:3">
       <c r="A889" t="s">
         <v>1197</v>
       </c>
       <c r="B889" s="19" t="s">
         <v>1224</v>
       </c>
-      <c r="D889" s="2"/>
-    </row>
-    <row r="890" spans="1:4">
+      <c r="C889" s="2"/>
+    </row>
+    <row r="890" spans="1:3">
       <c r="A890" t="s">
         <v>2789</v>
       </c>
       <c r="B890" t="s">
         <v>2790</v>
       </c>
-      <c r="D890" s="2"/>
-    </row>
-    <row r="891" spans="1:4">
+      <c r="C890" s="2"/>
+    </row>
+    <row r="891" spans="1:3">
       <c r="A891" t="s">
         <v>2791</v>
       </c>
       <c r="B891" t="s">
         <v>2792</v>
       </c>
-      <c r="D891" s="3"/>
-    </row>
-    <row r="892" spans="1:4">
+      <c r="C891" s="3"/>
+    </row>
+    <row r="892" spans="1:3">
       <c r="A892" t="s">
         <v>1198</v>
       </c>
       <c r="B892" t="s">
         <v>1213</v>
       </c>
-      <c r="D892" s="2"/>
-    </row>
-    <row r="893" spans="1:4">
+      <c r="C892" s="2"/>
+    </row>
+    <row r="893" spans="1:3">
       <c r="A893" t="s">
         <v>1199</v>
       </c>
       <c r="B893" t="s">
         <v>1214</v>
       </c>
-      <c r="D893" s="2"/>
-    </row>
-    <row r="894" spans="1:4">
+      <c r="C893" s="2"/>
+    </row>
+    <row r="894" spans="1:3">
       <c r="A894" t="s">
         <v>1200</v>
       </c>
       <c r="B894" t="s">
         <v>1215</v>
       </c>
-      <c r="D894" s="2"/>
-    </row>
-    <row r="895" spans="1:4">
+      <c r="C894" s="2"/>
+    </row>
+    <row r="895" spans="1:3">
       <c r="A895" t="s">
         <v>1201</v>
       </c>
       <c r="B895" t="s">
         <v>969</v>
       </c>
-      <c r="D895" s="3"/>
-    </row>
-    <row r="896" spans="1:4">
+      <c r="C895" s="3"/>
+    </row>
+    <row r="896" spans="1:3">
       <c r="A896" t="s">
         <v>1202</v>
       </c>
       <c r="B896" t="s">
         <v>1216</v>
       </c>
-      <c r="D896" s="2"/>
-    </row>
-    <row r="897" spans="1:4">
+      <c r="C896" s="2"/>
+    </row>
+    <row r="897" spans="1:3">
       <c r="A897" t="s">
         <v>2387</v>
       </c>
       <c r="B897" t="s">
         <v>1474</v>
       </c>
-      <c r="D897" s="3"/>
-    </row>
-    <row r="898" spans="1:4">
+      <c r="C897" s="3"/>
+    </row>
+    <row r="898" spans="1:3">
       <c r="A898" t="s">
         <v>3046</v>
       </c>
       <c r="B898" s="39" t="s">
         <v>2978</v>
       </c>
-      <c r="D898" s="3"/>
-    </row>
-    <row r="899" spans="1:4">
+      <c r="C898" s="3"/>
+    </row>
+    <row r="899" spans="1:3">
       <c r="A899" s="19" t="s">
         <v>3047</v>
       </c>
@@ -24870,7 +25209,7 @@
         <v>2979</v>
       </c>
     </row>
-    <row r="900" spans="1:4">
+    <row r="900" spans="1:3">
       <c r="A900" t="s">
         <v>1203</v>
       </c>
@@ -24878,7 +25217,7 @@
         <v>633</v>
       </c>
     </row>
-    <row r="901" spans="1:4">
+    <row r="901" spans="1:3">
       <c r="A901" t="s">
         <v>1204</v>
       </c>
@@ -24886,7 +25225,7 @@
         <v>1186</v>
       </c>
     </row>
-    <row r="902" spans="1:4">
+    <row r="902" spans="1:3">
       <c r="A902" t="s">
         <v>1205</v>
       </c>
@@ -24894,7 +25233,7 @@
         <v>1217</v>
       </c>
     </row>
-    <row r="903" spans="1:4">
+    <row r="903" spans="1:3">
       <c r="A903" t="s">
         <v>2793</v>
       </c>
@@ -24902,7 +25241,7 @@
         <v>1230</v>
       </c>
     </row>
-    <row r="904" spans="1:4">
+    <row r="904" spans="1:3">
       <c r="A904" t="s">
         <v>1206</v>
       </c>
@@ -24910,7 +25249,7 @@
         <v>1218</v>
       </c>
     </row>
-    <row r="905" spans="1:4">
+    <row r="905" spans="1:3">
       <c r="A905" t="s">
         <v>1207</v>
       </c>
@@ -24918,7 +25257,7 @@
         <v>1219</v>
       </c>
     </row>
-    <row r="906" spans="1:4">
+    <row r="906" spans="1:3">
       <c r="A906" t="s">
         <v>2155</v>
       </c>
@@ -24926,7 +25265,7 @@
         <v>2388</v>
       </c>
     </row>
-    <row r="907" spans="1:4">
+    <row r="907" spans="1:3">
       <c r="A907" s="38" t="s">
         <v>2794</v>
       </c>
@@ -24934,7 +25273,7 @@
         <v>2795</v>
       </c>
     </row>
-    <row r="908" spans="1:4">
+    <row r="908" spans="1:3">
       <c r="A908" t="s">
         <v>1208</v>
       </c>
@@ -24942,7 +25281,7 @@
         <v>1225</v>
       </c>
     </row>
-    <row r="909" spans="1:4">
+    <row r="909" spans="1:3">
       <c r="A909" t="s">
         <v>1209</v>
       </c>
@@ -24950,7 +25289,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="910" spans="1:4">
+    <row r="910" spans="1:3">
       <c r="A910" t="s">
         <v>1234</v>
       </c>
@@ -24958,7 +25297,7 @@
         <v>1226</v>
       </c>
     </row>
-    <row r="911" spans="1:4">
+    <row r="911" spans="1:3">
       <c r="A911" t="s">
         <v>1235</v>
       </c>
@@ -24966,7 +25305,7 @@
         <v>1227</v>
       </c>
     </row>
-    <row r="912" spans="1:4">
+    <row r="912" spans="1:3">
       <c r="A912" t="s">
         <v>1236</v>
       </c>
@@ -41124,6 +41463,478 @@
       </c>
       <c r="B2931" s="86" t="s">
         <v>5356</v>
+      </c>
+    </row>
+    <row r="2932" spans="1:2">
+      <c r="A2932" t="s">
+        <v>5357</v>
+      </c>
+      <c r="B2932" t="s">
+        <v>5416</v>
+      </c>
+    </row>
+    <row r="2933" spans="1:2">
+      <c r="A2933" t="s">
+        <v>5358</v>
+      </c>
+      <c r="B2933" s="87" t="s">
+        <v>5454</v>
+      </c>
+    </row>
+    <row r="2934" spans="1:2">
+      <c r="A2934" t="s">
+        <v>5359</v>
+      </c>
+      <c r="B2934" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="2935" spans="1:2">
+      <c r="A2935" t="s">
+        <v>5360</v>
+      </c>
+      <c r="B2935" t="s">
+        <v>1223</v>
+      </c>
+    </row>
+    <row r="2936" spans="1:2">
+      <c r="A2936" t="s">
+        <v>5361</v>
+      </c>
+      <c r="B2936" t="s">
+        <v>5417</v>
+      </c>
+    </row>
+    <row r="2937" spans="1:2">
+      <c r="A2937" t="s">
+        <v>5362</v>
+      </c>
+      <c r="B2937" s="87" t="s">
+        <v>5455</v>
+      </c>
+    </row>
+    <row r="2938" spans="1:2">
+      <c r="A2938" t="s">
+        <v>5363</v>
+      </c>
+      <c r="B2938" t="s">
+        <v>5418</v>
+      </c>
+    </row>
+    <row r="2939" spans="1:2">
+      <c r="A2939" t="s">
+        <v>5364</v>
+      </c>
+      <c r="B2939" t="s">
+        <v>5419</v>
+      </c>
+    </row>
+    <row r="2940" spans="1:2">
+      <c r="A2940" s="87" t="s">
+        <v>5365</v>
+      </c>
+      <c r="B2940" s="87" t="s">
+        <v>5456</v>
+      </c>
+    </row>
+    <row r="2941" spans="1:2">
+      <c r="A2941" s="87" t="s">
+        <v>5366</v>
+      </c>
+      <c r="B2941" t="s">
+        <v>5420</v>
+      </c>
+    </row>
+    <row r="2942" spans="1:2">
+      <c r="A2942" t="s">
+        <v>5367</v>
+      </c>
+      <c r="B2942" t="s">
+        <v>5421</v>
+      </c>
+    </row>
+    <row r="2943" spans="1:2">
+      <c r="A2943" t="s">
+        <v>5368</v>
+      </c>
+      <c r="B2943" s="87" t="s">
+        <v>5457</v>
+      </c>
+    </row>
+    <row r="2944" spans="1:2">
+      <c r="A2944" t="s">
+        <v>5369</v>
+      </c>
+      <c r="B2944" s="87" t="s">
+        <v>5458</v>
+      </c>
+    </row>
+    <row r="2945" spans="1:2">
+      <c r="A2945" t="s">
+        <v>5370</v>
+      </c>
+      <c r="B2945" t="s">
+        <v>5422</v>
+      </c>
+    </row>
+    <row r="2946" spans="1:2">
+      <c r="A2946" t="s">
+        <v>5371</v>
+      </c>
+      <c r="B2946" t="s">
+        <v>5423</v>
+      </c>
+    </row>
+    <row r="2947" spans="1:2">
+      <c r="A2947" t="s">
+        <v>5372</v>
+      </c>
+      <c r="B2947" s="87" t="s">
+        <v>5459</v>
+      </c>
+    </row>
+    <row r="2948" spans="1:2">
+      <c r="A2948" t="s">
+        <v>5373</v>
+      </c>
+      <c r="B2948" t="s">
+        <v>5424</v>
+      </c>
+    </row>
+    <row r="2949" spans="1:2">
+      <c r="A2949" t="s">
+        <v>5374</v>
+      </c>
+      <c r="B2949" t="s">
+        <v>2535</v>
+      </c>
+    </row>
+    <row r="2950" spans="1:2">
+      <c r="A2950" t="s">
+        <v>5375</v>
+      </c>
+      <c r="B2950" t="s">
+        <v>846</v>
+      </c>
+    </row>
+    <row r="2951" spans="1:2">
+      <c r="A2951" t="s">
+        <v>5376</v>
+      </c>
+      <c r="B2951" s="87" t="s">
+        <v>5460</v>
+      </c>
+    </row>
+    <row r="2952" spans="1:2">
+      <c r="A2952" t="s">
+        <v>5377</v>
+      </c>
+      <c r="B2952" t="s">
+        <v>5425</v>
+      </c>
+    </row>
+    <row r="2953" spans="1:2">
+      <c r="A2953" t="s">
+        <v>5378</v>
+      </c>
+      <c r="B2953" t="s">
+        <v>5426</v>
+      </c>
+    </row>
+    <row r="2954" spans="1:2">
+      <c r="A2954" t="s">
+        <v>5379</v>
+      </c>
+      <c r="B2954" s="87" t="s">
+        <v>5461</v>
+      </c>
+    </row>
+    <row r="2955" spans="1:2">
+      <c r="A2955" t="s">
+        <v>5380</v>
+      </c>
+      <c r="B2955" t="s">
+        <v>5427</v>
+      </c>
+    </row>
+    <row r="2956" spans="1:2">
+      <c r="A2956" t="s">
+        <v>5381</v>
+      </c>
+      <c r="B2956" t="s">
+        <v>5428</v>
+      </c>
+    </row>
+    <row r="2957" spans="1:2">
+      <c r="A2957" t="s">
+        <v>5382</v>
+      </c>
+      <c r="B2957" t="s">
+        <v>5429</v>
+      </c>
+    </row>
+    <row r="2958" spans="1:2">
+      <c r="A2958" t="s">
+        <v>5383</v>
+      </c>
+      <c r="B2958" t="s">
+        <v>5430</v>
+      </c>
+    </row>
+    <row r="2959" spans="1:2">
+      <c r="A2959" t="s">
+        <v>5384</v>
+      </c>
+      <c r="B2959" t="s">
+        <v>5431</v>
+      </c>
+    </row>
+    <row r="2960" spans="1:2">
+      <c r="A2960" t="s">
+        <v>5385</v>
+      </c>
+      <c r="B2960" t="s">
+        <v>5432</v>
+      </c>
+    </row>
+    <row r="2961" spans="1:2">
+      <c r="A2961" t="s">
+        <v>5386</v>
+      </c>
+      <c r="B2961" t="s">
+        <v>5433</v>
+      </c>
+    </row>
+    <row r="2962" spans="1:2">
+      <c r="A2962" t="s">
+        <v>5387</v>
+      </c>
+      <c r="B2962" t="s">
+        <v>5434</v>
+      </c>
+    </row>
+    <row r="2963" spans="1:2">
+      <c r="A2963" t="s">
+        <v>5388</v>
+      </c>
+      <c r="B2963" t="s">
+        <v>5435</v>
+      </c>
+    </row>
+    <row r="2964" spans="1:2">
+      <c r="A2964" t="s">
+        <v>5389</v>
+      </c>
+      <c r="B2964" s="87" t="s">
+        <v>5462</v>
+      </c>
+    </row>
+    <row r="2965" spans="1:2">
+      <c r="A2965" t="s">
+        <v>5390</v>
+      </c>
+      <c r="B2965" t="s">
+        <v>5436</v>
+      </c>
+    </row>
+    <row r="2966" spans="1:2">
+      <c r="A2966" t="s">
+        <v>5391</v>
+      </c>
+      <c r="B2966" s="87" t="s">
+        <v>5463</v>
+      </c>
+    </row>
+    <row r="2967" spans="1:2">
+      <c r="A2967" t="s">
+        <v>5392</v>
+      </c>
+      <c r="B2967" t="s">
+        <v>5437</v>
+      </c>
+    </row>
+    <row r="2968" spans="1:2">
+      <c r="A2968" t="s">
+        <v>5393</v>
+      </c>
+      <c r="B2968" t="s">
+        <v>5438</v>
+      </c>
+    </row>
+    <row r="2969" spans="1:2">
+      <c r="A2969" t="s">
+        <v>5394</v>
+      </c>
+      <c r="B2969" t="s">
+        <v>5439</v>
+      </c>
+    </row>
+    <row r="2970" spans="1:2">
+      <c r="A2970" t="s">
+        <v>5395</v>
+      </c>
+      <c r="B2970" t="s">
+        <v>5440</v>
+      </c>
+    </row>
+    <row r="2971" spans="1:2">
+      <c r="A2971" t="s">
+        <v>5396</v>
+      </c>
+      <c r="B2971" t="s">
+        <v>1037</v>
+      </c>
+    </row>
+    <row r="2972" spans="1:2">
+      <c r="A2972" t="s">
+        <v>5397</v>
+      </c>
+      <c r="B2972" t="s">
+        <v>5441</v>
+      </c>
+    </row>
+    <row r="2973" spans="1:2">
+      <c r="A2973" t="s">
+        <v>5398</v>
+      </c>
+      <c r="B2973" t="s">
+        <v>5442</v>
+      </c>
+    </row>
+    <row r="2974" spans="1:2">
+      <c r="A2974" t="s">
+        <v>5399</v>
+      </c>
+      <c r="B2974" s="87" t="s">
+        <v>4949</v>
+      </c>
+    </row>
+    <row r="2975" spans="1:2">
+      <c r="A2975" t="s">
+        <v>5400</v>
+      </c>
+      <c r="B2975" t="s">
+        <v>5443</v>
+      </c>
+    </row>
+    <row r="2976" spans="1:2">
+      <c r="A2976" t="s">
+        <v>5401</v>
+      </c>
+      <c r="B2976" s="87" t="s">
+        <v>5464</v>
+      </c>
+    </row>
+    <row r="2977" spans="1:2">
+      <c r="A2977" t="s">
+        <v>5402</v>
+      </c>
+      <c r="B2977" t="s">
+        <v>5444</v>
+      </c>
+    </row>
+    <row r="2978" spans="1:2">
+      <c r="A2978" t="s">
+        <v>5403</v>
+      </c>
+      <c r="B2978" t="s">
+        <v>5445</v>
+      </c>
+    </row>
+    <row r="2979" spans="1:2">
+      <c r="A2979" t="s">
+        <v>5404</v>
+      </c>
+      <c r="B2979" t="s">
+        <v>1219</v>
+      </c>
+    </row>
+    <row r="2980" spans="1:2">
+      <c r="A2980" t="s">
+        <v>5405</v>
+      </c>
+      <c r="B2980" t="s">
+        <v>5446</v>
+      </c>
+    </row>
+    <row r="2981" spans="1:2">
+      <c r="A2981" t="s">
+        <v>5406</v>
+      </c>
+      <c r="B2981" t="s">
+        <v>5447</v>
+      </c>
+    </row>
+    <row r="2982" spans="1:2">
+      <c r="A2982" t="s">
+        <v>5407</v>
+      </c>
+      <c r="B2982" t="s">
+        <v>5448</v>
+      </c>
+    </row>
+    <row r="2983" spans="1:2">
+      <c r="A2983" t="s">
+        <v>5408</v>
+      </c>
+      <c r="B2983" t="s">
+        <v>5449</v>
+      </c>
+    </row>
+    <row r="2984" spans="1:2">
+      <c r="A2984" t="s">
+        <v>5409</v>
+      </c>
+      <c r="B2984" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2985" spans="1:2">
+      <c r="A2985" t="s">
+        <v>5410</v>
+      </c>
+      <c r="B2985" t="s">
+        <v>5450</v>
+      </c>
+    </row>
+    <row r="2986" spans="1:2">
+      <c r="A2986" t="s">
+        <v>5411</v>
+      </c>
+      <c r="B2986" s="87" t="s">
+        <v>5465</v>
+      </c>
+    </row>
+    <row r="2987" spans="1:2">
+      <c r="A2987" t="s">
+        <v>5412</v>
+      </c>
+      <c r="B2987" t="s">
+        <v>5451</v>
+      </c>
+    </row>
+    <row r="2988" spans="1:2">
+      <c r="A2988" t="s">
+        <v>5413</v>
+      </c>
+      <c r="B2988" s="87" t="s">
+        <v>5466</v>
+      </c>
+    </row>
+    <row r="2989" spans="1:2">
+      <c r="A2989" t="s">
+        <v>5414</v>
+      </c>
+      <c r="B2989" t="s">
+        <v>5452</v>
+      </c>
+    </row>
+    <row r="2990" spans="1:2">
+      <c r="A2990" t="s">
+        <v>5415</v>
+      </c>
+      <c r="B2990" t="s">
+        <v>5453</v>
       </c>
     </row>
   </sheetData>

--- a/ingredients/ingredients_dictionary.xlsx
+++ b/ingredients/ingredients_dictionary.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PycharmProjects\englishTranslate\ingredients\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8FE588A-B4B7-43FC-B86E-569E6F7D0151}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68482957-D12A-4C96-8907-FFE5138F5BFC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="1230" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="translated_list" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6085" uniqueCount="5568">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6155" uniqueCount="5630">
   <si>
     <t>calcium carbonate</t>
   </si>
@@ -16727,18 +16727,211 @@
   </si>
   <si>
     <t>binding material</t>
+  </si>
+  <si>
+    <t>あまおう</t>
+  </si>
+  <si>
+    <t>二十世紀</t>
+  </si>
+  <si>
+    <t>ヤマブドウ</t>
+  </si>
+  <si>
+    <t>和なし果汁</t>
+  </si>
+  <si>
+    <t>栃木県産</t>
+  </si>
+  <si>
+    <t>はるか</t>
+  </si>
+  <si>
+    <t>乾燥いちごフレーク</t>
+  </si>
+  <si>
+    <t>福岡県産</t>
+  </si>
+  <si>
+    <t>苺濃縮果汁</t>
+  </si>
+  <si>
+    <t>二酸化ケイ素</t>
+  </si>
+  <si>
+    <t>カッシアエキス</t>
+  </si>
+  <si>
+    <t>岩手県産</t>
+  </si>
+  <si>
+    <t>鳥取県産</t>
+  </si>
+  <si>
+    <t>スカイベリー</t>
+  </si>
+  <si>
+    <t>京都府京丹後市産</t>
+  </si>
+  <si>
+    <t>ヘーゼルナッツプラリネ</t>
+  </si>
+  <si>
+    <t>アールスメロン</t>
+  </si>
+  <si>
+    <t>はっさく</t>
+  </si>
+  <si>
+    <t>Amaou</t>
+  </si>
+  <si>
+    <t>20th century</t>
+  </si>
+  <si>
+    <t>wild grape</t>
+  </si>
+  <si>
+    <t>Japanese fruit juice</t>
+  </si>
+  <si>
+    <t>Haruka</t>
+  </si>
+  <si>
+    <t>silicon dioxide</t>
+  </si>
+  <si>
+    <t>cassia extract</t>
+  </si>
+  <si>
+    <t>sky berry</t>
+  </si>
+  <si>
+    <t>hazelnut praline</t>
+  </si>
+  <si>
+    <t>Hassaku</t>
+  </si>
+  <si>
+    <t>made in Tochigi Prefecture</t>
+  </si>
+  <si>
+    <t>made in Fukuoka Prefecture</t>
+  </si>
+  <si>
+    <t>strawberry concentrated juice</t>
+  </si>
+  <si>
+    <t>made in Iwate Prefecture</t>
+  </si>
+  <si>
+    <t>made in Tottori Prefecture</t>
+  </si>
+  <si>
+    <t>made in Kyotango City, Kyoto Prefecture</t>
+  </si>
+  <si>
+    <t>muskmelon</t>
+  </si>
+  <si>
+    <t>黒みつ</t>
+  </si>
+  <si>
+    <t>原材料の一部に乳及び大豆を含みます。</t>
+  </si>
+  <si>
+    <t>乾燥イチゴ</t>
+  </si>
+  <si>
+    <t>有機しょう油</t>
+  </si>
+  <si>
+    <t>植物性油脂</t>
+  </si>
+  <si>
+    <t>原材料の一部に乳</t>
+  </si>
+  <si>
+    <t>乾のり</t>
+  </si>
+  <si>
+    <t>シェラック</t>
+  </si>
+  <si>
+    <t>ココアケーキ</t>
+  </si>
+  <si>
+    <t>水飴酸味料</t>
+  </si>
+  <si>
+    <t>加工粉乳</t>
+  </si>
+  <si>
+    <t>たん白加水分解質</t>
+  </si>
+  <si>
+    <t>パイナップル果汁</t>
+  </si>
+  <si>
+    <t>原材料の一部に大豆由来原材料含む</t>
+  </si>
+  <si>
+    <t>organic soy sauce</t>
+  </si>
+  <si>
+    <t>vegetable oil</t>
+  </si>
+  <si>
+    <t>shellac</t>
+  </si>
+  <si>
+    <t>cocoa cake</t>
+  </si>
+  <si>
+    <t>processed milk powder</t>
+  </si>
+  <si>
+    <t>グルタミン酸ナトリウム</t>
+  </si>
+  <si>
+    <t>アスパラギン酸ナトリウム</t>
+  </si>
+  <si>
+    <t>トレオニン</t>
+  </si>
+  <si>
+    <t>monosodium glutamate</t>
+  </si>
+  <si>
+    <t>may contains milk and soybeans</t>
+  </si>
+  <si>
+    <t>dry seaweed</t>
+  </si>
+  <si>
+    <t>maltose syrup acidulant</t>
+  </si>
+  <si>
+    <t>may contains soybean-derived ingredients</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="84">
+  <fonts count="85">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -17323,18 +17516,12 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="3">
@@ -17375,18 +17562,21 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="92">
+  <cellXfs count="93">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="81" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="82" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="82" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="83" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="83" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="81" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="80" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
@@ -17394,19 +17584,16 @@
     <xf numFmtId="0" fontId="79" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="78" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="77" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="76" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="75" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="84" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="83" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="74" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="75" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
@@ -17416,8 +17603,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="78" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="72" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="79" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="73" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="71" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="70" fillId="0" borderId="0" xfId="0" applyFont="1">
@@ -17426,7 +17616,7 @@
     <xf numFmtId="0" fontId="69" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="68" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="67" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="66" fillId="0" borderId="0" xfId="0" applyFont="1">
@@ -17453,7 +17643,7 @@
     <xf numFmtId="0" fontId="59" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="58" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="57" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="56" fillId="0" borderId="0" xfId="0" applyFont="1">
@@ -17468,7 +17658,7 @@
     <xf numFmtId="0" fontId="53" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="52" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="50" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="49" fillId="0" borderId="0" xfId="0" applyFont="1">
@@ -17477,7 +17667,7 @@
     <xf numFmtId="0" fontId="48" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="47" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="46" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="45" fillId="0" borderId="0" xfId="0" applyFont="1">
@@ -17495,44 +17685,44 @@
     <xf numFmtId="0" fontId="41" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="79" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="73" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="71" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="80" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="74" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="77" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="72" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="78" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="67" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="68" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="57" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="58" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="52" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="51" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="50" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="47" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="46" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="1">
@@ -17637,13 +17827,13 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -17672,6 +17862,18 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{2BBAFF4D-014B-40B8-969F-E2101B471846}" name="Table2" displayName="Table2" ref="A1:C3077" totalsRowShown="0">
+  <autoFilter ref="A1:C3077" xr:uid="{2BBAFF4D-014B-40B8-969F-E2101B471846}"/>
+  <tableColumns count="3">
+    <tableColumn id="1" xr3:uid="{8D574ABF-A7B5-4176-8E4A-AD941FF1CF25}" name="id"/>
+    <tableColumn id="2" xr3:uid="{0D2CCA5A-8692-4F50-9545-18529B6DA441}" name="japanese"/>
+    <tableColumn id="3" xr3:uid="{E8C8808D-C4BB-4616-92DA-D4F41CA2C192}" name="english"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -17933,10 +18135,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:G3042"/>
+  <dimension ref="A1:G3077"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3009" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C3042" sqref="C3042"/>
+    <sheetView tabSelected="1" topLeftCell="A3036" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A3076" sqref="A3076"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.5703125" defaultRowHeight="15"/>
@@ -17950,7 +18152,7 @@
       <c r="A1" s="88" t="s">
         <v>5462</v>
       </c>
-      <c r="B1" s="89" t="s">
+      <c r="B1" s="92" t="s">
         <v>5463</v>
       </c>
       <c r="C1" s="88" t="s">
@@ -24089,8 +24291,8 @@
       <c r="B543" t="s">
         <v>441</v>
       </c>
-      <c r="C543" t="s">
-        <v>319</v>
+      <c r="C543" s="91" t="s">
+        <v>3586</v>
       </c>
       <c r="E543" s="2"/>
     </row>
@@ -25691,7 +25893,7 @@
       <c r="B678" s="5" t="s">
         <v>358</v>
       </c>
-      <c r="C678" s="90" t="s">
+      <c r="C678" s="89" t="s">
         <v>2839</v>
       </c>
       <c r="D678" s="2"/>
@@ -30346,7 +30548,7 @@
       <c r="B1090" t="s">
         <v>1429</v>
       </c>
-      <c r="C1090" s="90" t="s">
+      <c r="C1090" s="89" t="s">
         <v>5465</v>
       </c>
     </row>
@@ -30984,7 +31186,7 @@
       <c r="B1148" t="s">
         <v>2892</v>
       </c>
-      <c r="C1148" s="90" t="s">
+      <c r="C1148" s="89" t="s">
         <v>5468</v>
       </c>
     </row>
@@ -31017,7 +31219,7 @@
       <c r="B1151" t="s">
         <v>2895</v>
       </c>
-      <c r="C1151" s="90" t="s">
+      <c r="C1151" s="89" t="s">
         <v>5467</v>
       </c>
     </row>
@@ -33778,7 +33980,7 @@
       <c r="B1402" t="s">
         <v>2497</v>
       </c>
-      <c r="C1402" s="90" t="s">
+      <c r="C1402" s="89" t="s">
         <v>5466</v>
       </c>
     </row>
@@ -51252,7 +51454,7 @@
     </row>
     <row r="2991" spans="1:3">
       <c r="A2991">
-        <v>2989</v>
+        <v>2990</v>
       </c>
       <c r="B2991" t="s">
         <v>5469</v>
@@ -51263,7 +51465,7 @@
     </row>
     <row r="2992" spans="1:3">
       <c r="A2992">
-        <v>2989</v>
+        <v>2991</v>
       </c>
       <c r="B2992" t="s">
         <v>5470</v>
@@ -51274,7 +51476,7 @@
     </row>
     <row r="2993" spans="1:3">
       <c r="A2993">
-        <v>2989</v>
+        <v>2992</v>
       </c>
       <c r="B2993" t="s">
         <v>5471</v>
@@ -51285,18 +51487,18 @@
     </row>
     <row r="2994" spans="1:3">
       <c r="A2994">
-        <v>2989</v>
+        <v>2993</v>
       </c>
       <c r="B2994" t="s">
         <v>5472</v>
       </c>
-      <c r="C2994" s="91" t="s">
+      <c r="C2994" s="90" t="s">
         <v>5529</v>
       </c>
     </row>
     <row r="2995" spans="1:3">
       <c r="A2995">
-        <v>2989</v>
+        <v>2994</v>
       </c>
       <c r="B2995" t="s">
         <v>5473</v>
@@ -51307,7 +51509,7 @@
     </row>
     <row r="2996" spans="1:3">
       <c r="A2996">
-        <v>2989</v>
+        <v>2995</v>
       </c>
       <c r="B2996" t="s">
         <v>5474</v>
@@ -51318,7 +51520,7 @@
     </row>
     <row r="2997" spans="1:3">
       <c r="A2997">
-        <v>2989</v>
+        <v>2996</v>
       </c>
       <c r="B2997" t="s">
         <v>5475</v>
@@ -51329,18 +51531,18 @@
     </row>
     <row r="2998" spans="1:3">
       <c r="A2998">
-        <v>2989</v>
+        <v>2997</v>
       </c>
       <c r="B2998" t="s">
         <v>5476</v>
       </c>
-      <c r="C2998" s="91" t="s">
+      <c r="C2998" s="90" t="s">
         <v>5530</v>
       </c>
     </row>
     <row r="2999" spans="1:3">
       <c r="A2999">
-        <v>2989</v>
+        <v>2998</v>
       </c>
       <c r="B2999" t="s">
         <v>5477</v>
@@ -51351,73 +51553,73 @@
     </row>
     <row r="3000" spans="1:3">
       <c r="A3000">
-        <v>2989</v>
+        <v>2999</v>
       </c>
       <c r="B3000" t="s">
         <v>5478</v>
       </c>
-      <c r="C3000" s="91" t="s">
+      <c r="C3000" s="90" t="s">
         <v>5532</v>
       </c>
     </row>
     <row r="3001" spans="1:3">
       <c r="A3001">
-        <v>2989</v>
+        <v>3000</v>
       </c>
       <c r="B3001" t="s">
         <v>5479</v>
       </c>
-      <c r="C3001" s="91" t="s">
+      <c r="C3001" s="90" t="s">
         <v>5533</v>
       </c>
     </row>
     <row r="3002" spans="1:3">
       <c r="A3002">
-        <v>2989</v>
+        <v>3001</v>
       </c>
       <c r="B3002" t="s">
         <v>5480</v>
       </c>
-      <c r="C3002" s="91" t="s">
+      <c r="C3002" s="90" t="s">
         <v>5531</v>
       </c>
     </row>
     <row r="3003" spans="1:3">
       <c r="A3003">
-        <v>2989</v>
+        <v>3002</v>
       </c>
       <c r="B3003" t="s">
         <v>5481</v>
       </c>
-      <c r="C3003" s="91" t="s">
+      <c r="C3003" s="90" t="s">
         <v>5528</v>
       </c>
     </row>
     <row r="3004" spans="1:3">
       <c r="A3004">
-        <v>2989</v>
+        <v>3003</v>
       </c>
       <c r="B3004" t="s">
         <v>5482</v>
       </c>
-      <c r="C3004" s="91" t="s">
+      <c r="C3004" s="90" t="s">
         <v>5534</v>
       </c>
     </row>
     <row r="3005" spans="1:3">
       <c r="A3005">
-        <v>2989</v>
+        <v>3004</v>
       </c>
       <c r="B3005" t="s">
         <v>5483</v>
       </c>
-      <c r="C3005" s="91" t="s">
+      <c r="C3005" s="90" t="s">
         <v>5542</v>
       </c>
     </row>
     <row r="3006" spans="1:3">
       <c r="A3006">
-        <v>2989</v>
+        <v>3005</v>
       </c>
       <c r="B3006" t="s">
         <v>5484</v>
@@ -51428,7 +51630,7 @@
     </row>
     <row r="3007" spans="1:3">
       <c r="A3007">
-        <v>2989</v>
+        <v>3006</v>
       </c>
       <c r="B3007" t="s">
         <v>5485</v>
@@ -51439,7 +51641,7 @@
     </row>
     <row r="3008" spans="1:3">
       <c r="A3008">
-        <v>2989</v>
+        <v>3007</v>
       </c>
       <c r="B3008" t="s">
         <v>5486</v>
@@ -51450,7 +51652,7 @@
     </row>
     <row r="3009" spans="1:3">
       <c r="A3009">
-        <v>2989</v>
+        <v>3008</v>
       </c>
       <c r="B3009" t="s">
         <v>5487</v>
@@ -51461,7 +51663,7 @@
     </row>
     <row r="3010" spans="1:3">
       <c r="A3010">
-        <v>2989</v>
+        <v>3009</v>
       </c>
       <c r="B3010" t="s">
         <v>5488</v>
@@ -51472,40 +51674,40 @@
     </row>
     <row r="3011" spans="1:3">
       <c r="A3011">
-        <v>2989</v>
+        <v>3010</v>
       </c>
       <c r="B3011" t="s">
         <v>5489</v>
       </c>
-      <c r="C3011" s="91" t="s">
+      <c r="C3011" s="90" t="s">
         <v>5543</v>
       </c>
     </row>
     <row r="3012" spans="1:3">
       <c r="A3012">
-        <v>2989</v>
+        <v>3011</v>
       </c>
       <c r="B3012" t="s">
         <v>5490</v>
       </c>
-      <c r="C3012" s="91" t="s">
+      <c r="C3012" s="90" t="s">
         <v>5544</v>
       </c>
     </row>
     <row r="3013" spans="1:3">
       <c r="A3013">
-        <v>2989</v>
+        <v>3012</v>
       </c>
       <c r="B3013" t="s">
         <v>5491</v>
       </c>
-      <c r="C3013" s="91" t="s">
+      <c r="C3013" s="90" t="s">
         <v>5545</v>
       </c>
     </row>
     <row r="3014" spans="1:3">
       <c r="A3014">
-        <v>2989</v>
+        <v>3013</v>
       </c>
       <c r="B3014" t="s">
         <v>5492</v>
@@ -51516,29 +51718,29 @@
     </row>
     <row r="3015" spans="1:3">
       <c r="A3015">
-        <v>2989</v>
+        <v>3014</v>
       </c>
       <c r="B3015" t="s">
         <v>5493</v>
       </c>
-      <c r="C3015" s="91" t="s">
+      <c r="C3015" s="90" t="s">
         <v>5546</v>
       </c>
     </row>
     <row r="3016" spans="1:3">
       <c r="A3016">
-        <v>2989</v>
+        <v>3015</v>
       </c>
       <c r="B3016" t="s">
         <v>5494</v>
       </c>
-      <c r="C3016" s="91" t="s">
+      <c r="C3016" s="90" t="s">
         <v>5564</v>
       </c>
     </row>
     <row r="3017" spans="1:3">
       <c r="A3017">
-        <v>2989</v>
+        <v>3016</v>
       </c>
       <c r="B3017" t="s">
         <v>5495</v>
@@ -51549,7 +51751,7 @@
     </row>
     <row r="3018" spans="1:3">
       <c r="A3018">
-        <v>2989</v>
+        <v>3017</v>
       </c>
       <c r="B3018" t="s">
         <v>5496</v>
@@ -51560,18 +51762,18 @@
     </row>
     <row r="3019" spans="1:3">
       <c r="A3019">
-        <v>2989</v>
+        <v>3018</v>
       </c>
       <c r="B3019" t="s">
         <v>5497</v>
       </c>
-      <c r="C3019" s="91" t="s">
+      <c r="C3019" s="90" t="s">
         <v>5563</v>
       </c>
     </row>
     <row r="3020" spans="1:3">
       <c r="A3020">
-        <v>2989</v>
+        <v>3019</v>
       </c>
       <c r="B3020" t="s">
         <v>5498</v>
@@ -51582,7 +51784,7 @@
     </row>
     <row r="3021" spans="1:3">
       <c r="A3021">
-        <v>2989</v>
+        <v>3020</v>
       </c>
       <c r="B3021" t="s">
         <v>5499</v>
@@ -51593,7 +51795,7 @@
     </row>
     <row r="3022" spans="1:3">
       <c r="A3022">
-        <v>2989</v>
+        <v>3021</v>
       </c>
       <c r="B3022" t="s">
         <v>5500</v>
@@ -51604,7 +51806,7 @@
     </row>
     <row r="3023" spans="1:3">
       <c r="A3023">
-        <v>2989</v>
+        <v>3022</v>
       </c>
       <c r="B3023" t="s">
         <v>5501</v>
@@ -51615,7 +51817,7 @@
     </row>
     <row r="3024" spans="1:3">
       <c r="A3024">
-        <v>2989</v>
+        <v>3023</v>
       </c>
       <c r="B3024" t="s">
         <v>5502</v>
@@ -51626,7 +51828,7 @@
     </row>
     <row r="3025" spans="1:3">
       <c r="A3025">
-        <v>2989</v>
+        <v>3024</v>
       </c>
       <c r="B3025" t="s">
         <v>5503</v>
@@ -51637,18 +51839,18 @@
     </row>
     <row r="3026" spans="1:3">
       <c r="A3026">
-        <v>2989</v>
+        <v>3025</v>
       </c>
       <c r="B3026" t="s">
         <v>5504</v>
       </c>
-      <c r="C3026" s="91" t="s">
+      <c r="C3026" s="90" t="s">
         <v>5564</v>
       </c>
     </row>
     <row r="3027" spans="1:3">
       <c r="A3027">
-        <v>2989</v>
+        <v>3026</v>
       </c>
       <c r="B3027" t="s">
         <v>5505</v>
@@ -51659,7 +51861,7 @@
     </row>
     <row r="3028" spans="1:3">
       <c r="A3028">
-        <v>2989</v>
+        <v>3027</v>
       </c>
       <c r="B3028" t="s">
         <v>5506</v>
@@ -51670,18 +51872,18 @@
     </row>
     <row r="3029" spans="1:3">
       <c r="A3029">
-        <v>2989</v>
+        <v>3028</v>
       </c>
       <c r="B3029" t="s">
         <v>5507</v>
       </c>
-      <c r="C3029" s="91" t="s">
+      <c r="C3029" s="90" t="s">
         <v>5565</v>
       </c>
     </row>
     <row r="3030" spans="1:3">
       <c r="A3030">
-        <v>2989</v>
+        <v>3029</v>
       </c>
       <c r="B3030" t="s">
         <v>5508</v>
@@ -51692,7 +51894,7 @@
     </row>
     <row r="3031" spans="1:3">
       <c r="A3031">
-        <v>2989</v>
+        <v>3030</v>
       </c>
       <c r="B3031" t="s">
         <v>5509</v>
@@ -51703,18 +51905,18 @@
     </row>
     <row r="3032" spans="1:3">
       <c r="A3032">
-        <v>2989</v>
+        <v>3031</v>
       </c>
       <c r="B3032" t="s">
         <v>5510</v>
       </c>
-      <c r="C3032" s="91" t="s">
+      <c r="C3032" s="90" t="s">
         <v>5566</v>
       </c>
     </row>
     <row r="3033" spans="1:3">
       <c r="A3033">
-        <v>2989</v>
+        <v>3032</v>
       </c>
       <c r="B3033" t="s">
         <v>5511</v>
@@ -51725,7 +51927,7 @@
     </row>
     <row r="3034" spans="1:3">
       <c r="A3034">
-        <v>2989</v>
+        <v>3033</v>
       </c>
       <c r="B3034" t="s">
         <v>5512</v>
@@ -51736,7 +51938,7 @@
     </row>
     <row r="3035" spans="1:3">
       <c r="A3035">
-        <v>2989</v>
+        <v>3034</v>
       </c>
       <c r="B3035" t="s">
         <v>5513</v>
@@ -51747,7 +51949,7 @@
     </row>
     <row r="3036" spans="1:3">
       <c r="A3036">
-        <v>2989</v>
+        <v>3035</v>
       </c>
       <c r="B3036" t="s">
         <v>5514</v>
@@ -51758,7 +51960,7 @@
     </row>
     <row r="3037" spans="1:3">
       <c r="A3037">
-        <v>2989</v>
+        <v>3036</v>
       </c>
       <c r="B3037" t="s">
         <v>5515</v>
@@ -51769,7 +51971,7 @@
     </row>
     <row r="3038" spans="1:3">
       <c r="A3038">
-        <v>2989</v>
+        <v>3037</v>
       </c>
       <c r="B3038" t="s">
         <v>5516</v>
@@ -51780,18 +51982,18 @@
     </row>
     <row r="3039" spans="1:3">
       <c r="A3039">
-        <v>2989</v>
+        <v>3038</v>
       </c>
       <c r="B3039" t="s">
         <v>5517</v>
       </c>
-      <c r="C3039" s="91" t="s">
+      <c r="C3039" s="90" t="s">
         <v>5567</v>
       </c>
     </row>
     <row r="3040" spans="1:3">
       <c r="A3040">
-        <v>2989</v>
+        <v>3039</v>
       </c>
       <c r="B3040" t="s">
         <v>5518</v>
@@ -51802,7 +52004,7 @@
     </row>
     <row r="3041" spans="1:3">
       <c r="A3041">
-        <v>2989</v>
+        <v>3040</v>
       </c>
       <c r="B3041" t="s">
         <v>5519</v>
@@ -51813,13 +52015,398 @@
     </row>
     <row r="3042" spans="1:3">
       <c r="A3042">
-        <v>2989</v>
+        <v>3041</v>
       </c>
       <c r="B3042" t="s">
         <v>5520</v>
       </c>
       <c r="C3042" t="s">
         <v>5562</v>
+      </c>
+    </row>
+    <row r="3043" spans="1:3">
+      <c r="A3043">
+        <v>3042</v>
+      </c>
+      <c r="B3043" t="s">
+        <v>5568</v>
+      </c>
+      <c r="C3043" t="s">
+        <v>5586</v>
+      </c>
+    </row>
+    <row r="3044" spans="1:3">
+      <c r="A3044">
+        <v>3043</v>
+      </c>
+      <c r="B3044" t="s">
+        <v>5569</v>
+      </c>
+      <c r="C3044" t="s">
+        <v>5587</v>
+      </c>
+    </row>
+    <row r="3045" spans="1:3">
+      <c r="A3045">
+        <v>3044</v>
+      </c>
+      <c r="B3045" t="s">
+        <v>5570</v>
+      </c>
+      <c r="C3045" t="s">
+        <v>5588</v>
+      </c>
+    </row>
+    <row r="3046" spans="1:3">
+      <c r="A3046">
+        <v>3045</v>
+      </c>
+      <c r="B3046" t="s">
+        <v>5571</v>
+      </c>
+      <c r="C3046" t="s">
+        <v>5589</v>
+      </c>
+    </row>
+    <row r="3047" spans="1:3">
+      <c r="A3047">
+        <v>3046</v>
+      </c>
+      <c r="B3047" t="s">
+        <v>5572</v>
+      </c>
+      <c r="C3047" s="91" t="s">
+        <v>5596</v>
+      </c>
+    </row>
+    <row r="3048" spans="1:3">
+      <c r="A3048">
+        <v>3047</v>
+      </c>
+      <c r="B3048" t="s">
+        <v>5573</v>
+      </c>
+      <c r="C3048" t="s">
+        <v>5590</v>
+      </c>
+    </row>
+    <row r="3049" spans="1:3">
+      <c r="A3049">
+        <v>3048</v>
+      </c>
+      <c r="B3049" t="s">
+        <v>5574</v>
+      </c>
+      <c r="C3049" t="s">
+        <v>1655</v>
+      </c>
+    </row>
+    <row r="3050" spans="1:3">
+      <c r="A3050">
+        <v>3049</v>
+      </c>
+      <c r="B3050" t="s">
+        <v>5575</v>
+      </c>
+      <c r="C3050" s="91" t="s">
+        <v>5597</v>
+      </c>
+    </row>
+    <row r="3051" spans="1:3">
+      <c r="A3051">
+        <v>3050</v>
+      </c>
+      <c r="B3051" t="s">
+        <v>5576</v>
+      </c>
+      <c r="C3051" s="91" t="s">
+        <v>5598</v>
+      </c>
+    </row>
+    <row r="3052" spans="1:3">
+      <c r="A3052">
+        <v>3051</v>
+      </c>
+      <c r="B3052" t="s">
+        <v>5577</v>
+      </c>
+      <c r="C3052" t="s">
+        <v>5591</v>
+      </c>
+    </row>
+    <row r="3053" spans="1:3">
+      <c r="A3053">
+        <v>3052</v>
+      </c>
+      <c r="B3053" t="s">
+        <v>5578</v>
+      </c>
+      <c r="C3053" t="s">
+        <v>5592</v>
+      </c>
+    </row>
+    <row r="3054" spans="1:3">
+      <c r="A3054">
+        <v>3053</v>
+      </c>
+      <c r="B3054" t="s">
+        <v>5579</v>
+      </c>
+      <c r="C3054" s="91" t="s">
+        <v>5599</v>
+      </c>
+    </row>
+    <row r="3055" spans="1:3">
+      <c r="A3055">
+        <v>3054</v>
+      </c>
+      <c r="B3055" t="s">
+        <v>5580</v>
+      </c>
+      <c r="C3055" s="91" t="s">
+        <v>5600</v>
+      </c>
+    </row>
+    <row r="3056" spans="1:3">
+      <c r="A3056">
+        <v>3055</v>
+      </c>
+      <c r="B3056" t="s">
+        <v>5581</v>
+      </c>
+      <c r="C3056" t="s">
+        <v>5593</v>
+      </c>
+    </row>
+    <row r="3057" spans="1:3">
+      <c r="A3057">
+        <v>3056</v>
+      </c>
+      <c r="B3057" s="91" t="s">
+        <v>5582</v>
+      </c>
+      <c r="C3057" s="91" t="s">
+        <v>5601</v>
+      </c>
+    </row>
+    <row r="3058" spans="1:3">
+      <c r="A3058">
+        <v>3057</v>
+      </c>
+      <c r="B3058" t="s">
+        <v>5583</v>
+      </c>
+      <c r="C3058" t="s">
+        <v>5594</v>
+      </c>
+    </row>
+    <row r="3059" spans="1:3">
+      <c r="A3059">
+        <v>3058</v>
+      </c>
+      <c r="B3059" t="s">
+        <v>5584</v>
+      </c>
+      <c r="C3059" s="91" t="s">
+        <v>5602</v>
+      </c>
+    </row>
+    <row r="3060" spans="1:3">
+      <c r="A3060">
+        <v>3059</v>
+      </c>
+      <c r="B3060" t="s">
+        <v>5585</v>
+      </c>
+      <c r="C3060" t="s">
+        <v>5595</v>
+      </c>
+    </row>
+    <row r="3061" spans="1:3">
+      <c r="A3061">
+        <v>3060</v>
+      </c>
+      <c r="B3061" s="91" t="s">
+        <v>5603</v>
+      </c>
+      <c r="C3061" s="91" t="s">
+        <v>1975</v>
+      </c>
+    </row>
+    <row r="3062" spans="1:3">
+      <c r="A3062">
+        <v>3061</v>
+      </c>
+      <c r="B3062" s="91" t="s">
+        <v>5622</v>
+      </c>
+      <c r="C3062" s="91" t="s">
+        <v>5625</v>
+      </c>
+    </row>
+    <row r="3063" spans="1:3">
+      <c r="A3063">
+        <v>3062</v>
+      </c>
+      <c r="B3063" t="s">
+        <v>5604</v>
+      </c>
+      <c r="C3063" s="91" t="s">
+        <v>5626</v>
+      </c>
+    </row>
+    <row r="3064" spans="1:3">
+      <c r="A3064">
+        <v>3063</v>
+      </c>
+      <c r="B3064" t="s">
+        <v>5605</v>
+      </c>
+      <c r="C3064" t="s">
+        <v>1039</v>
+      </c>
+    </row>
+    <row r="3065" spans="1:3">
+      <c r="A3065">
+        <v>3064</v>
+      </c>
+      <c r="B3065" t="s">
+        <v>5606</v>
+      </c>
+      <c r="C3065" t="s">
+        <v>5617</v>
+      </c>
+    </row>
+    <row r="3066" spans="1:3">
+      <c r="A3066">
+        <v>3065</v>
+      </c>
+      <c r="B3066" t="s">
+        <v>5607</v>
+      </c>
+      <c r="C3066" t="s">
+        <v>5618</v>
+      </c>
+    </row>
+    <row r="3067" spans="1:3">
+      <c r="A3067">
+        <v>3066</v>
+      </c>
+      <c r="B3067" t="s">
+        <v>5608</v>
+      </c>
+      <c r="C3067" s="91" t="s">
+        <v>4602</v>
+      </c>
+    </row>
+    <row r="3068" spans="1:3">
+      <c r="A3068">
+        <v>3067</v>
+      </c>
+      <c r="B3068" t="s">
+        <v>5609</v>
+      </c>
+      <c r="C3068" s="91" t="s">
+        <v>5627</v>
+      </c>
+    </row>
+    <row r="3069" spans="1:3">
+      <c r="A3069">
+        <v>3068</v>
+      </c>
+      <c r="B3069" t="s">
+        <v>5610</v>
+      </c>
+      <c r="C3069" t="s">
+        <v>5619</v>
+      </c>
+    </row>
+    <row r="3070" spans="1:3">
+      <c r="A3070">
+        <v>3069</v>
+      </c>
+      <c r="B3070" t="s">
+        <v>5611</v>
+      </c>
+      <c r="C3070" t="s">
+        <v>5620</v>
+      </c>
+    </row>
+    <row r="3071" spans="1:3">
+      <c r="A3071">
+        <v>3070</v>
+      </c>
+      <c r="B3071" s="91" t="s">
+        <v>5612</v>
+      </c>
+      <c r="C3071" s="91" t="s">
+        <v>5628</v>
+      </c>
+    </row>
+    <row r="3072" spans="1:3">
+      <c r="A3072">
+        <v>3071</v>
+      </c>
+      <c r="B3072" t="s">
+        <v>5613</v>
+      </c>
+      <c r="C3072" t="s">
+        <v>5621</v>
+      </c>
+    </row>
+    <row r="3073" spans="1:3">
+      <c r="A3073">
+        <v>3072</v>
+      </c>
+      <c r="B3073" s="91" t="s">
+        <v>5623</v>
+      </c>
+      <c r="C3073" t="s">
+        <v>4134</v>
+      </c>
+    </row>
+    <row r="3074" spans="1:3">
+      <c r="A3074">
+        <v>3073</v>
+      </c>
+      <c r="B3074" t="s">
+        <v>5614</v>
+      </c>
+      <c r="C3074" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="3075" spans="1:3">
+      <c r="A3075">
+        <v>3074</v>
+      </c>
+      <c r="B3075" t="s">
+        <v>5615</v>
+      </c>
+      <c r="C3075" t="s">
+        <v>4639</v>
+      </c>
+    </row>
+    <row r="3076" spans="1:3">
+      <c r="A3076">
+        <v>3075</v>
+      </c>
+      <c r="B3076" s="91" t="s">
+        <v>5624</v>
+      </c>
+      <c r="C3076" t="s">
+        <v>4152</v>
+      </c>
+    </row>
+    <row r="3077" spans="1:3">
+      <c r="A3077">
+        <v>3076</v>
+      </c>
+      <c r="B3077" t="s">
+        <v>5616</v>
+      </c>
+      <c r="C3077" s="91" t="s">
+        <v>5629</v>
       </c>
     </row>
   </sheetData>
@@ -51828,5 +52415,8 @@
   </conditionalFormatting>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
 </worksheet>
 </file>